--- a/Umfrage/Auswertung.xlsx
+++ b/Umfrage/Auswertung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dropbox\BA\Umfrage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\git\ba\Umfrage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="87">
   <si>
     <t>ZettelId</t>
   </si>
@@ -246,16 +246,10 @@
     <t>A&gt;70% B&gt;10% C&lt;10%                ABC Kategorie</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>Avg</t>
-  </si>
-  <si>
-    <t>Prozent Avg</t>
   </si>
   <si>
     <t>Prozent Zufriedenheit</t>
@@ -271,6 +265,33 @@
   </si>
   <si>
     <t>Anzahl WI</t>
+  </si>
+  <si>
+    <t>Prozent Häufigkeit</t>
+  </si>
+  <si>
+    <t>Korrel Häufigkeit - Zufriedenheit</t>
+  </si>
+  <si>
+    <t>Korrel Nutzer - Zufriedenheit</t>
+  </si>
+  <si>
+    <t>ZettelID</t>
+  </si>
+  <si>
+    <t>Anzahl Dienste</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Anzahl Studies</t>
+  </si>
+  <si>
+    <t>Avg Dienste</t>
+  </si>
+  <si>
+    <t>Korrelation Semester Anzahl Dienste</t>
   </si>
 </sst>
 </file>
@@ -1122,11 +1143,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="280583472"/>
-        <c:axId val="280577592"/>
+        <c:axId val="317029344"/>
+        <c:axId val="317030912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280583472"/>
+        <c:axId val="317029344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280577592"/>
+        <c:crossAx val="317030912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +1191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280577592"/>
+        <c:axId val="317030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280583472"/>
+        <c:crossAx val="317029344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,11 +1487,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="280577984"/>
-        <c:axId val="280580336"/>
+        <c:axId val="317030520"/>
+        <c:axId val="317031696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280577984"/>
+        <c:axId val="317030520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1534,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280580336"/>
+        <c:crossAx val="317031696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1521,7 +1542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280580336"/>
+        <c:axId val="317031696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1573,7 +1594,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280577984"/>
+        <c:crossAx val="317030520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1639,6 +1660,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Korrelationsdiagramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2071,11 +2117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280581120"/>
-        <c:axId val="280582296"/>
+        <c:axId val="317034832"/>
+        <c:axId val="317034048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280581120"/>
+        <c:axId val="317034832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2164,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280582296"/>
+        <c:crossAx val="317034048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280582296"/>
+        <c:axId val="317034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2178,7 +2224,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280581120"/>
+        <c:crossAx val="317034832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,6 +2305,1157 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15669525974014586"/>
+                  <c:y val="-0.28892415880136813"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16835375611077827"/>
+                  <c:y val="-0.28892426685155953"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$S$3:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.62628865979381443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65217391304347827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76582278481012656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81140350877192979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72435897435897434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71551724137931039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68269230769230771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$Y$3:$Y$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.52061855670103097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98101265822784811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6228070175438597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6607142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46153846153846145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36206896551724133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8461538461538547E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55882352941176472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413900576"/>
+        <c:axId val="413908024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413900576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zufriedenheit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413908024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413908024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413900576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Korrelation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> zwischen Semester</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>und Anzahl der Dienste</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10741589381945721"/>
+                  <c:y val="-0.19961062360777185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$R$43:$R$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$U$43:$U$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.8076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.117647058823529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412508504"/>
+        <c:axId val="412519872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412508504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Semster</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412519872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412519872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Dienste</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412508504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2300,6 +3497,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3345,6 +4622,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3379,16 +5688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>482401</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>137433</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>863401</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>206706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>628402</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>191738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3409,16 +5718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>768185</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>96487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>809007</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3427,8 +5736,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="16750393" y="11035393"/>
-          <a:ext cx="40822" cy="5184321"/>
+          <a:off x="22242730" y="15648214"/>
+          <a:ext cx="40822" cy="5277098"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3453,16 +5762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>649431</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>205345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137309</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3471,8 +5780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15539357" y="10940143"/>
-          <a:ext cx="571500" cy="544286"/>
+          <a:off x="21032931" y="15549254"/>
+          <a:ext cx="571500" cy="555419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3511,16 +5820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>186417</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>980952</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>203735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>126176</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3534,6 +5843,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>587581</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>554183</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>202621</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4124,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="T29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE43" sqref="AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4147,7 +6516,9 @@
     <col min="18" max="18" width="16.875" style="1" customWidth="1"/>
     <col min="19" max="20" width="19.625" style="1" customWidth="1"/>
     <col min="21" max="21" width="14.375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.875" style="1"/>
+    <col min="22" max="24" width="10.875" style="1"/>
+    <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -4247,10 +6618,10 @@
         <v>41</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>44</v>
@@ -4262,10 +6633,10 @@
         <v>46</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>48</v>
@@ -7706,7 +10077,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ref="N26" si="27">COUNTIF(D27:D1025,M26)</f>
@@ -8019,7 +10390,7 @@
         <v>66</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
@@ -8069,6 +10440,12 @@
       <c r="P32" s="1">
         <v>17</v>
       </c>
+      <c r="Y32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -8104,6 +10481,14 @@
       <c r="K33" s="1">
         <v>1</v>
       </c>
+      <c r="Y33" s="1">
+        <f>CORREL(S3:S26,Y3:Y26)</f>
+        <v>0.47706779982670605</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>CORREL(O3:O26,S3:S26)</f>
+        <v>-5.5587839827627765E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -8244,9 +10629,6 @@
       <c r="K37" s="1">
         <v>2</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -8283,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -8425,6 +10807,30 @@
       <c r="K42" s="1">
         <v>1</v>
       </c>
+      <c r="M42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -8460,6 +10866,34 @@
       <c r="K43" s="1">
         <v>1</v>
       </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <f>SUMIF(A1:A1000,M43)</f>
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <f>SUMIFS(N43:N1001,O43:O1001,R43)</f>
+        <v>99</v>
+      </c>
+      <c r="T43" s="1">
+        <f>COUNTIF(O43:O1001,R43)</f>
+        <v>26</v>
+      </c>
+      <c r="U43" s="1">
+        <f>S43/T43</f>
+        <v>3.8076923076923075</v>
+      </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -8495,6 +10929,34 @@
       <c r="K44" s="1">
         <v>1</v>
       </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <f>COUNTIF(A3:A1000,M44)</f>
+        <v>5</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="1">
+        <v>2</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" ref="S44:S51" si="53">SUMIFS(N44:N1002,O44:O1002,R44)</f>
+        <v>64</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" ref="T44:T51" si="54">COUNTIF(O44:O1002,R44)</f>
+        <v>14</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" ref="U44:U51" si="55">S44/T44</f>
+        <v>4.5714285714285712</v>
+      </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -8530,6 +10992,34 @@
       <c r="K45" s="1">
         <v>1</v>
       </c>
+      <c r="M45" s="1">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1">
+        <f>COUNTIF(A3:A1000,M45)</f>
+        <v>3</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="1">
+        <v>3</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="53"/>
+        <v>104</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="54"/>
+        <v>17</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="55"/>
+        <v>6.117647058823529</v>
+      </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -8565,6 +11055,34 @@
       <c r="K46" s="1">
         <v>2</v>
       </c>
+      <c r="M46" s="1">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ref="N46:N50" si="56">COUNTIF(A4:A1001,M46)</f>
+        <v>4</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="1">
+        <v>4</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="53"/>
+        <v>124</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="54"/>
+        <v>22</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="55"/>
+        <v>5.6363636363636367</v>
+      </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -8600,6 +11118,34 @@
       <c r="K47" s="1">
         <v>1</v>
       </c>
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="1">
+        <v>5</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="53"/>
+        <v>112</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="54"/>
+        <v>15</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="55"/>
+        <v>7.4666666666666668</v>
+      </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -8635,8 +11181,36 @@
       <c r="K48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M48" s="1">
+        <v>6</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="O48" s="1">
+        <v>4</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="1">
+        <v>6</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="53"/>
+        <v>27</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="55"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -8670,8 +11244,36 @@
       <c r="K49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="1">
+        <v>7</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="O49" s="1">
+        <v>3</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="1">
+        <v>7</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -8705,8 +11307,35 @@
       <c r="K50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <v>8</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="O50" s="1">
+        <v>5</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R50" s="1">
+        <v>8</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -8740,8 +11369,35 @@
       <c r="K51" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="1">
+        <v>9</v>
+      </c>
+      <c r="N51" s="1">
+        <f>COUNTIF(A9:A1006,M51)</f>
+        <v>4</v>
+      </c>
+      <c r="O51" s="1">
+        <v>2</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51" s="1">
+        <v>9</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>15</v>
       </c>
@@ -8775,8 +11431,21 @@
       <c r="K52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <v>10</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" ref="N52:N115" si="57">COUNTIF(A10:A1007,M52)</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -8810,8 +11479,21 @@
       <c r="K53" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <v>11</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -8845,8 +11527,24 @@
       <c r="K54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <v>12</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>16</v>
       </c>
@@ -8880,8 +11578,25 @@
       <c r="K55" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="1">
+        <v>13</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X55" s="1">
+        <f>CORREL(R43:R49,U43:U49)</f>
+        <v>0.6317346250958954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>16</v>
       </c>
@@ -8915,8 +11630,21 @@
       <c r="K56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M56" s="1">
+        <v>14</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>16</v>
       </c>
@@ -8950,8 +11678,21 @@
       <c r="K57" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M57" s="1">
+        <v>15</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>16</v>
       </c>
@@ -8985,8 +11726,21 @@
       <c r="K58" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58" s="1">
+        <v>16</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>16</v>
       </c>
@@ -9020,8 +11774,21 @@
       <c r="K59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M59" s="1">
+        <v>17</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>17</v>
       </c>
@@ -9055,8 +11822,21 @@
       <c r="K60" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60" s="1">
+        <v>18</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>17</v>
       </c>
@@ -9090,8 +11870,21 @@
       <c r="K61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <v>19</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>17</v>
       </c>
@@ -9125,8 +11918,21 @@
       <c r="K62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <v>20</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>17</v>
       </c>
@@ -9160,8 +11966,21 @@
       <c r="K63" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>21</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -9195,8 +12014,21 @@
       <c r="K64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="1">
+        <v>22</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>18</v>
       </c>
@@ -9230,8 +12062,21 @@
       <c r="K65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="1">
+        <v>23</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>18</v>
       </c>
@@ -9265,8 +12110,21 @@
       <c r="K66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66" s="1">
+        <v>24</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -9300,8 +12158,21 @@
       <c r="K67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" s="1">
+        <v>25</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>19</v>
       </c>
@@ -9335,8 +12206,21 @@
       <c r="K68" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" s="1">
+        <v>26</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>19</v>
       </c>
@@ -9370,8 +12254,21 @@
       <c r="K69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69" s="1">
+        <v>27</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O69" s="1">
+        <v>4</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -9405,8 +12302,21 @@
       <c r="K70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70" s="1">
+        <v>28</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>20</v>
       </c>
@@ -9440,8 +12350,21 @@
       <c r="K71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71" s="1">
+        <v>29</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>20</v>
       </c>
@@ -9475,8 +12398,21 @@
       <c r="K72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M72" s="1">
+        <v>30</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>20</v>
       </c>
@@ -9510,8 +12446,21 @@
       <c r="K73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73" s="1">
+        <v>31</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>20</v>
       </c>
@@ -9545,8 +12494,21 @@
       <c r="K74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M74" s="1">
+        <v>32</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="O74" s="1">
+        <v>2</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>20</v>
       </c>
@@ -9580,8 +12542,21 @@
       <c r="K75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75" s="1">
+        <v>33</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>20</v>
       </c>
@@ -9615,8 +12590,21 @@
       <c r="K76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76" s="1">
+        <v>34</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>21</v>
       </c>
@@ -9650,8 +12638,21 @@
       <c r="K77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M77" s="1">
+        <v>35</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>21</v>
       </c>
@@ -9685,8 +12686,21 @@
       <c r="K78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78" s="1">
+        <v>36</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>21</v>
       </c>
@@ -9720,8 +12734,21 @@
       <c r="K79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M79" s="1">
+        <v>37</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="O79" s="1">
+        <v>2</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>21</v>
       </c>
@@ -9755,8 +12782,21 @@
       <c r="K80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M80" s="1">
+        <v>38</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="O80" s="1">
+        <v>2</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>22</v>
       </c>
@@ -9790,8 +12830,21 @@
       <c r="K81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M81" s="1">
+        <v>39</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O81" s="1">
+        <v>2</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>22</v>
       </c>
@@ -9825,8 +12878,21 @@
       <c r="K82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="1">
+        <v>40</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>2</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>23</v>
       </c>
@@ -9860,8 +12926,21 @@
       <c r="K83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M83" s="1">
+        <v>41</v>
+      </c>
+      <c r="N83" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O83" s="1">
+        <v>2</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>23</v>
       </c>
@@ -9895,8 +12974,21 @@
       <c r="K84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84" s="1">
+        <v>42</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>23</v>
       </c>
@@ -9930,8 +13022,21 @@
       <c r="K85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85" s="1">
+        <v>43</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O85" s="1">
+        <v>2</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>23</v>
       </c>
@@ -9965,8 +13070,21 @@
       <c r="K86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="1">
+        <v>44</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O86" s="1">
+        <v>3</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -10000,8 +13118,21 @@
       <c r="K87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="1">
+        <v>45</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O87" s="1">
+        <v>2</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -10035,8 +13166,21 @@
       <c r="K88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="1">
+        <v>46</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="O88" s="1">
+        <v>3</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>24</v>
       </c>
@@ -10070,8 +13214,21 @@
       <c r="K89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89" s="1">
+        <v>47</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>3</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>24</v>
       </c>
@@ -10105,8 +13262,21 @@
       <c r="K90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="1">
+        <v>48</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O90" s="1">
+        <v>3</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>24</v>
       </c>
@@ -10140,8 +13310,21 @@
       <c r="K91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M91" s="1">
+        <v>49</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="O91" s="1">
+        <v>3</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>25</v>
       </c>
@@ -10175,8 +13358,21 @@
       <c r="K92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92" s="1">
+        <v>50</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O92" s="1">
+        <v>3</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>25</v>
       </c>
@@ -10210,8 +13406,21 @@
       <c r="K93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93" s="1">
+        <v>51</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O93" s="1">
+        <v>4</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>25</v>
       </c>
@@ -10245,8 +13454,21 @@
       <c r="K94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94" s="1">
+        <v>52</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="O94" s="1">
+        <v>3</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>25</v>
       </c>
@@ -10280,8 +13502,21 @@
       <c r="K95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95" s="1">
+        <v>53</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O95" s="1">
+        <v>4</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>26</v>
       </c>
@@ -10315,8 +13550,21 @@
       <c r="K96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96" s="1">
+        <v>54</v>
+      </c>
+      <c r="N96" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O96" s="1">
+        <v>3</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>26</v>
       </c>
@@ -10350,8 +13598,21 @@
       <c r="K97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97" s="1">
+        <v>55</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="O97" s="1">
+        <v>3</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>26</v>
       </c>
@@ -10385,8 +13646,21 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98" s="1">
+        <v>56</v>
+      </c>
+      <c r="N98" s="1">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="O98" s="1">
+        <v>3</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -10420,8 +13694,21 @@
       <c r="K99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99" s="1">
+        <v>57</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="O99" s="1">
+        <v>4</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -10455,8 +13742,21 @@
       <c r="K100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100" s="1">
+        <v>58</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O100" s="1">
+        <v>3</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>27</v>
       </c>
@@ -10490,8 +13790,21 @@
       <c r="K101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101" s="1">
+        <v>59</v>
+      </c>
+      <c r="N101" s="1">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="O101" s="1">
+        <v>3</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>27</v>
       </c>
@@ -10525,8 +13838,21 @@
       <c r="K102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102" s="1">
+        <v>60</v>
+      </c>
+      <c r="N102" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O102" s="1">
+        <v>4</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>28</v>
       </c>
@@ -10560,8 +13886,21 @@
       <c r="K103" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M103" s="1">
+        <v>61</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O103" s="1">
+        <v>3</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>28</v>
       </c>
@@ -10595,8 +13934,21 @@
       <c r="K104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="1">
+        <v>62</v>
+      </c>
+      <c r="N104" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O104" s="1">
+        <v>3</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>28</v>
       </c>
@@ -10630,8 +13982,21 @@
       <c r="K105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="1">
+        <v>63</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="O105" s="1">
+        <v>3</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>28</v>
       </c>
@@ -10665,8 +14030,21 @@
       <c r="K106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="1">
+        <v>64</v>
+      </c>
+      <c r="N106" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O106" s="1">
+        <v>4</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>29</v>
       </c>
@@ -10700,8 +14078,21 @@
       <c r="K107" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M107" s="1">
+        <v>65</v>
+      </c>
+      <c r="N107" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O107" s="1">
+        <v>3</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>29</v>
       </c>
@@ -10735,8 +14126,21 @@
       <c r="K108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M108" s="1">
+        <v>66</v>
+      </c>
+      <c r="N108" s="1">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="O108" s="1">
+        <v>5</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>29</v>
       </c>
@@ -10770,8 +14174,21 @@
       <c r="K109" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" s="1">
+        <v>67</v>
+      </c>
+      <c r="N109" s="1">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="O109" s="1">
+        <v>5</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>29</v>
       </c>
@@ -10805,8 +14222,21 @@
       <c r="K110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="1">
+        <v>68</v>
+      </c>
+      <c r="N110" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O110" s="1">
+        <v>5</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>29</v>
       </c>
@@ -10840,8 +14270,21 @@
       <c r="K111" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M111" s="1">
+        <v>69</v>
+      </c>
+      <c r="N111" s="1">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="O111" s="1">
+        <v>5</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>30</v>
       </c>
@@ -10875,8 +14318,21 @@
       <c r="K112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112" s="1">
+        <v>70</v>
+      </c>
+      <c r="N112" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O112" s="1">
+        <v>5</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>30</v>
       </c>
@@ -10910,8 +14366,21 @@
       <c r="K113" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="1">
+        <v>71</v>
+      </c>
+      <c r="N113" s="1">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="O113" s="1">
+        <v>5</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>30</v>
       </c>
@@ -10945,8 +14414,21 @@
       <c r="K114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114" s="1">
+        <v>72</v>
+      </c>
+      <c r="N114" s="1">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="O114" s="1">
+        <v>5</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>30</v>
       </c>
@@ -10980,8 +14462,21 @@
       <c r="K115" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="1">
+        <v>73</v>
+      </c>
+      <c r="N115" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="O115" s="1">
+        <v>5</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>31</v>
       </c>
@@ -11015,8 +14510,21 @@
       <c r="K116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="1">
+        <v>74</v>
+      </c>
+      <c r="N116" s="1">
+        <f t="shared" ref="N116:N142" si="58">COUNTIF(A74:A1071,M116)</f>
+        <v>7</v>
+      </c>
+      <c r="O116" s="1">
+        <v>5</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>31</v>
       </c>
@@ -11050,8 +14558,21 @@
       <c r="K117" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117" s="1">
+        <v>75</v>
+      </c>
+      <c r="N117" s="1">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="O117" s="1">
+        <v>5</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>31</v>
       </c>
@@ -11085,8 +14606,21 @@
       <c r="K118" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="1">
+        <v>76</v>
+      </c>
+      <c r="N118" s="1">
+        <f t="shared" si="58"/>
+        <v>9</v>
+      </c>
+      <c r="O118" s="1">
+        <v>5</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>31</v>
       </c>
@@ -11120,8 +14654,21 @@
       <c r="K119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119" s="1">
+        <v>77</v>
+      </c>
+      <c r="N119" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O119" s="1">
+        <v>7</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>31</v>
       </c>
@@ -11155,8 +14702,21 @@
       <c r="K120" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="1">
+        <v>78</v>
+      </c>
+      <c r="N120" s="1">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="O120" s="1">
+        <v>5</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>31</v>
       </c>
@@ -11190,8 +14750,21 @@
       <c r="K121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121" s="1">
+        <v>79</v>
+      </c>
+      <c r="N121" s="1">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="O121" s="1">
+        <v>5</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>31</v>
       </c>
@@ -11225,8 +14798,21 @@
       <c r="K122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122" s="1">
+        <v>80</v>
+      </c>
+      <c r="N122" s="1">
+        <f t="shared" si="58"/>
+        <v>9</v>
+      </c>
+      <c r="O122" s="1">
+        <v>5</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>32</v>
       </c>
@@ -11260,8 +14846,21 @@
       <c r="K123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M123" s="1">
+        <v>81</v>
+      </c>
+      <c r="N123" s="1">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="O123" s="1">
+        <v>4</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>32</v>
       </c>
@@ -11295,8 +14894,21 @@
       <c r="K124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M124" s="1">
+        <v>82</v>
+      </c>
+      <c r="N124" s="1">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="O124" s="1">
+        <v>4</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>32</v>
       </c>
@@ -11330,8 +14942,21 @@
       <c r="K125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M125" s="1">
+        <v>83</v>
+      </c>
+      <c r="N125" s="1">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="O125" s="1">
+        <v>4</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32</v>
       </c>
@@ -11365,8 +14990,21 @@
       <c r="K126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M126" s="1">
+        <v>84</v>
+      </c>
+      <c r="N126" s="1">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="O126" s="1">
+        <v>6</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>32</v>
       </c>
@@ -11400,8 +15038,21 @@
       <c r="K127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M127" s="1">
+        <v>85</v>
+      </c>
+      <c r="N127" s="1">
+        <f t="shared" si="58"/>
+        <v>3</v>
+      </c>
+      <c r="O127" s="1">
+        <v>4</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>32</v>
       </c>
@@ -11435,8 +15086,21 @@
       <c r="K128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M128" s="1">
+        <v>86</v>
+      </c>
+      <c r="N128" s="1">
+        <f t="shared" si="58"/>
+        <v>3</v>
+      </c>
+      <c r="O128" s="1">
+        <v>4</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -11470,8 +15134,21 @@
       <c r="K129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M129" s="1">
+        <v>87</v>
+      </c>
+      <c r="N129" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O129" s="1">
+        <v>4</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>32</v>
       </c>
@@ -11505,8 +15182,21 @@
       <c r="K130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M130" s="1">
+        <v>88</v>
+      </c>
+      <c r="N130" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O130" s="1">
+        <v>4</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>33</v>
       </c>
@@ -11540,8 +15230,21 @@
       <c r="K131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M131" s="1">
+        <v>89</v>
+      </c>
+      <c r="N131" s="1">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="O131" s="1">
+        <v>4</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>33</v>
       </c>
@@ -11575,8 +15278,21 @@
       <c r="K132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M132" s="1">
+        <v>90</v>
+      </c>
+      <c r="N132" s="1">
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="O132" s="1">
+        <v>4</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>33</v>
       </c>
@@ -11610,8 +15326,21 @@
       <c r="K133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M133" s="1">
+        <v>91</v>
+      </c>
+      <c r="N133" s="1">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="O133" s="1">
+        <v>4</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>33</v>
       </c>
@@ -11645,8 +15374,21 @@
       <c r="K134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M134" s="1">
+        <v>92</v>
+      </c>
+      <c r="N134" s="1">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="O134" s="1">
+        <v>6</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>33</v>
       </c>
@@ -11680,8 +15422,21 @@
       <c r="K135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M135" s="1">
+        <v>93</v>
+      </c>
+      <c r="N135" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O135" s="1">
+        <v>6</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>33</v>
       </c>
@@ -11715,8 +15470,21 @@
       <c r="K136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M136" s="1">
+        <v>94</v>
+      </c>
+      <c r="N136" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O136" s="1">
+        <v>6</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>33</v>
       </c>
@@ -11750,8 +15518,21 @@
       <c r="K137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M137" s="1">
+        <v>95</v>
+      </c>
+      <c r="N137" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O137" s="1">
+        <v>6</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>33</v>
       </c>
@@ -11785,8 +15566,21 @@
       <c r="K138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M138" s="1">
+        <v>96</v>
+      </c>
+      <c r="N138" s="1">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="O138" s="1">
+        <v>4</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>34</v>
       </c>
@@ -11820,8 +15614,21 @@
       <c r="K139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M139" s="1">
+        <v>97</v>
+      </c>
+      <c r="N139" s="1">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="O139" s="1">
+        <v>4</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>34</v>
       </c>
@@ -11855,8 +15662,21 @@
       <c r="K140" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M140" s="1">
+        <v>98</v>
+      </c>
+      <c r="N140" s="1">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O140" s="1">
+        <v>4</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>34</v>
       </c>
@@ -11890,8 +15710,21 @@
       <c r="K141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M141" s="1">
+        <v>99</v>
+      </c>
+      <c r="N141" s="1">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="O141" s="1">
+        <v>4</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>35</v>
       </c>
@@ -11925,8 +15758,21 @@
       <c r="K142" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M142" s="1">
+        <v>100</v>
+      </c>
+      <c r="N142" s="1">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="O142" s="1">
+        <v>4</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>35</v>
       </c>
@@ -11961,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>36</v>
       </c>
@@ -21941,7 +25787,7 @@
         <v>81</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C429" s="13">
         <v>4</v>
@@ -21976,7 +25822,7 @@
         <v>81</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C430" s="13">
         <v>4</v>
@@ -22011,7 +25857,7 @@
         <v>81</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C431" s="13">
         <v>4</v>
@@ -22046,7 +25892,7 @@
         <v>81</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C432" s="13">
         <v>4</v>
@@ -22081,7 +25927,7 @@
         <v>81</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C433" s="13">
         <v>4</v>
@@ -22116,7 +25962,7 @@
         <v>82</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C434" s="13">
         <v>4</v>
@@ -22151,7 +25997,7 @@
         <v>82</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C435" s="13">
         <v>4</v>
@@ -22186,7 +26032,7 @@
         <v>82</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C436" s="13">
         <v>4</v>
@@ -22221,7 +26067,7 @@
         <v>82</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C437" s="13">
         <v>4</v>
@@ -22256,7 +26102,7 @@
         <v>83</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C438" s="13">
         <v>4</v>
@@ -22291,7 +26137,7 @@
         <v>83</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C439" s="13">
         <v>4</v>
@@ -22326,7 +26172,7 @@
         <v>83</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C440" s="13">
         <v>4</v>
@@ -22361,7 +26207,7 @@
         <v>83</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C441" s="13">
         <v>4</v>
@@ -22396,7 +26242,7 @@
         <v>84</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C442" s="13">
         <v>6</v>
@@ -22431,7 +26277,7 @@
         <v>84</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C443" s="13">
         <v>6</v>
@@ -22466,7 +26312,7 @@
         <v>84</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C444" s="13">
         <v>6</v>
@@ -22501,7 +26347,7 @@
         <v>84</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C445" s="13">
         <v>6</v>
@@ -22536,7 +26382,7 @@
         <v>85</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C446" s="13">
         <v>6</v>
@@ -22571,7 +26417,7 @@
         <v>85</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C447" s="13">
         <v>6</v>
@@ -22606,7 +26452,7 @@
         <v>85</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C448" s="13">
         <v>6</v>
@@ -22641,7 +26487,7 @@
         <v>86</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C449" s="13">
         <v>6</v>
@@ -22676,7 +26522,7 @@
         <v>86</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C450" s="13">
         <v>6</v>
@@ -22711,7 +26557,7 @@
         <v>86</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C451" s="13">
         <v>6</v>
@@ -22746,7 +26592,7 @@
         <v>87</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C452" s="1">
         <v>4</v>
@@ -22781,7 +26627,7 @@
         <v>87</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C453" s="1">
         <v>4</v>
@@ -22816,7 +26662,7 @@
         <v>87</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C454" s="1">
         <v>4</v>
@@ -22851,7 +26697,7 @@
         <v>87</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C455" s="1">
         <v>4</v>
@@ -22886,7 +26732,7 @@
         <v>87</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C456" s="1">
         <v>4</v>
@@ -22921,7 +26767,7 @@
         <v>87</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C457" s="1">
         <v>4</v>
@@ -22956,7 +26802,7 @@
         <v>88</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C458" s="1">
         <v>4</v>
@@ -22991,7 +26837,7 @@
         <v>88</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C459" s="1">
         <v>4</v>
@@ -23026,7 +26872,7 @@
         <v>88</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C460" s="1">
         <v>4</v>
@@ -23061,7 +26907,7 @@
         <v>88</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C461" s="1">
         <v>4</v>
@@ -23096,7 +26942,7 @@
         <v>88</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C462" s="1">
         <v>4</v>
@@ -23131,7 +26977,7 @@
         <v>88</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C463" s="1">
         <v>4</v>
@@ -23166,7 +27012,7 @@
         <v>89</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C464" s="1">
         <v>4</v>
@@ -23201,7 +27047,7 @@
         <v>89</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C465" s="1">
         <v>4</v>
@@ -23236,7 +27082,7 @@
         <v>89</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C466" s="1">
         <v>4</v>
@@ -23271,7 +27117,7 @@
         <v>89</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C467" s="1">
         <v>4</v>
@@ -23306,7 +27152,7 @@
         <v>89</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C468" s="1">
         <v>4</v>
@@ -23341,7 +27187,7 @@
         <v>90</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C469" s="1">
         <v>4</v>
@@ -23376,7 +27222,7 @@
         <v>90</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C470" s="1">
         <v>4</v>
@@ -23411,7 +27257,7 @@
         <v>90</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C471" s="1">
         <v>4</v>
@@ -23446,7 +27292,7 @@
         <v>90</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C472" s="1">
         <v>4</v>
@@ -23481,7 +27327,7 @@
         <v>90</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C473" s="1">
         <v>4</v>
@@ -23516,7 +27362,7 @@
         <v>90</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C474" s="1">
         <v>4</v>
@@ -23551,7 +27397,7 @@
         <v>90</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C475" s="1">
         <v>4</v>
@@ -23586,7 +27432,7 @@
         <v>90</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C476" s="1">
         <v>4</v>
@@ -23621,7 +27467,7 @@
         <v>90</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C477" s="1">
         <v>4</v>
@@ -23656,7 +27502,7 @@
         <v>90</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C478" s="1">
         <v>4</v>
@@ -23691,7 +27537,7 @@
         <v>91</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C479" s="1">
         <v>4</v>
@@ -23726,7 +27572,7 @@
         <v>91</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C480" s="1">
         <v>4</v>
@@ -23761,7 +27607,7 @@
         <v>91</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C481" s="1">
         <v>4</v>
@@ -23796,7 +27642,7 @@
         <v>91</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C482" s="1">
         <v>4</v>
@@ -23831,7 +27677,7 @@
         <v>91</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C483" s="1">
         <v>4</v>
@@ -23866,7 +27712,7 @@
         <v>92</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C484" s="1">
         <v>6</v>
@@ -23901,7 +27747,7 @@
         <v>92</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C485" s="1">
         <v>6</v>
@@ -23936,7 +27782,7 @@
         <v>92</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C486" s="1">
         <v>6</v>
@@ -23971,7 +27817,7 @@
         <v>92</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C487" s="1">
         <v>6</v>
@@ -24006,7 +27852,7 @@
         <v>92</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C488" s="1">
         <v>6</v>
@@ -24041,7 +27887,7 @@
         <v>93</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C489" s="1">
         <v>6</v>
@@ -24076,7 +27922,7 @@
         <v>93</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C490" s="1">
         <v>6</v>
@@ -24111,7 +27957,7 @@
         <v>93</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C491" s="1">
         <v>6</v>
@@ -24146,7 +27992,7 @@
         <v>93</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C492" s="1">
         <v>6</v>
@@ -24181,7 +28027,7 @@
         <v>93</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C493" s="1">
         <v>6</v>
@@ -24216,7 +28062,7 @@
         <v>93</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C494" s="1">
         <v>6</v>
@@ -24251,7 +28097,7 @@
         <v>94</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C495" s="1">
         <v>6</v>
@@ -24286,7 +28132,7 @@
         <v>94</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C496" s="1">
         <v>6</v>
@@ -24321,7 +28167,7 @@
         <v>94</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C497" s="1">
         <v>6</v>
@@ -24356,7 +28202,7 @@
         <v>94</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C498" s="1">
         <v>6</v>
@@ -24391,7 +28237,7 @@
         <v>94</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C499" s="1">
         <v>6</v>
@@ -24426,7 +28272,7 @@
         <v>94</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C500" s="1">
         <v>6</v>
@@ -24461,7 +28307,7 @@
         <v>95</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C501" s="1">
         <v>6</v>
@@ -24496,7 +28342,7 @@
         <v>95</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C502" s="1">
         <v>6</v>
@@ -24531,7 +28377,7 @@
         <v>95</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C503" s="1">
         <v>6</v>
@@ -24566,7 +28412,7 @@
         <v>95</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C504" s="1">
         <v>6</v>
@@ -24601,7 +28447,7 @@
         <v>95</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C505" s="1">
         <v>6</v>
@@ -24636,7 +28482,7 @@
         <v>95</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C506" s="1">
         <v>6</v>
@@ -24671,7 +28517,7 @@
         <v>96</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C507" s="1">
         <v>4</v>
@@ -24706,7 +28552,7 @@
         <v>96</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C508" s="1">
         <v>4</v>
@@ -24741,7 +28587,7 @@
         <v>96</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C509" s="1">
         <v>4</v>
@@ -24776,7 +28622,7 @@
         <v>96</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C510" s="1">
         <v>4</v>
@@ -24811,7 +28657,7 @@
         <v>97</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C511" s="1">
         <v>4</v>
@@ -24846,7 +28692,7 @@
         <v>97</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C512" s="1">
         <v>4</v>
@@ -24881,7 +28727,7 @@
         <v>97</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C513" s="1">
         <v>4</v>
@@ -24916,7 +28762,7 @@
         <v>97</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C514" s="1">
         <v>4</v>
@@ -24951,7 +28797,7 @@
         <v>97</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C515" s="1">
         <v>4</v>
@@ -24986,7 +28832,7 @@
         <v>97</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C516" s="1">
         <v>4</v>
@@ -25021,7 +28867,7 @@
         <v>97</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C517" s="1">
         <v>4</v>
@@ -25056,13 +28902,13 @@
         <v>97</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C518" s="1">
         <v>4</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E518" s="1">
         <v>3</v>
@@ -25091,7 +28937,7 @@
         <v>98</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C519" s="1">
         <v>4</v>
@@ -25126,7 +28972,7 @@
         <v>98</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C520" s="1">
         <v>4</v>
@@ -25161,7 +29007,7 @@
         <v>98</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C521" s="1">
         <v>4</v>
@@ -25196,7 +29042,7 @@
         <v>98</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C522" s="1">
         <v>4</v>
@@ -25231,7 +29077,7 @@
         <v>98</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C523" s="1">
         <v>4</v>
@@ -25266,7 +29112,7 @@
         <v>98</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C524" s="1">
         <v>4</v>
@@ -25301,7 +29147,7 @@
         <v>99</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C525" s="1">
         <v>4</v>
@@ -25336,7 +29182,7 @@
         <v>99</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C526" s="1">
         <v>4</v>
@@ -25371,7 +29217,7 @@
         <v>99</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C527" s="1">
         <v>4</v>
@@ -25406,7 +29252,7 @@
         <v>99</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C528" s="1">
         <v>4</v>
@@ -25441,7 +29287,7 @@
         <v>99</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C529" s="1">
         <v>4</v>
@@ -25476,7 +29322,7 @@
         <v>99</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C530" s="1">
         <v>4</v>
@@ -25511,7 +29357,7 @@
         <v>99</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C531" s="1">
         <v>4</v>
@@ -25546,7 +29392,7 @@
         <v>100</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C532" s="1">
         <v>4</v>
@@ -25581,7 +29427,7 @@
         <v>100</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C533" s="1">
         <v>4</v>
@@ -25616,7 +29462,7 @@
         <v>100</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C534" s="1">
         <v>4</v>
@@ -25651,7 +29497,7 @@
         <v>100</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C535" s="1">
         <v>4</v>
@@ -25686,7 +29532,7 @@
         <v>100</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C536" s="1">
         <v>4</v>
@@ -25721,7 +29567,7 @@
         <v>100</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C537" s="1">
         <v>4</v>
@@ -25756,7 +29602,7 @@
         <v>100</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C538" s="1">
         <v>4</v>

--- a/Umfrage/Auswertung.xlsx
+++ b/Umfrage/Auswertung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\git\ba\Umfrage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$D$3:$D$518</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Daten!$M$40:$M$70</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -673,130 +678,130 @@
     </xf>
   </cellXfs>
   <cellStyles count="250">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -977,7 +982,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.419479658792651"/>
+                  <c:x val="0.41947965879265098"/>
                   <c:y val="-0.10533573928259"/>
                 </c:manualLayout>
               </c:layout>
@@ -991,76 +996,76 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.319587628865979</c:v>
+                  <c:v>0.31958762886597936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.152173913043478</c:v>
+                  <c:v>0.15217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.987341772151899</c:v>
+                  <c:v>0.98734177215189878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.684210526315789</c:v>
+                  <c:v>0.68421052631578949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.107142857142857</c:v>
+                  <c:v>0.10714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0769230769230769</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.241379310344828</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.346153846153846</c:v>
+                  <c:v>0.34615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.740740740740741</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.764705882352941</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,55 +1077,55 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.0618556701030928</c:v>
+                  <c:v>6.1855670103092786E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.119565217391304</c:v>
+                  <c:v>0.11956521739130435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.936708860759494</c:v>
+                  <c:v>0.93670886075949367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.614035087719298</c:v>
+                  <c:v>0.61403508771929827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0256410256410256</c:v>
+                  <c:v>2.564102564102564E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.172413793103448</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.115384615384615</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.703703703703704</c:v>
+                  <c:v>0.70370370370370372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.823529411764706</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.5</c:v>
@@ -1129,19 +1134,19 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125088408"/>
-        <c:axId val="2125212376"/>
+        <c:axId val="276504840"/>
+        <c:axId val="276504056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125088408"/>
+        <c:axId val="276504840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,12 +1194,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125212376"/>
+        <c:crossAx val="276504056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125212376"/>
+        <c:axId val="276504056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125088408"/>
+        <c:crossAx val="276504840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1245,7 +1250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1313,7 +1318,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.156695259740146"/>
-                  <c:y val="-0.288924158801368"/>
+                  <c:y val="-0.28892415880136801"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1362,8 +1367,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.168353756110778"/>
-                  <c:y val="-0.28892426685156"/>
+                  <c:x val="0.16835375611077799"/>
+                  <c:y val="-0.28892426685155997"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1403,40 +1408,40 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.626288659793814</c:v>
+                  <c:v>0.62628865979381443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.652173913043478</c:v>
+                  <c:v>0.65217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.765822784810126</c:v>
+                  <c:v>0.76582278481012656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81140350877193</c:v>
+                  <c:v>0.81140350877192979</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.724358974358974</c:v>
+                  <c:v>0.72435897435897434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71551724137931</c:v>
+                  <c:v>0.71551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.682692307692308</c:v>
+                  <c:v>0.68269230769230771</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.838235294117647</c:v>
+                  <c:v>0.83823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.805555555555556</c:v>
+                  <c:v>0.80555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.75</c:v>
@@ -1445,22 +1450,22 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75</c:v>
@@ -1469,7 +1474,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.75</c:v>
@@ -1484,40 +1489,40 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.520618556701031</c:v>
+                  <c:v>0.52061855670103097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.456521739130435</c:v>
+                  <c:v>0.45652173913043481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.981012658227848</c:v>
+                  <c:v>0.98101265822784811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62280701754386</c:v>
+                  <c:v>0.6228070175438597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.660714285714286</c:v>
+                  <c:v>0.6607142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.461538461538461</c:v>
+                  <c:v>0.46153846153846145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.362068965517241</c:v>
+                  <c:v>0.36206896551724133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0384615384615385</c:v>
+                  <c:v>3.8461538461538547E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.555555555555556</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.558823529411765</c:v>
+                  <c:v>0.55882352941176472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
@@ -1526,22 +1531,22 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.5</c:v>
@@ -1550,10 +1555,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,13 +1573,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085691592"/>
-        <c:axId val="2124434536"/>
+        <c:axId val="276505232"/>
+        <c:axId val="276505624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085691592"/>
+        <c:axId val="276505232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1665,14 +1671,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124434536"/>
+        <c:crossAx val="276505624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124434536"/>
+        <c:axId val="276505624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1763,7 +1771,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085691592"/>
+        <c:crossAx val="276505232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1806,7 +1814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1934,7 +1942,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.107415893819457"/>
-                  <c:y val="-0.199610623607772"/>
+                  <c:y val="-0.19961062360777199"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1974,25 +1982,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,25 +2012,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.807692307692307</c:v>
+                  <c:v>3.8076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.571428571428571</c:v>
+                  <c:v>4.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.117647058823529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.636363636363636</c:v>
+                  <c:v>5.6363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.466666666666666</c:v>
+                  <c:v>7.4666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,11 +2045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2020999560"/>
-        <c:axId val="2020985144"/>
+        <c:axId val="276504448"/>
+        <c:axId val="276501704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2020999560"/>
+        <c:axId val="276504448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,12 +2146,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2020985144"/>
+        <c:crossAx val="276501704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2020985144"/>
+        <c:axId val="276501704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2248,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2020999560"/>
+        <c:crossAx val="276504448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2283,7 +2291,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2303,6 +2311,39 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Korrelation zwischen Anzahl</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Nutzer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> und Zufriedenheit</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2324,8 +2365,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.401319620024561"/>
-                  <c:y val="-0.300755050967466"/>
+                  <c:x val="0.42670110236220471"/>
+                  <c:y val="-0.37630902785351278"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2347,16 +2388,16 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.26</c:v>
@@ -2419,40 +2460,40 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.626288659793814</c:v>
+                  <c:v>0.62628865979381443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.652173913043478</c:v>
+                  <c:v>0.65217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.765822784810126</c:v>
+                  <c:v>0.76582278481012656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81140350877193</c:v>
+                  <c:v>0.81140350877192979</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.724358974358974</c:v>
+                  <c:v>0.72435897435897434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71551724137931</c:v>
+                  <c:v>0.71551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.682692307692308</c:v>
+                  <c:v>0.68269230769230771</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.838235294117647</c:v>
+                  <c:v>0.83823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.805555555555556</c:v>
+                  <c:v>0.80555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.75</c:v>
@@ -2461,22 +2502,22 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75</c:v>
@@ -2485,7 +2526,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.75</c:v>
@@ -2503,37 +2544,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2022570920"/>
-        <c:axId val="2022543128"/>
+        <c:axId val="278146720"/>
+        <c:axId val="278143976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2022570920"/>
+        <c:axId val="278146720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Nutzer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2022543128"/>
+        <c:crossAx val="278143976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2022543128"/>
+        <c:axId val="278143976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zufriedenheit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2022570920"/>
+        <c:crossAx val="278146720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2549,7 +2630,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2576,10 +2657,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.210895231846019"/>
-          <c:y val="0.0377343977836104"/>
-          <c:w val="0.747424321959755"/>
-          <c:h val="0.868068314377369"/>
+          <c:x val="0.21089523184601899"/>
+          <c:y val="3.7734397783610402E-2"/>
+          <c:w val="0.74742432195975494"/>
+          <c:h val="0.86806831437736898"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2674,73 +2755,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,11 +2837,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2125759384"/>
-        <c:axId val="2078898536"/>
+        <c:axId val="278147504"/>
+        <c:axId val="278144760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125759384"/>
+        <c:axId val="278147504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2867,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0383802375168265"/>
+              <c:x val="3.8380237516826503E-2"/>
               <c:y val="0.404450376824525"/>
             </c:manualLayout>
           </c:layout>
@@ -2796,7 +2877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078898536"/>
+        <c:crossAx val="278144760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2804,7 +2885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078898536"/>
+        <c:axId val="278144760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,8 +2912,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.431393595787286"/>
-              <c:y val="0.93892200573964"/>
+              <c:x val="0.43139359578728598"/>
+              <c:y val="0.93892200573964002"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2841,7 +2922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125759384"/>
+        <c:crossAx val="278147504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2852,7 +2933,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2900,6 +2981,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2907,6 +2995,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2935,16 +3028,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.547663551401869</c:v>
+                  <c:v>0.54766355140186918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.231775700934579</c:v>
+                  <c:v>0.23177570093457944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0429906542056075</c:v>
+                  <c:v>4.2990654205607479E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.175700934579439</c:v>
+                  <c:v>0.17570093457943925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2973,7 +3066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3565,35 +3658,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN538"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16" width="14.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="19.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="1"/>
-    <col min="25" max="25" width="16.6640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="14.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="19.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" style="1" customWidth="1"/>
+    <col min="22" max="24" width="10.875" style="1"/>
+    <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -3636,7 +3729,7 @@
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
     </row>
-    <row r="2" spans="1:40" ht="63">
+    <row r="2" spans="1:40" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3902,7 +3995,7 @@
         <v>0.20618556701030927</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4048,7 +4141,7 @@
         <v>0.2391304347826087</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4194,7 +4287,7 @@
         <v>0.13924050632911392</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4340,7 +4433,7 @@
         <v>0.14035087719298245</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4486,7 +4579,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4632,7 +4725,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4778,7 +4871,7 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -4924,7 +5017,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -5070,7 +5163,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -5216,7 +5309,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -5362,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -5508,7 +5601,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -5654,7 +5747,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -5800,7 +5893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -5946,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -6092,7 +6185,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -6238,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -6384,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -6530,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -6676,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -6822,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -6968,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -7114,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -7260,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -7301,7 +7394,7 @@
       <c r="AH27" s="10"/>
       <c r="AK27" s="10"/>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -7360,7 +7453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -7416,7 +7509,7 @@
         <v>0.17570093457943925</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -7451,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -7498,7 +7591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -7546,7 +7639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -7581,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -7616,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -7651,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -7686,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -7721,7 +7814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7756,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>11</v>
       </c>
@@ -7791,7 +7884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -7826,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -7861,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -7920,7 +8013,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>13</v>
       </c>
@@ -7983,7 +8076,7 @@
         <v>3.8076923076923075</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -8046,7 +8139,7 @@
         <v>4.5714285714285712</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13</v>
       </c>
@@ -8109,7 +8202,7 @@
         <v>6.117647058823529</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -8172,7 +8265,7 @@
         <v>5.6363636363636367</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
@@ -8235,7 +8328,7 @@
         <v>7.4666666666666668</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -8298,7 +8391,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -8361,7 +8454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -8423,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -8485,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>15</v>
       </c>
@@ -8533,7 +8626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -8581,7 +8674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -8629,7 +8722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>16</v>
       </c>
@@ -8677,7 +8770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>16</v>
       </c>
@@ -8725,7 +8818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>16</v>
       </c>
@@ -8773,7 +8866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>16</v>
       </c>
@@ -8821,7 +8914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>16</v>
       </c>
@@ -8869,7 +8962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>17</v>
       </c>
@@ -8918,7 +9011,7 @@
       </c>
       <c r="W60" s="16"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>17</v>
       </c>
@@ -8966,7 +9059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>17</v>
       </c>
@@ -9014,7 +9107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>17</v>
       </c>
@@ -9062,7 +9155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -9110,7 +9203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>18</v>
       </c>
@@ -9158,7 +9251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>18</v>
       </c>
@@ -9206,7 +9299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -9254,7 +9347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>19</v>
       </c>
@@ -9302,7 +9395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>19</v>
       </c>
@@ -9350,7 +9443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -9398,7 +9491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>20</v>
       </c>
@@ -9446,7 +9539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>20</v>
       </c>
@@ -9494,7 +9587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>20</v>
       </c>
@@ -9542,7 +9635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>20</v>
       </c>
@@ -9590,7 +9683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>20</v>
       </c>
@@ -9638,7 +9731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>20</v>
       </c>
@@ -9686,7 +9779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>21</v>
       </c>
@@ -9734,7 +9827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>21</v>
       </c>
@@ -9782,7 +9875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>21</v>
       </c>
@@ -9830,7 +9923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>21</v>
       </c>
@@ -9878,7 +9971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>22</v>
       </c>
@@ -9926,7 +10019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>22</v>
       </c>
@@ -9974,7 +10067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>23</v>
       </c>
@@ -10022,7 +10115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>23</v>
       </c>
@@ -10070,7 +10163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>23</v>
       </c>
@@ -10118,7 +10211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>23</v>
       </c>
@@ -10166,7 +10259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -10214,7 +10307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -10262,7 +10355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>24</v>
       </c>
@@ -10310,7 +10403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>24</v>
       </c>
@@ -10358,7 +10451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>24</v>
       </c>
@@ -10406,7 +10499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>25</v>
       </c>
@@ -10454,7 +10547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>25</v>
       </c>
@@ -10502,7 +10595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>25</v>
       </c>
@@ -10550,7 +10643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>25</v>
       </c>
@@ -10598,7 +10691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>26</v>
       </c>
@@ -10646,7 +10739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>26</v>
       </c>
@@ -10694,7 +10787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>26</v>
       </c>
@@ -10742,7 +10835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -10790,7 +10883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -10838,7 +10931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>27</v>
       </c>
@@ -10886,7 +10979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>27</v>
       </c>
@@ -10934,7 +11027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>28</v>
       </c>
@@ -10982,7 +11075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>28</v>
       </c>
@@ -11030,7 +11123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>28</v>
       </c>
@@ -11078,7 +11171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>28</v>
       </c>
@@ -11126,7 +11219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>29</v>
       </c>
@@ -11174,7 +11267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>29</v>
       </c>
@@ -11222,7 +11315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>29</v>
       </c>
@@ -11270,7 +11363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>29</v>
       </c>
@@ -11318,7 +11411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>29</v>
       </c>
@@ -11366,7 +11459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>30</v>
       </c>
@@ -11414,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>30</v>
       </c>
@@ -11462,7 +11555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>30</v>
       </c>
@@ -11510,7 +11603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>30</v>
       </c>
@@ -11558,7 +11651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>31</v>
       </c>
@@ -11606,7 +11699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>31</v>
       </c>
@@ -11654,7 +11747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>31</v>
       </c>
@@ -11702,7 +11795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>31</v>
       </c>
@@ -11750,7 +11843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>31</v>
       </c>
@@ -11798,7 +11891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>31</v>
       </c>
@@ -11846,7 +11939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>31</v>
       </c>
@@ -11894,7 +11987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>32</v>
       </c>
@@ -11942,7 +12035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>32</v>
       </c>
@@ -11990,7 +12083,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>32</v>
       </c>
@@ -12038,7 +12131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32</v>
       </c>
@@ -12086,7 +12179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>32</v>
       </c>
@@ -12134,7 +12227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>32</v>
       </c>
@@ -12182,7 +12275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -12230,7 +12323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>32</v>
       </c>
@@ -12278,7 +12371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>33</v>
       </c>
@@ -12326,7 +12419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>33</v>
       </c>
@@ -12374,7 +12467,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>33</v>
       </c>
@@ -12422,7 +12515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>33</v>
       </c>
@@ -12470,7 +12563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>33</v>
       </c>
@@ -12518,7 +12611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>33</v>
       </c>
@@ -12566,7 +12659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>33</v>
       </c>
@@ -12614,7 +12707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>33</v>
       </c>
@@ -12662,7 +12755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>34</v>
       </c>
@@ -12710,7 +12803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>34</v>
       </c>
@@ -12758,7 +12851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>34</v>
       </c>
@@ -12806,7 +12899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>35</v>
       </c>
@@ -12854,7 +12947,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>35</v>
       </c>
@@ -12889,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>36</v>
       </c>
@@ -12924,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>36</v>
       </c>
@@ -12959,7 +13052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>36</v>
       </c>
@@ -12994,7 +13087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>37</v>
       </c>
@@ -13029,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>37</v>
       </c>
@@ -13064,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>38</v>
       </c>
@@ -13099,7 +13192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>38</v>
       </c>
@@ -13134,7 +13227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>38</v>
       </c>
@@ -13169,7 +13262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>38</v>
       </c>
@@ -13204,7 +13297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>38</v>
       </c>
@@ -13239,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>38</v>
       </c>
@@ -13274,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>38</v>
       </c>
@@ -13309,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>38</v>
       </c>
@@ -13344,7 +13437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>39</v>
       </c>
@@ -13379,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>39</v>
       </c>
@@ -13414,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>39</v>
       </c>
@@ -13449,7 +13542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>39</v>
       </c>
@@ -13484,7 +13577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>40</v>
       </c>
@@ -13519,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41</v>
       </c>
@@ -13554,7 +13647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41</v>
       </c>
@@ -13589,7 +13682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41</v>
       </c>
@@ -13624,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41</v>
       </c>
@@ -13659,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42</v>
       </c>
@@ -13694,7 +13787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42</v>
       </c>
@@ -13729,7 +13822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42</v>
       </c>
@@ -13764,7 +13857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42</v>
       </c>
@@ -13799,7 +13892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43</v>
       </c>
@@ -13834,7 +13927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43</v>
       </c>
@@ -13869,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43</v>
       </c>
@@ -13904,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44</v>
       </c>
@@ -13939,7 +14032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44</v>
       </c>
@@ -13974,7 +14067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44</v>
       </c>
@@ -14009,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44</v>
       </c>
@@ -14044,7 +14137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44</v>
       </c>
@@ -14079,7 +14172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44</v>
       </c>
@@ -14114,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45</v>
       </c>
@@ -14149,7 +14242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45</v>
       </c>
@@ -14184,7 +14277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45</v>
       </c>
@@ -14219,7 +14312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45</v>
       </c>
@@ -14254,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45</v>
       </c>
@@ -14289,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45</v>
       </c>
@@ -14324,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45</v>
       </c>
@@ -14359,7 +14452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>46</v>
       </c>
@@ -14394,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>46</v>
       </c>
@@ -14429,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>46</v>
       </c>
@@ -14464,7 +14557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>46</v>
       </c>
@@ -14499,7 +14592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>47</v>
       </c>
@@ -14534,7 +14627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>47</v>
       </c>
@@ -14569,7 +14662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>47</v>
       </c>
@@ -14604,7 +14697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>47</v>
       </c>
@@ -14639,7 +14732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>47</v>
       </c>
@@ -14674,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>48</v>
       </c>
@@ -14709,7 +14802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>48</v>
       </c>
@@ -14744,7 +14837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>48</v>
       </c>
@@ -14779,7 +14872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>48</v>
       </c>
@@ -14814,7 +14907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>48</v>
       </c>
@@ -14849,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>48</v>
       </c>
@@ -14884,7 +14977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>49</v>
       </c>
@@ -14919,7 +15012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>49</v>
       </c>
@@ -14954,7 +15047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>49</v>
       </c>
@@ -14989,7 +15082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>49</v>
       </c>
@@ -15024,7 +15117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>49</v>
       </c>
@@ -15059,7 +15152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>49</v>
       </c>
@@ -15094,7 +15187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>49</v>
       </c>
@@ -15129,7 +15222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>49</v>
       </c>
@@ -15164,7 +15257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>49</v>
       </c>
@@ -15199,7 +15292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>49</v>
       </c>
@@ -15234,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>50</v>
       </c>
@@ -15269,7 +15362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>50</v>
       </c>
@@ -15304,7 +15397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>50</v>
       </c>
@@ -15339,7 +15432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>50</v>
       </c>
@@ -15374,7 +15467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>50</v>
       </c>
@@ -15409,7 +15502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>50</v>
       </c>
@@ -15444,7 +15537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>50</v>
       </c>
@@ -15479,7 +15572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>51</v>
       </c>
@@ -15514,7 +15607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>51</v>
       </c>
@@ -15549,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>51</v>
       </c>
@@ -15584,7 +15677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>51</v>
       </c>
@@ -15619,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>51</v>
       </c>
@@ -15654,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>51</v>
       </c>
@@ -15689,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>52</v>
       </c>
@@ -15724,7 +15817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>52</v>
       </c>
@@ -15759,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>52</v>
       </c>
@@ -15794,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>52</v>
       </c>
@@ -15829,7 +15922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>52</v>
       </c>
@@ -15864,7 +15957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>53</v>
       </c>
@@ -15899,7 +15992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>53</v>
       </c>
@@ -15934,7 +16027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>53</v>
       </c>
@@ -15969,7 +16062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>53</v>
       </c>
@@ -16004,7 +16097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>53</v>
       </c>
@@ -16039,7 +16132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>53</v>
       </c>
@@ -16074,7 +16167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>53</v>
       </c>
@@ -16109,7 +16202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>54</v>
       </c>
@@ -16144,7 +16237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>54</v>
       </c>
@@ -16179,7 +16272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>54</v>
       </c>
@@ -16214,7 +16307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>54</v>
       </c>
@@ -16249,7 +16342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>54</v>
       </c>
@@ -16284,7 +16377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>54</v>
       </c>
@@ -16319,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>55</v>
       </c>
@@ -16354,7 +16447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>55</v>
       </c>
@@ -16389,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>55</v>
       </c>
@@ -16424,7 +16517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>55</v>
       </c>
@@ -16459,7 +16552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>55</v>
       </c>
@@ -16494,7 +16587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>56</v>
       </c>
@@ -16529,7 +16622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>56</v>
       </c>
@@ -16564,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>56</v>
       </c>
@@ -16599,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>57</v>
       </c>
@@ -16634,7 +16727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>57</v>
       </c>
@@ -16669,7 +16762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>57</v>
       </c>
@@ -16704,7 +16797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>57</v>
       </c>
@@ -16739,7 +16832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>57</v>
       </c>
@@ -16774,7 +16867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>57</v>
       </c>
@@ -16809,7 +16902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>57</v>
       </c>
@@ -16844,7 +16937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>57</v>
       </c>
@@ -16879,7 +16972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>57</v>
       </c>
@@ -16914,7 +17007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>58</v>
       </c>
@@ -16949,7 +17042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>58</v>
       </c>
@@ -16984,7 +17077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>58</v>
       </c>
@@ -17019,7 +17112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>58</v>
       </c>
@@ -17054,7 +17147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>58</v>
       </c>
@@ -17089,7 +17182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>58</v>
       </c>
@@ -17124,7 +17217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>58</v>
       </c>
@@ -17159,7 +17252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>59</v>
       </c>
@@ -17194,7 +17287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>59</v>
       </c>
@@ -17229,7 +17322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>59</v>
       </c>
@@ -17264,7 +17357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>59</v>
       </c>
@@ -17299,7 +17392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>59</v>
       </c>
@@ -17334,7 +17427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>59</v>
       </c>
@@ -17369,7 +17462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>59</v>
       </c>
@@ -17404,7 +17497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>59</v>
       </c>
@@ -17439,7 +17532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>59</v>
       </c>
@@ -17474,7 +17567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>60</v>
       </c>
@@ -17509,7 +17602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>60</v>
       </c>
@@ -17544,7 +17637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>60</v>
       </c>
@@ -17579,7 +17672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>60</v>
       </c>
@@ -17614,7 +17707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>60</v>
       </c>
@@ -17649,7 +17742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>60</v>
       </c>
@@ -17684,7 +17777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>60</v>
       </c>
@@ -17719,7 +17812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>61</v>
       </c>
@@ -17754,7 +17847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>61</v>
       </c>
@@ -17789,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>61</v>
       </c>
@@ -17824,7 +17917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>61</v>
       </c>
@@ -17859,7 +17952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>61</v>
       </c>
@@ -17894,7 +17987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>61</v>
       </c>
@@ -17929,7 +18022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>62</v>
       </c>
@@ -17964,7 +18057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>62</v>
       </c>
@@ -17999,7 +18092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>62</v>
       </c>
@@ -18034,7 +18127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>62</v>
       </c>
@@ -18069,7 +18162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>62</v>
       </c>
@@ -18104,7 +18197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>62</v>
       </c>
@@ -18139,7 +18232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>62</v>
       </c>
@@ -18174,7 +18267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>63</v>
       </c>
@@ -18209,7 +18302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>63</v>
       </c>
@@ -18244,7 +18337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>63</v>
       </c>
@@ -18279,7 +18372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>63</v>
       </c>
@@ -18314,7 +18407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>63</v>
       </c>
@@ -18349,7 +18442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>63</v>
       </c>
@@ -18384,7 +18477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>63</v>
       </c>
@@ -18419,7 +18512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>63</v>
       </c>
@@ -18454,7 +18547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>64</v>
       </c>
@@ -18489,7 +18582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>64</v>
       </c>
@@ -18524,7 +18617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>64</v>
       </c>
@@ -18559,7 +18652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>64</v>
       </c>
@@ -18594,7 +18687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>64</v>
       </c>
@@ -18629,7 +18722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>64</v>
       </c>
@@ -18664,7 +18757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>65</v>
       </c>
@@ -18699,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>65</v>
       </c>
@@ -18734,7 +18827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>65</v>
       </c>
@@ -18769,7 +18862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>65</v>
       </c>
@@ -18804,7 +18897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>65</v>
       </c>
@@ -18839,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>65</v>
       </c>
@@ -18874,7 +18967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>66</v>
       </c>
@@ -18909,7 +19002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>66</v>
       </c>
@@ -18944,7 +19037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>66</v>
       </c>
@@ -18979,7 +19072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>66</v>
       </c>
@@ -19014,7 +19107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>66</v>
       </c>
@@ -19049,7 +19142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>66</v>
       </c>
@@ -19084,7 +19177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>66</v>
       </c>
@@ -19119,7 +19212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>66</v>
       </c>
@@ -19154,7 +19247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>66</v>
       </c>
@@ -19189,7 +19282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>66</v>
       </c>
@@ -19224,7 +19317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>66</v>
       </c>
@@ -19259,7 +19352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>66</v>
       </c>
@@ -19294,7 +19387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>67</v>
       </c>
@@ -19329,7 +19422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>67</v>
       </c>
@@ -19364,7 +19457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>68</v>
       </c>
@@ -19399,7 +19492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>68</v>
       </c>
@@ -19434,7 +19527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>68</v>
       </c>
@@ -19469,7 +19562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>68</v>
       </c>
@@ -19504,7 +19597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>68</v>
       </c>
@@ -19539,7 +19632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>68</v>
       </c>
@@ -19574,7 +19667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>68</v>
       </c>
@@ -19609,7 +19702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>69</v>
       </c>
@@ -19644,7 +19737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>69</v>
       </c>
@@ -19679,7 +19772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>69</v>
       </c>
@@ -19714,7 +19807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>69</v>
       </c>
@@ -19749,7 +19842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>69</v>
       </c>
@@ -19784,7 +19877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>69</v>
       </c>
@@ -19819,7 +19912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>69</v>
       </c>
@@ -19854,7 +19947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>69</v>
       </c>
@@ -19889,7 +19982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>69</v>
       </c>
@@ -19924,7 +20017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>70</v>
       </c>
@@ -19959,7 +20052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>70</v>
       </c>
@@ -19994,7 +20087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>70</v>
       </c>
@@ -20029,7 +20122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>70</v>
       </c>
@@ -20064,7 +20157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>70</v>
       </c>
@@ -20099,7 +20192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>70</v>
       </c>
@@ -20134,7 +20227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>71</v>
       </c>
@@ -20169,7 +20262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>71</v>
       </c>
@@ -20204,7 +20297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>71</v>
       </c>
@@ -20239,7 +20332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>71</v>
       </c>
@@ -20274,7 +20367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>71</v>
       </c>
@@ -20309,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>71</v>
       </c>
@@ -20344,7 +20437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>71</v>
       </c>
@@ -20379,7 +20472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>72</v>
       </c>
@@ -20414,7 +20507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>72</v>
       </c>
@@ -20449,7 +20542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>72</v>
       </c>
@@ -20484,7 +20577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>72</v>
       </c>
@@ -20519,7 +20612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>72</v>
       </c>
@@ -20554,7 +20647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>72</v>
       </c>
@@ -20589,7 +20682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>72</v>
       </c>
@@ -20624,7 +20717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>72</v>
       </c>
@@ -20659,7 +20752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>73</v>
       </c>
@@ -20694,7 +20787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>73</v>
       </c>
@@ -20729,7 +20822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>73</v>
       </c>
@@ -20764,7 +20857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>73</v>
       </c>
@@ -20799,7 +20892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>73</v>
       </c>
@@ -20834,7 +20927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>73</v>
       </c>
@@ -20869,7 +20962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>74</v>
       </c>
@@ -20904,7 +20997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>74</v>
       </c>
@@ -20939,7 +21032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>74</v>
       </c>
@@ -20974,7 +21067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>74</v>
       </c>
@@ -21009,7 +21102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>74</v>
       </c>
@@ -21044,7 +21137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>74</v>
       </c>
@@ -21079,7 +21172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>74</v>
       </c>
@@ -21114,7 +21207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>75</v>
       </c>
@@ -21149,7 +21242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>75</v>
       </c>
@@ -21184,7 +21277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>75</v>
       </c>
@@ -21219,7 +21312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>75</v>
       </c>
@@ -21254,7 +21347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>75</v>
       </c>
@@ -21289,7 +21382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>75</v>
       </c>
@@ -21324,7 +21417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>75</v>
       </c>
@@ -21359,7 +21452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>76</v>
       </c>
@@ -21394,7 +21487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>76</v>
       </c>
@@ -21429,7 +21522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>76</v>
       </c>
@@ -21464,7 +21557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>76</v>
       </c>
@@ -21499,7 +21592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>76</v>
       </c>
@@ -21534,7 +21627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>76</v>
       </c>
@@ -21569,7 +21662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>76</v>
       </c>
@@ -21604,7 +21697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>76</v>
       </c>
@@ -21639,7 +21732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>76</v>
       </c>
@@ -21674,7 +21767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>77</v>
       </c>
@@ -21709,7 +21802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>77</v>
       </c>
@@ -21744,7 +21837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>77</v>
       </c>
@@ -21779,7 +21872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>77</v>
       </c>
@@ -21814,7 +21907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>77</v>
       </c>
@@ -21849,7 +21942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>77</v>
       </c>
@@ -21884,7 +21977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>78</v>
       </c>
@@ -21919,7 +22012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>78</v>
       </c>
@@ -21954,7 +22047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>78</v>
       </c>
@@ -21989,7 +22082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>78</v>
       </c>
@@ -22024,7 +22117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>78</v>
       </c>
@@ -22059,7 +22152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>78</v>
       </c>
@@ -22094,7 +22187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>78</v>
       </c>
@@ -22129,7 +22222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>78</v>
       </c>
@@ -22164,7 +22257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>79</v>
       </c>
@@ -22199,7 +22292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>79</v>
       </c>
@@ -22234,7 +22327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>79</v>
       </c>
@@ -22269,7 +22362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>79</v>
       </c>
@@ -22304,7 +22397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>79</v>
       </c>
@@ -22339,7 +22432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>79</v>
       </c>
@@ -22374,7 +22467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>79</v>
       </c>
@@ -22409,7 +22502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>79</v>
       </c>
@@ -22444,7 +22537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>79</v>
       </c>
@@ -22479,7 +22572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>79</v>
       </c>
@@ -22514,7 +22607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>79</v>
       </c>
@@ -22549,7 +22642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>80</v>
       </c>
@@ -22584,7 +22677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>80</v>
       </c>
@@ -22619,7 +22712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>80</v>
       </c>
@@ -22654,7 +22747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>80</v>
       </c>
@@ -22689,7 +22782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>80</v>
       </c>
@@ -22724,7 +22817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>80</v>
       </c>
@@ -22759,7 +22852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>80</v>
       </c>
@@ -22794,7 +22887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>80</v>
       </c>
@@ -22829,7 +22922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>80</v>
       </c>
@@ -22864,7 +22957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="13">
         <v>81</v>
       </c>
@@ -22899,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="13">
         <v>81</v>
       </c>
@@ -22934,7 +23027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="13">
         <v>81</v>
       </c>
@@ -22969,7 +23062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="13">
         <v>81</v>
       </c>
@@ -23004,7 +23097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="13">
         <v>81</v>
       </c>
@@ -23039,7 +23132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="13">
         <v>82</v>
       </c>
@@ -23074,7 +23167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="13">
         <v>82</v>
       </c>
@@ -23109,7 +23202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="13">
         <v>82</v>
       </c>
@@ -23144,7 +23237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="13">
         <v>82</v>
       </c>
@@ -23179,7 +23272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="13">
         <v>83</v>
       </c>
@@ -23214,7 +23307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="13">
         <v>83</v>
       </c>
@@ -23249,7 +23342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="13">
         <v>83</v>
       </c>
@@ -23284,7 +23377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="13">
         <v>83</v>
       </c>
@@ -23319,7 +23412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="13">
         <v>84</v>
       </c>
@@ -23354,7 +23447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="13">
         <v>84</v>
       </c>
@@ -23389,7 +23482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="13">
         <v>84</v>
       </c>
@@ -23424,7 +23517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="13">
         <v>84</v>
       </c>
@@ -23459,7 +23552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="13">
         <v>85</v>
       </c>
@@ -23494,7 +23587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="13">
         <v>85</v>
       </c>
@@ -23529,7 +23622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="13">
         <v>85</v>
       </c>
@@ -23564,7 +23657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="13">
         <v>86</v>
       </c>
@@ -23599,7 +23692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="13">
         <v>86</v>
       </c>
@@ -23634,7 +23727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="13">
         <v>86</v>
       </c>
@@ -23669,7 +23762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>87</v>
       </c>
@@ -23704,7 +23797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>87</v>
       </c>
@@ -23739,7 +23832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>87</v>
       </c>
@@ -23774,7 +23867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>87</v>
       </c>
@@ -23809,7 +23902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>87</v>
       </c>
@@ -23844,7 +23937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>87</v>
       </c>
@@ -23879,7 +23972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>88</v>
       </c>
@@ -23914,7 +24007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>88</v>
       </c>
@@ -23949,7 +24042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>88</v>
       </c>
@@ -23984,7 +24077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>88</v>
       </c>
@@ -24019,7 +24112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>88</v>
       </c>
@@ -24054,7 +24147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>88</v>
       </c>
@@ -24089,7 +24182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>89</v>
       </c>
@@ -24124,7 +24217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>89</v>
       </c>
@@ -24159,7 +24252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>89</v>
       </c>
@@ -24194,7 +24287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>89</v>
       </c>
@@ -24229,7 +24322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>89</v>
       </c>
@@ -24264,7 +24357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>90</v>
       </c>
@@ -24299,7 +24392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>90</v>
       </c>
@@ -24334,7 +24427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>90</v>
       </c>
@@ -24369,7 +24462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>90</v>
       </c>
@@ -24404,7 +24497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>90</v>
       </c>
@@ -24439,7 +24532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>90</v>
       </c>
@@ -24474,7 +24567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>90</v>
       </c>
@@ -24509,7 +24602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>90</v>
       </c>
@@ -24544,7 +24637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>90</v>
       </c>
@@ -24579,7 +24672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>90</v>
       </c>
@@ -24614,7 +24707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>91</v>
       </c>
@@ -24649,7 +24742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>91</v>
       </c>
@@ -24684,7 +24777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>91</v>
       </c>
@@ -24719,7 +24812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>91</v>
       </c>
@@ -24754,7 +24847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>91</v>
       </c>
@@ -24789,7 +24882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>92</v>
       </c>
@@ -24824,7 +24917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>92</v>
       </c>
@@ -24859,7 +24952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>92</v>
       </c>
@@ -24894,7 +24987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>92</v>
       </c>
@@ -24929,7 +25022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>92</v>
       </c>
@@ -24964,7 +25057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>93</v>
       </c>
@@ -24999,7 +25092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>93</v>
       </c>
@@ -25034,7 +25127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>93</v>
       </c>
@@ -25069,7 +25162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>93</v>
       </c>
@@ -25104,7 +25197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>93</v>
       </c>
@@ -25139,7 +25232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>93</v>
       </c>
@@ -25174,7 +25267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>94</v>
       </c>
@@ -25209,7 +25302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>94</v>
       </c>
@@ -25244,7 +25337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>94</v>
       </c>
@@ -25279,7 +25372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>94</v>
       </c>
@@ -25314,7 +25407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>94</v>
       </c>
@@ -25349,7 +25442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>94</v>
       </c>
@@ -25384,7 +25477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>95</v>
       </c>
@@ -25419,7 +25512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>95</v>
       </c>
@@ -25454,7 +25547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>95</v>
       </c>
@@ -25489,7 +25582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>95</v>
       </c>
@@ -25524,7 +25617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>95</v>
       </c>
@@ -25559,7 +25652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>95</v>
       </c>
@@ -25594,7 +25687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>96</v>
       </c>
@@ -25629,7 +25722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>96</v>
       </c>
@@ -25664,7 +25757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>96</v>
       </c>
@@ -25699,7 +25792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>96</v>
       </c>
@@ -25734,7 +25827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>97</v>
       </c>
@@ -25769,7 +25862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>97</v>
       </c>
@@ -25804,7 +25897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>97</v>
       </c>
@@ -25839,7 +25932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>97</v>
       </c>
@@ -25874,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>97</v>
       </c>
@@ -25909,7 +26002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>97</v>
       </c>
@@ -25944,7 +26037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>97</v>
       </c>
@@ -25979,7 +26072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>97</v>
       </c>
@@ -26014,7 +26107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>98</v>
       </c>
@@ -26049,7 +26142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>98</v>
       </c>
@@ -26084,7 +26177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>98</v>
       </c>
@@ -26119,7 +26212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>98</v>
       </c>
@@ -26154,7 +26247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>98</v>
       </c>
@@ -26189,7 +26282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>98</v>
       </c>
@@ -26224,7 +26317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>99</v>
       </c>
@@ -26259,7 +26352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>99</v>
       </c>
@@ -26294,7 +26387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>99</v>
       </c>
@@ -26329,7 +26422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>99</v>
       </c>
@@ -26364,7 +26457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>99</v>
       </c>
@@ -26399,7 +26492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>99</v>
       </c>
@@ -26434,7 +26527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>99</v>
       </c>
@@ -26469,7 +26562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>100</v>
       </c>
@@ -26504,7 +26597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>100</v>
       </c>
@@ -26539,7 +26632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>100</v>
       </c>
@@ -26574,7 +26667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>100</v>
       </c>
@@ -26609,7 +26702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>100</v>
       </c>
@@ -26644,7 +26737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>100</v>
       </c>
@@ -26679,7 +26772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>100</v>
       </c>
@@ -26745,16 +26838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I5:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:18">
+    <row r="5" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I5" s="15" t="s">
         <v>83</v>
       </c>
@@ -26762,7 +26855,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="9:18">
+    <row r="6" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I6" s="15">
         <f>CORREL(Daten!AD3:AD26,Daten!AG3:AG26)</f>
         <v>0.94860250185481054</v>
@@ -26772,12 +26865,12 @@
         <v>0.47706779982670605</v>
       </c>
     </row>
-    <row r="29" spans="9:18">
+    <row r="29" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I29" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="9:18">
+    <row r="30" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I30" s="15">
         <f>CORREL(Daten!R43:R49,Daten!U43:U49)</f>
         <v>0.6317346250958954</v>
@@ -26786,7 +26879,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="9:18">
+    <row r="31" spans="9:18" x14ac:dyDescent="0.25">
       <c r="R31" s="15">
         <f>CORREL(Daten!O3:O26,Daten!S3:S26)</f>
         <v>-5.5587839827627765E-2</v>
@@ -26807,11 +26900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Umfrage/Auswertung.xlsx
+++ b/Umfrage/Auswertung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="Diagramme" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$D$3:$D$518</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$M$3:$AO$26</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Daten!$P$3:$P$26</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Daten!$M$40:$M$70</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="94">
   <si>
     <t>ZettelId</t>
   </si>
@@ -132,9 +133,6 @@
   </si>
   <si>
     <t>Trello</t>
-  </si>
-  <si>
-    <t>Anzahl Stimmen</t>
   </si>
   <si>
     <t>Anzahl Probanden</t>
@@ -289,12 +287,42 @@
   <si>
     <t>Gesamt Prozent</t>
   </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Cloud-Storage</t>
+  </si>
+  <si>
+    <t>Team Collaboration</t>
+  </si>
+  <si>
+    <t>Messaging-Service</t>
+  </si>
+  <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
+    <t>Document Collaboration</t>
+  </si>
+  <si>
+    <t>Versionsverwaltung</t>
+  </si>
+  <si>
+    <t>Gesamt Anzahl</t>
+  </si>
+  <si>
+    <t>Stimmen</t>
+  </si>
+  <si>
+    <t>Prozent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,8 +360,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +388,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -370,8 +416,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="250">
+  <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -622,8 +679,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,8 +734,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="250" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="250" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="250" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="250">
+  <cellStyles count="251">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -802,6 +869,7 @@
     <cellStyle name="Besuchter Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Ergebnis" xfId="250" builtinId="25"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -948,7 +1016,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -991,7 +1059,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$AD$3:$AD$26</c:f>
+              <c:f>Daten!$AE$3:$AE$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1008,19 +1076,19 @@
                   <c:v>0.68421052631578949</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.10714285714285714</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6923076923076927E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2413793103448276</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34615384615384615</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.34615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.76470588235294112</c:v>
@@ -1038,13 +1106,94 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$AH$3:$AH$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6.1855670103092786E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11956521739130435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93670886075949367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61403508771929827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.564102564102564E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17241379310344829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70370370370370372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -1069,89 +1218,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Daten!$AG$3:$AG$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>6.1855670103092786E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11956521739130435</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93670886075949367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61403508771929827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1428571428571425E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.564102564102564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17241379310344829</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11538461538461539</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70370370370370372</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0936-4F94-A901-F43C60651425}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1257,7 +1330,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1403,7 +1476,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$S$3:$S$26</c:f>
+              <c:f>Daten!$T$3:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1420,19 +1493,19 @@
                   <c:v>0.81140350877192979</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.72435897435897434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71551724137931039</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72435897435897434</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71551724137931039</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68269230769230771</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.68269230769230771</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.83823529411764708</c:v>
@@ -1450,19 +1523,19 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.83333333333333326</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1484,7 +1557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Daten!$Y$3:$Y$26</c:f>
+              <c:f>Daten!$Z$3:$Z$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1501,19 +1574,19 @@
                   <c:v>0.6228070175438597</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.46153846153846145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36206896551724133</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.6607142857142857</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46153846153846145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36206896551724133</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8461538461538547E-2</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>3.8461538461538547E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.55882352941176472</c:v>
@@ -1531,19 +1604,19 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1564,6 +1637,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58D7-4320-8425-67DC0AB1F9BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1821,7 +1899,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2036,6 +2114,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7650-45E1-A25D-67B73A2BC2AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2298,7 +2381,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2374,7 +2457,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$O$3:$O$26</c:f>
+              <c:f>Daten!$P$3:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2391,19 +2474,19 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.17</c:v>
@@ -2421,19 +2504,19 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.04</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.01</c:v>
@@ -2455,7 +2538,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Daten!$S$3:$S$26</c:f>
+              <c:f>Daten!$T$3:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2472,19 +2555,19 @@
                   <c:v>0.81140350877192979</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.72435897435897434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71551724137931039</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72435897435897434</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71551724137931039</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68269230769230771</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.68269230769230771</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.83823529411764708</c:v>
@@ -2502,19 +2585,19 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.83333333333333326</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2535,6 +2618,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-063D-4FF7-B952-A9166283D7D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2637,7 +2725,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2689,19 +2777,19 @@
                   <c:v>Dropbox</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Github</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Google Docs</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Bitbucket</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Github</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Google Docs</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Doodle</c:v>
+                  <c:v>Slack</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Slack</c:v>
+                  <c:v>Doodle</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Google Drive</c:v>
@@ -2719,19 +2807,19 @@
                   <c:v>Office Online</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Trello</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>BitTorrent Sync</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Google Hangouts</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Facebook</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Threema</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Trello</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>HipChat</c:v>
@@ -2750,7 +2838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Daten!$N$3:$N$25</c:f>
+              <c:f>Daten!$O$3:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2767,19 +2855,19 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17</c:v>
@@ -2797,19 +2885,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -2826,6 +2914,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-747A-45A9-8EFE-99063BD895C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2940,7 +3033,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -3003,7 +3096,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Daten!$AK$2:$AN$2</c:f>
+              <c:f>Daten!$AL$2:$AO$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3023,7 +3116,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Daten!$AK$29:$AN$29</c:f>
+              <c:f>Daten!$AL$29:$AO$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3042,6 +3135,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAD1-473B-93BA-B58BBCDFA7D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3070,6 +3168,969 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Dienstkategorien</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D477-4B66-9F6E-EEAD9624EAA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D477-4B66-9F6E-EEAD9624EAA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D477-4B66-9F6E-EEAD9624EAA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D477-4B66-9F6E-EEAD9624EAA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D477-4B66-9F6E-EEAD9624EAA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D477-4B66-9F6E-EEAD9624EAA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Daten!$T$31:$Y$31</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Team Collaboration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cloud-Storage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Messaging-Service</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Versionsverwaltung</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Document Collaboration</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sonstige</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$T$33:$Y$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19101123595505617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32771535580524347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23782771535580524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12546816479400749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1797752808988762E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6179775280898875E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D477-4B66-9F6E-EEAD9624EAA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3326,6 +4387,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3656,10 +4749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN538"/>
+  <dimension ref="A1:AO538"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AQ19" sqref="AQ19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3676,60 +4769,63 @@
     <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="14.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="14.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="1" customWidth="1"/>
     <col min="19" max="20" width="19.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.375" style="1" customWidth="1"/>
-    <col min="22" max="24" width="10.875" style="1"/>
+    <col min="21" max="21" width="24.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.875" style="1" customWidth="1"/>
     <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
     <col min="26" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N1" s="4"/>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="AN1" s="4"/>
-    </row>
-    <row r="2" spans="1:40" ht="63" x14ac:dyDescent="0.25">
+      <c r="AO1" s="4"/>
+    </row>
+    <row r="2" spans="1:41" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3765,91 +4861,94 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AN2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3886,116 +4985,119 @@
       <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="1">
         <f>COUNTIF(D3:D1001,M3)</f>
         <v>97</v>
       </c>
-      <c r="O3" s="3">
-        <f>N3/M32</f>
+      <c r="P3" s="3">
+        <f>O3/M32</f>
         <v>0.97</v>
       </c>
-      <c r="P3" s="3" t="str">
-        <f>IF(O3&gt;0.7,"A",IF(O3&gt;0.1,"B","C"))</f>
+      <c r="Q3" s="3" t="str">
+        <f>IF(P3&gt;0.7,"A",IF(P3&gt;0.1,"B","C"))</f>
         <v>A</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <f>SUMIFS(F3:F1001,D3:D1001,M3)</f>
         <v>242</v>
       </c>
-      <c r="R3" s="1">
-        <f t="shared" ref="R3:R25" si="0">Q3/N3</f>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S25" si="0">R3/O3</f>
         <v>2.4948453608247423</v>
       </c>
-      <c r="S3" s="3">
-        <f>1-((R3-1)/4)</f>
+      <c r="T3" s="3">
+        <f>1-((S3-1)/4)</f>
         <v>0.62628865979381443</v>
       </c>
-      <c r="T3" s="3">
-        <f>(O3+S3+Y3)/3</f>
+      <c r="U3" s="3">
+        <f>(P3+T3+Z3)/3</f>
         <v>0.70563573883161512</v>
       </c>
-      <c r="U3" s="9">
-        <f>COUNTIFS(D2:D1000,M3,E2:E1000,"1")/N3</f>
+      <c r="V3" s="9">
+        <f>COUNTIFS(D2:D1000,M3,E2:E1000,"1")/O3</f>
         <v>0.20618556701030927</v>
       </c>
-      <c r="V3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,E2:E1000,"2")/N3</f>
+      <c r="W3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,E2:E1000,"2")/O3</f>
         <v>0.62886597938144329</v>
       </c>
-      <c r="W3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,E2:E1000,"3")/N3</f>
+      <c r="X3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,E2:E1000,"3")/O3</f>
         <v>0.16494845360824742</v>
       </c>
-      <c r="X3" s="12">
-        <f>SUMIFS(E3:E1001,D3:D1001,M3)/N3</f>
+      <c r="Y3" s="12">
+        <f>SUMIFS(E3:E1001,D3:D1001,M3)/O3</f>
         <v>1.9587628865979381</v>
       </c>
-      <c r="Y3" s="3">
-        <f>1-((X3-1)/2)</f>
+      <c r="Z3" s="3">
+        <f>1-((Y3-1)/2)</f>
         <v>0.52061855670103097</v>
       </c>
-      <c r="Z3" s="9">
-        <f>COUNTIFS(D2:D1000,M3,G2:G1000,"1")/N3</f>
+      <c r="AA3" s="9">
+        <f>COUNTIFS(D2:D1000,M3,G2:G1000,"1")/O3</f>
         <v>0.80412371134020622</v>
       </c>
-      <c r="AA3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,G2:G1000,"2")/N3</f>
+      <c r="AB3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,G2:G1000,"2")/O3</f>
         <v>3.0927835051546393E-2</v>
       </c>
-      <c r="AB3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,G2:G1000,"3")/N3</f>
+      <c r="AC3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,G2:G1000,"3")/O3</f>
         <v>0.12371134020618557</v>
       </c>
-      <c r="AC3" s="9">
-        <f>(COUNTIFS(D3:D1000,M3,H3:H1000,"1")+COUNTIFS(D3:D1000,M3,H3:H1000,"1,2"))/N3</f>
+      <c r="AD3" s="9">
+        <f>(COUNTIFS(D3:D1000,M3,H3:H1000,"1")+COUNTIFS(D3:D1000,M3,H3:H1000,"1,2"))/O3</f>
         <v>0.96907216494845361</v>
       </c>
-      <c r="AD3" s="3">
-        <f>(COUNTIFS(D3:D1000,M3,H3:H1000,"2")+COUNTIFS(D3:D1000,M3,H3:H1000,"1,2"))/N3</f>
+      <c r="AE3" s="3">
+        <f>(COUNTIFS(D3:D1000,M3,H3:H1000,"2")+COUNTIFS(D3:D1000,M3,H3:H1000,"1,2"))/O3</f>
         <v>0.31958762886597936</v>
       </c>
-      <c r="AE3" s="9">
-        <f>(COUNTIFS(D3:D1000,M3,I3:I1000,"1")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2,3"))/N3</f>
+      <c r="AF3" s="9">
+        <f>(COUNTIFS(D3:D1000,M3,I3:I1000,"1")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2,3"))/O3</f>
         <v>4.1237113402061855E-2</v>
       </c>
-      <c r="AF3" s="3">
-        <f>(COUNTIFS(D3:D1000,M3,I3:I1000,"2")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2")+COUNTIFS(D3:D1000,M3,I3:I1000,"2,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2,3"))/N3</f>
+      <c r="AG3" s="3">
+        <f>(COUNTIFS(D3:D1000,M3,I3:I1000,"2")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2")+COUNTIFS(D3:D1000,M3,I3:I1000,"2,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2,3"))/O3</f>
         <v>0.97938144329896903</v>
       </c>
-      <c r="AG3" s="3">
-        <f>(COUNTIFS(D3:D1000,M3,I3:I1000,"3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"2,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2,3"))/N3</f>
+      <c r="AH3" s="3">
+        <f>(COUNTIFS(D3:D1000,M3,I3:I1000,"3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"2,3")+COUNTIFS(D3:D1000,M3,I3:I1000,"1,2,3"))/O3</f>
         <v>6.1855670103092786E-2</v>
       </c>
-      <c r="AH3" s="9">
-        <f>(COUNTIFS(D3:D1000,M3,J3:J1000,"1")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2,3"))/N3</f>
+      <c r="AI3" s="9">
+        <f>(COUNTIFS(D3:D1000,M3,J3:J1000,"1")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2,3"))/O3</f>
         <v>0.98969072164948457</v>
       </c>
-      <c r="AI3" s="3">
-        <f>(COUNTIFS(D3:D1000,M3,J3:J1000,"2")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2")+COUNTIFS(D3:D1000,M3,J3:J1000,"2,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2,3"))/N3</f>
+      <c r="AJ3" s="3">
+        <f>(COUNTIFS(D3:D1000,M3,J3:J1000,"2")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2")+COUNTIFS(D3:D1000,M3,J3:J1000,"2,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2,3"))/O3</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="3">
-        <f>(COUNTIFS(D3:D1000,M3,J3:J1000,"3+X3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"2,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2,3"))/N3</f>
+      <c r="AK3" s="3">
+        <f>(COUNTIFS(D3:D1000,M3,J3:J1000,"3+X3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"2,3")+COUNTIFS(D3:D1000,M3,J3:J1000,"1,2,3"))/O3</f>
         <v>5.1546391752577317E-2</v>
       </c>
-      <c r="AK3" s="9">
-        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"1")/N3</f>
+      <c r="AL3" s="9">
+        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"1")/O3</f>
         <v>0.62886597938144329</v>
       </c>
-      <c r="AL3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"2")/N3</f>
+      <c r="AM3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"2")/O3</f>
         <v>0.12371134020618557</v>
       </c>
-      <c r="AM3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"3")/N3</f>
+      <c r="AN3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"3")/O3</f>
         <v>4.1237113402061855E-2</v>
       </c>
-      <c r="AN3" s="3">
-        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"4")/N3</f>
+      <c r="AO3" s="3">
+        <f>COUNTIFS(D2:D1000,M3,K2:K1000,"4")/O3</f>
         <v>0.20618556701030927</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4032,116 +5134,119 @@
       <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="1">
         <f>COUNTIF(D4:D1002,M4)</f>
         <v>92</v>
       </c>
-      <c r="O4" s="3">
-        <f>N4/M32</f>
+      <c r="P4" s="3">
+        <f>O4/M32</f>
         <v>0.92</v>
       </c>
-      <c r="P4" s="3" t="str">
-        <f>IF(O4&gt;0.7,"A",IF(O4&gt;0.1,"B","C"))</f>
+      <c r="Q4" s="3" t="str">
+        <f>IF(P4&gt;0.7,"A",IF(P4&gt;0.1,"B","C"))</f>
         <v>A</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <f>SUMIFS(F4:F1002,D4:D1002,M4)</f>
         <v>220</v>
       </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
+      <c r="S4" s="1">
+        <f>R4/O4</f>
         <v>2.3913043478260869</v>
       </c>
-      <c r="S4" s="3">
-        <f t="shared" ref="S4:S25" si="1">1-((R4-1)/4)</f>
+      <c r="T4" s="3">
+        <f>1-((S4-1)/4)</f>
         <v>0.65217391304347827</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:T25" si="2">(O4+S4+Y4)/3</f>
+      <c r="U4" s="3">
+        <f>(P4+T4+Z4)/3</f>
         <v>0.67623188405797097</v>
       </c>
-      <c r="U4" s="9">
-        <f>COUNTIFS(D3:D1001,M4,E3:E1001,"1")/N4</f>
+      <c r="V4" s="9">
+        <f>COUNTIFS(D3:D1001,M4,E3:E1001,"1")/O4</f>
         <v>0.25</v>
       </c>
-      <c r="V4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,E3:E1001,"2")/N4</f>
+      <c r="W4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,E3:E1001,"2")/O4</f>
         <v>0.42391304347826086</v>
       </c>
-      <c r="W4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,E3:E1001,"3")/N4</f>
+      <c r="X4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,E3:E1001,"3")/O4</f>
         <v>0.33695652173913043</v>
       </c>
-      <c r="X4" s="12">
-        <f t="shared" ref="X4:X25" si="3">SUMIFS(E4:E1002,D4:D1002,M4)/N4</f>
+      <c r="Y4" s="12">
+        <f>SUMIFS(E4:E1002,D4:D1002,M4)/O4</f>
         <v>2.0869565217391304</v>
       </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Y25" si="4">1-((X4-1)/2)</f>
+      <c r="Z4" s="3">
+        <f>1-((Y4-1)/2)</f>
         <v>0.45652173913043481</v>
       </c>
-      <c r="Z4" s="9">
-        <f>COUNTIFS(D3:D1001,M4,G3:G1001,"1")/N4</f>
+      <c r="AA4" s="9">
+        <f>COUNTIFS(D3:D1001,M4,G3:G1001,"1")/O4</f>
         <v>0.45652173913043476</v>
       </c>
-      <c r="AA4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,G3:G1001,"2")/N4</f>
+      <c r="AB4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,G3:G1001,"2")/O4</f>
         <v>0.32608695652173914</v>
       </c>
-      <c r="AB4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,G3:G1001,"3")/N4</f>
+      <c r="AC4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,G3:G1001,"3")/O4</f>
         <v>0.14130434782608695</v>
       </c>
-      <c r="AC4" s="9">
-        <f>(COUNTIFS(D4:D1001,M4,H4:H1001,"1")+COUNTIFS(D4:D1001,M4,H4:H1001,"1,2"))/N4</f>
+      <c r="AD4" s="9">
+        <f>(COUNTIFS(D4:D1001,M4,H4:H1001,"1")+COUNTIFS(D4:D1001,M4,H4:H1001,"1,2"))/O4</f>
         <v>0.97826086956521741</v>
       </c>
-      <c r="AD4" s="3">
-        <f>(COUNTIFS(D4:D1001,M4,H4:H1001,"2")+COUNTIFS(D4:D1001,M4,H4:H1001,"1,2"))/N4</f>
+      <c r="AE4" s="3">
+        <f>(COUNTIFS(D4:D1001,M4,H4:H1001,"2")+COUNTIFS(D4:D1001,M4,H4:H1001,"1,2"))/O4</f>
         <v>0.15217391304347827</v>
       </c>
-      <c r="AE4" s="9">
-        <f>(COUNTIFS(D4:D1001,M4,I4:I1001,"1")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2,3"))/N4</f>
+      <c r="AF4" s="9">
+        <f>(COUNTIFS(D4:D1001,M4,I4:I1001,"1")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2,3"))/O4</f>
         <v>0.22826086956521738</v>
       </c>
-      <c r="AF4" s="3">
-        <f>(COUNTIFS(D4:D1001,M4,I4:I1001,"2")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2")+COUNTIFS(D4:D1001,M4,I4:I1001,"2,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2,3"))/N4</f>
+      <c r="AG4" s="3">
+        <f>(COUNTIFS(D4:D1001,M4,I4:I1001,"2")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2")+COUNTIFS(D4:D1001,M4,I4:I1001,"2,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2,3"))/O4</f>
         <v>0.91304347826086951</v>
       </c>
-      <c r="AG4" s="3">
-        <f>(COUNTIFS(D4:D1001,M4,I4:I1001,"3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"2,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2,3"))/N4</f>
+      <c r="AH4" s="3">
+        <f>(COUNTIFS(D4:D1001,M4,I4:I1001,"3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"2,3")+COUNTIFS(D4:D1001,M4,I4:I1001,"1,2,3"))/O4</f>
         <v>0.11956521739130435</v>
       </c>
-      <c r="AH4" s="9">
-        <f>(COUNTIFS(D4:D1001,M4,J4:J1001,"1")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2,3"))/N4</f>
+      <c r="AI4" s="9">
+        <f>(COUNTIFS(D4:D1001,M4,J4:J1001,"1")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2,3"))/O4</f>
         <v>0.96739130434782605</v>
       </c>
-      <c r="AI4" s="3">
-        <f>(COUNTIFS(D4:D1001,M4,J4:J1001,"2")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2")+COUNTIFS(D4:D1001,M4,J4:J1001,"2,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2,3"))/N4</f>
+      <c r="AJ4" s="3">
+        <f>(COUNTIFS(D4:D1001,M4,J4:J1001,"2")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2")+COUNTIFS(D4:D1001,M4,J4:J1001,"2,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2,3"))/O4</f>
         <v>3.2608695652173912E-2</v>
       </c>
-      <c r="AJ4" s="3">
-        <f>(COUNTIFS(D4:D1001,M4,J4:J1001,"3+X3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"2,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2,3"))/N4</f>
+      <c r="AK4" s="3">
+        <f>(COUNTIFS(D4:D1001,M4,J4:J1001,"3+X3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"2,3")+COUNTIFS(D4:D1001,M4,J4:J1001,"1,2,3"))/O4</f>
         <v>0.16304347826086957</v>
       </c>
-      <c r="AK4" s="9">
-        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"1")/N4</f>
+      <c r="AL4" s="9">
+        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"1")/O4</f>
         <v>0.54347826086956519</v>
       </c>
-      <c r="AL4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"2")/N4</f>
+      <c r="AM4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"2")/O4</f>
         <v>0.18478260869565216</v>
       </c>
-      <c r="AM4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"3")/N4</f>
+      <c r="AN4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"3")/O4</f>
         <v>3.2608695652173912E-2</v>
       </c>
-      <c r="AN4" s="3">
-        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"4")/N4</f>
+      <c r="AO4" s="3">
+        <f>COUNTIFS(D3:D1001,M4,K3:K1001,"4")/O4</f>
         <v>0.2391304347826087</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4178,116 +5283,119 @@
       <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" ref="N5:N25" si="5">COUNTIF(D6:D1004,M5)</f>
+      <c r="N5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="1">
+        <f>COUNTIF(D6:D1004,M5)</f>
         <v>79</v>
       </c>
-      <c r="O5" s="3">
-        <f>N5/M32</f>
+      <c r="P5" s="3">
+        <f>O5/M32</f>
         <v>0.79</v>
       </c>
-      <c r="P5" s="3" t="str">
-        <f t="shared" ref="P5:P25" si="6">IF(O5&gt;0.7,"A",IF(O5&gt;0.1,"B","C"))</f>
+      <c r="Q5" s="3" t="str">
+        <f>IF(P5&gt;0.7,"A",IF(P5&gt;0.1,"B","C"))</f>
         <v>A</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" ref="Q5:Q25" si="7">SUMIFS(F6:F1004,D6:D1004,M5)</f>
+      <c r="R5" s="1">
+        <f>SUMIFS(F6:F1004,D6:D1004,M5)</f>
         <v>153</v>
       </c>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
+      <c r="S5" s="1">
+        <f>R5/O5</f>
         <v>1.9367088607594938</v>
       </c>
-      <c r="S5" s="3">
-        <f t="shared" si="1"/>
+      <c r="T5" s="3">
+        <f>1-((S5-1)/4)</f>
         <v>0.76582278481012656</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" si="2"/>
+      <c r="U5" s="3">
+        <f>(P5+T5+Z5)/3</f>
         <v>0.84561181434599153</v>
       </c>
-      <c r="U5" s="9">
-        <f t="shared" ref="U5:U25" si="8">COUNTIFS(D5:D1003,M5,E5:E1003,"1")/N5</f>
+      <c r="V5" s="9">
+        <f>COUNTIFS(D5:D1003,M5,E5:E1003,"1")/O5</f>
         <v>0.96202531645569622</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" ref="V5:V25" si="9">COUNTIFS(D5:D1003,M5,E5:E1003,"2")/N5</f>
+      <c r="W5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,E5:E1003,"2")/O5</f>
         <v>3.7974683544303799E-2</v>
       </c>
-      <c r="W5" s="3">
-        <f t="shared" ref="W5:W25" si="10">COUNTIFS(D5:D1003,M5,E5:E1003,"3")/N5</f>
+      <c r="X5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,E5:E1003,"3")/O5</f>
         <v>0</v>
       </c>
-      <c r="X5" s="12">
-        <f t="shared" si="3"/>
+      <c r="Y5" s="12">
+        <f>SUMIFS(E5:E1003,D5:D1003,M5)/O5</f>
         <v>1.0379746835443038</v>
       </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z5" s="3">
+        <f>1-((Y5-1)/2)</f>
         <v>0.98101265822784811</v>
       </c>
-      <c r="Z5" s="9">
-        <f t="shared" ref="Z5:Z25" si="11">COUNTIFS(D5:D1003,M5,G5:G1003,"1")/N5</f>
+      <c r="AA5" s="9">
+        <f>COUNTIFS(D5:D1003,M5,G5:G1003,"1")/O5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="3">
-        <f t="shared" ref="AA5:AA25" si="12">COUNTIFS(D5:D1003,M5,G5:G1003,"2")/N5</f>
+      <c r="AB5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,G5:G1003,"2")/O5</f>
         <v>7.5949367088607597E-2</v>
       </c>
-      <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB25" si="13">COUNTIFS(D5:D1003,M5,G5:G1003,"3")/N5</f>
+      <c r="AC5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,G5:G1003,"3")/O5</f>
         <v>0.810126582278481</v>
       </c>
-      <c r="AC5" s="9">
-        <f t="shared" ref="AC5:AC25" si="14">(COUNTIFS(D6:D1003,M5,H6:H1003,"1")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/N5</f>
+      <c r="AD5" s="9">
+        <f>(COUNTIFS(D6:D1003,M5,H6:H1003,"1")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/O5</f>
         <v>0.379746835443038</v>
       </c>
-      <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AD25" si="15">(COUNTIFS(D6:D1003,M5,H6:H1003,"2")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/N5</f>
+      <c r="AE5" s="3">
+        <f>(COUNTIFS(D6:D1003,M5,H6:H1003,"2")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/O5</f>
         <v>0.98734177215189878</v>
       </c>
-      <c r="AE5" s="9">
-        <f t="shared" ref="AE5:AE25" si="16">(COUNTIFS(D6:D1003,M5,I6:I1003,"1")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/N5</f>
+      <c r="AF5" s="9">
+        <f>(COUNTIFS(D6:D1003,M5,I6:I1003,"1")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
         <v>0.29113924050632911</v>
       </c>
-      <c r="AF5" s="3">
-        <f t="shared" ref="AF5:AF25" si="17">(COUNTIFS(D6:D1003,M5,I6:I1003,"2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/N5</f>
+      <c r="AG5" s="3">
+        <f>(COUNTIFS(D6:D1003,M5,I6:I1003,"2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
         <v>0.31645569620253167</v>
       </c>
-      <c r="AG5" s="3">
-        <f t="shared" ref="AG5:AG25" si="18">(COUNTIFS(D6:D1003,M5,I6:I1003,"3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/N5</f>
+      <c r="AH5" s="3">
+        <f>(COUNTIFS(D6:D1003,M5,I6:I1003,"3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
         <v>0.93670886075949367</v>
       </c>
-      <c r="AH5" s="9">
-        <f t="shared" ref="AH5:AH25" si="19">(COUNTIFS(D6:D1003,M5,J6:J1003,"1")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/N5</f>
+      <c r="AI5" s="9">
+        <f>(COUNTIFS(D6:D1003,M5,J6:J1003,"1")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
         <v>0.73417721518987344</v>
       </c>
-      <c r="AI5" s="3">
-        <f t="shared" ref="AI5:AI25" si="20">(COUNTIFS(D6:D1003,M5,J6:J1003,"2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/N5</f>
+      <c r="AJ5" s="3">
+        <f>(COUNTIFS(D6:D1003,M5,J6:J1003,"2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
         <v>0.25316455696202533</v>
       </c>
-      <c r="AJ5" s="3">
-        <f t="shared" ref="AJ5:AJ25" si="21">(COUNTIFS(D6:D1003,M5,J6:J1003,"3+X3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/N5</f>
+      <c r="AK5" s="3">
+        <f>(COUNTIFS(D6:D1003,M5,J6:J1003,"3+X3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
         <v>0.70886075949367089</v>
       </c>
-      <c r="AK5" s="9">
-        <f t="shared" ref="AK5:AK25" si="22">COUNTIFS(D5:D1003,M5,K5:K1003,"1")/N5</f>
+      <c r="AL5" s="9">
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"1")/O5</f>
         <v>0.73417721518987344</v>
       </c>
-      <c r="AL5" s="3">
-        <f t="shared" ref="AL5:AL25" si="23">COUNTIFS(D5:D1003,M5,K5:K1003,"2")/N5</f>
+      <c r="AM5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"2")/O5</f>
         <v>0.12658227848101267</v>
       </c>
-      <c r="AM5" s="3">
-        <f t="shared" ref="AM5:AM25" si="24">COUNTIFS(D5:D1003,M5,K5:K1003,"3")/N5</f>
+      <c r="AN5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"3")/O5</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="3">
-        <f t="shared" ref="AN5:AN26" si="25">COUNTIFS(D5:D1003,M5,K5:K1003,"4")/N5</f>
+      <c r="AO5" s="3">
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"4")/O5</f>
         <v>0.13924050632911392</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4324,116 +5432,119 @@
       <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="5"/>
+      <c r="N6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="1">
+        <f>COUNTIF(D7:D1005,M6)</f>
         <v>57</v>
       </c>
-      <c r="O6" s="3">
-        <f>N6/$M$32</f>
+      <c r="P6" s="3">
+        <f>O6/$M$32</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="P6" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q6" s="3" t="str">
+        <f>IF(P6&gt;0.7,"A",IF(P6&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="7"/>
+      <c r="R6" s="1">
+        <f>SUMIFS(F7:F1005,D7:D1005,M6)</f>
         <v>100</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
+      <c r="S6" s="1">
+        <f>R6/O6</f>
         <v>1.7543859649122806</v>
       </c>
-      <c r="S6" s="3">
-        <f t="shared" si="1"/>
+      <c r="T6" s="3">
+        <f>1-((S6-1)/4)</f>
         <v>0.81140350877192979</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" si="2"/>
+      <c r="U6" s="3">
+        <f>(P6+T6+Z6)/3</f>
         <v>0.66807017543859637</v>
       </c>
-      <c r="U6" s="9">
-        <f t="shared" si="8"/>
+      <c r="V6" s="9">
+        <f>COUNTIFS(D6:D1004,M6,E6:E1004,"1")/O6</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="9"/>
+      <c r="W6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,E6:E1004,"2")/O6</f>
         <v>0.40350877192982454</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" si="10"/>
+      <c r="X6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,E6:E1004,"3")/O6</f>
         <v>0.17543859649122806</v>
       </c>
-      <c r="X6" s="12">
-        <f t="shared" si="3"/>
+      <c r="Y6" s="12">
+        <f>SUMIFS(E6:E1004,D6:D1004,M6)/O6</f>
         <v>1.7543859649122806</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z6" s="3">
+        <f>1-((Y6-1)/2)</f>
         <v>0.6228070175438597</v>
       </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA6" s="9">
+        <f>COUNTIFS(D6:D1004,M6,G6:G1004,"1")/O6</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,G6:G1004,"2")/O6</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="13"/>
+      <c r="AC6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,G6:G1004,"3")/O6</f>
         <v>0.70175438596491224</v>
       </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="14"/>
+      <c r="AD6" s="9">
+        <f>(COUNTIFS(D7:D1004,M6,H7:H1004,"1")+COUNTIFS(D7:D1004,M6,H7:H1004,"1,2"))/O6</f>
         <v>0.98245614035087714</v>
       </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="15"/>
+      <c r="AE6" s="3">
+        <f>(COUNTIFS(D7:D1004,M6,H7:H1004,"2")+COUNTIFS(D7:D1004,M6,H7:H1004,"1,2"))/O6</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="AE6" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF6" s="9">
+        <f>(COUNTIFS(D7:D1004,M6,I7:I1004,"1")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2,3"))/O6</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="AF6" s="3">
-        <f t="shared" si="17"/>
+      <c r="AG6" s="3">
+        <f>(COUNTIFS(D7:D1004,M6,I7:I1004,"2")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2")+COUNTIFS(D7:D1004,M6,I7:I1004,"2,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2,3"))/O6</f>
         <v>0.77192982456140347</v>
       </c>
-      <c r="AG6" s="3">
-        <f t="shared" si="18"/>
+      <c r="AH6" s="3">
+        <f>(COUNTIFS(D7:D1004,M6,I7:I1004,"3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"2,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2,3"))/O6</f>
         <v>0.61403508771929827</v>
       </c>
-      <c r="AH6" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI6" s="9">
+        <f>(COUNTIFS(D7:D1004,M6,J7:J1004,"1")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2,3"))/O6</f>
         <v>0.75438596491228072</v>
       </c>
-      <c r="AI6" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ6" s="3">
+        <f>(COUNTIFS(D7:D1004,M6,J7:J1004,"2")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2")+COUNTIFS(D7:D1004,M6,J7:J1004,"2,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2,3"))/O6</f>
         <v>0.12280701754385964</v>
       </c>
-      <c r="AJ6" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK6" s="3">
+        <f>(COUNTIFS(D7:D1004,M6,J7:J1004,"3+X3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"2,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2,3"))/O6</f>
         <v>0.59649122807017541</v>
       </c>
-      <c r="AK6" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL6" s="9">
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"1")/O6</f>
         <v>0.61403508771929827</v>
       </c>
-      <c r="AL6" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"2")/O6</f>
         <v>0.24561403508771928</v>
       </c>
-      <c r="AM6" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"3")/O6</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO6" s="3">
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"4")/O6</f>
         <v>0.14035087719298245</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4468,118 +5579,121 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="O7" s="3">
-        <f>N7/$M$32</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P7" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="1">
+        <f>COUNTIF(D8:D1006,M7)</f>
+        <v>39</v>
+      </c>
+      <c r="P7" s="3">
+        <f>O7/$M$32</f>
+        <v>0.39</v>
+      </c>
+      <c r="Q7" s="3" t="str">
+        <f>IF(P7&gt;0.7,"A",IF(P7&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
       <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f>SUMIFS(F8:F1006,D8:D1006,M7)</f>
+        <v>82</v>
+      </c>
+      <c r="S7" s="1">
+        <f>R7/O7</f>
+        <v>2.1025641025641026</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.56357142857142861</v>
-      </c>
-      <c r="U7" s="9">
-        <f t="shared" si="8"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="9"/>
-        <v>0.5357142857142857</v>
+        <f>1-((S7-1)/4)</f>
+        <v>0.72435897435897434</v>
+      </c>
+      <c r="U7" s="3">
+        <f>(P7+T7+Z7)/3</f>
+        <v>0.52529914529914523</v>
+      </c>
+      <c r="V7" s="9">
+        <f>COUNTIFS(D7:D1005,M7,E7:E1005,"1")/O7</f>
+        <v>0.25641025641025639</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X7" s="12">
-        <f t="shared" si="3"/>
-        <v>1.6785714285714286</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="4"/>
-        <v>0.6607142857142857</v>
-      </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="11"/>
-        <v>0.32142857142857145</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="12"/>
-        <v>0.14285714285714285</v>
+        <f>COUNTIFS(D7:D1005,M7,E7:E1005,"2")/O7</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="X7" s="3">
+        <f>COUNTIFS(D7:D1005,M7,E7:E1005,"3")/O7</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y7" s="12">
+        <f>SUMIFS(E7:E1005,D7:D1005,M7)/O7</f>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>1-((Y7-1)/2)</f>
+        <v>0.46153846153846145</v>
+      </c>
+      <c r="AA7" s="9">
+        <f>COUNTIFS(D7:D1005,M7,G7:G1005,"1")/O7</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="13"/>
-        <v>0.32142857142857145</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="15"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="AE7" s="9">
-        <f t="shared" si="16"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="17"/>
-        <v>0.9642857142857143</v>
+        <f>COUNTIFS(D7:D1005,M7,G7:G1005,"2")/O7</f>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>COUNTIFS(D7:D1005,M7,G7:G1005,"3")/O7</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AD7" s="9">
+        <f>(COUNTIFS(D8:D1005,M7,H8:H1005,"1")+COUNTIFS(D8:D1005,M7,H8:H1005,"1,2"))/O7</f>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3">
+        <f>(COUNTIFS(D8:D1005,M7,H8:H1005,"2")+COUNTIFS(D8:D1005,M7,H8:H1005,"1,2"))/O7</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AF7" s="9">
+        <f>(COUNTIFS(D8:D1005,M7,I8:I1005,"1")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2,3"))/O7</f>
+        <v>0.58974358974358976</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="18"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="AH7" s="9">
-        <f t="shared" si="19"/>
-        <v>0.9642857142857143</v>
-      </c>
-      <c r="AI7" s="3">
-        <f t="shared" si="20"/>
-        <v>0.10714285714285714</v>
+        <f>(COUNTIFS(D8:D1005,M7,I8:I1005,"2")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2")+COUNTIFS(D8:D1005,M7,I8:I1005,"2,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2,3"))/O7</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>(COUNTIFS(D8:D1005,M7,I8:I1005,"3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"2,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2,3"))/O7</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="AI7" s="9">
+        <f>(COUNTIFS(D8:D1005,M7,J8:J1005,"1")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2,3"))/O7</f>
+        <v>0.94871794871794868</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="21"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="AK7" s="9">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL7" s="3">
-        <f t="shared" si="23"/>
-        <v>0.32142857142857145</v>
+        <f>(COUNTIFS(D8:D1005,M7,J8:J1005,"2")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2")+COUNTIFS(D8:D1005,M7,J8:J1005,"2,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2,3"))/O7</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="AK7" s="3">
+        <f>(COUNTIFS(D8:D1005,M7,J8:J1005,"3+X3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"2,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2,3"))/O7</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AL7" s="9">
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"1")/O7</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AM7" s="3">
-        <f t="shared" si="24"/>
-        <v>3.5714285714285712E-2</v>
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"2")/O7</f>
+        <v>0.35897435897435898</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="25"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"3")/O7</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="AO7" s="3">
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"4")/O7</f>
+        <v>0.20512820512820512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4614,118 +5728,121 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" ref="O8:O25" si="26">N8/$M$32</f>
-        <v>0.39</v>
-      </c>
-      <c r="P8" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="1">
+        <f>COUNTIF(D9:D1007,M8)</f>
+        <v>29</v>
+      </c>
+      <c r="P8" s="3">
+        <f>O8/$M$32</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q8" s="3" t="str">
+        <f>IF(P8&gt;0.7,"A",IF(P8&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
       <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1025641025641026</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.72435897435897434</v>
+        <f>SUMIFS(F9:F1007,D9:D1007,M8)</f>
+        <v>62</v>
+      </c>
+      <c r="S8" s="1">
+        <f>R8/O8</f>
+        <v>2.1379310344827585</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.52529914529914523</v>
-      </c>
-      <c r="U8" s="9">
-        <f t="shared" si="8"/>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="9"/>
-        <v>0.41025641025641024</v>
+        <f>1-((S8-1)/4)</f>
+        <v>0.71551724137931039</v>
+      </c>
+      <c r="U8" s="3">
+        <f>(P8+T8+Z8)/3</f>
+        <v>0.45586206896551723</v>
+      </c>
+      <c r="V8" s="9">
+        <f>COUNTIFS(D8:D1006,M8,E8:E1006,"1")/O8</f>
+        <v>0.17241379310344829</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X8" s="12">
-        <f t="shared" si="3"/>
-        <v>2.0769230769230771</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.46153846153846145</v>
-      </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="11"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="12"/>
-        <v>0.4358974358974359</v>
+        <f>COUNTIFS(D8:D1006,M8,E8:E1006,"2")/O8</f>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="X8" s="3">
+        <f>COUNTIFS(D8:D1006,M8,E8:E1006,"3")/O8</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="Y8" s="12">
+        <f>SUMIFS(E8:E1006,D8:D1006,M8)/O8</f>
+        <v>2.2758620689655173</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>1-((Y8-1)/2)</f>
+        <v>0.36206896551724133</v>
+      </c>
+      <c r="AA8" s="9">
+        <f>COUNTIFS(D8:D1006,M8,G8:G1006,"1")/O8</f>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="13"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" si="15"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AE8" s="9">
-        <f t="shared" si="16"/>
-        <v>0.58974358974358976</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" si="17"/>
-        <v>0.82051282051282048</v>
+        <f>COUNTIFS(D8:D1006,M8,G8:G1006,"2")/O8</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>COUNTIFS(D8:D1006,M8,G8:G1006,"3")/O8</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="AD8" s="9">
+        <f>(COUNTIFS(D9:D1006,M8,H9:H1006,"1")+COUNTIFS(D9:D1006,M8,H9:H1006,"1,2"))/O8</f>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="AE8" s="3">
+        <f>(COUNTIFS(D9:D1006,M8,H9:H1006,"2")+COUNTIFS(D9:D1006,M8,H9:H1006,"1,2"))/O8</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="AF8" s="9">
+        <f>(COUNTIFS(D9:D1006,M8,I9:I1006,"1")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2,3"))/O8</f>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="18"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="AH8" s="9">
-        <f t="shared" si="19"/>
-        <v>0.94871794871794868</v>
-      </c>
-      <c r="AI8" s="3">
-        <f t="shared" si="20"/>
-        <v>0.23076923076923078</v>
+        <f>(COUNTIFS(D9:D1006,M8,I9:I1006,"2")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2")+COUNTIFS(D9:D1006,M8,I9:I1006,"2,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2,3"))/O8</f>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>(COUNTIFS(D9:D1006,M8,I9:I1006,"3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"2,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2,3"))/O8</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="AI8" s="9">
+        <f>(COUNTIFS(D9:D1006,M8,J9:J1006,"1")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2,3"))/O8</f>
+        <v>0.89655172413793105</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="21"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="AK8" s="9">
-        <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AL8" s="3">
-        <f t="shared" si="23"/>
-        <v>0.35897435897435898</v>
+        <f>(COUNTIFS(D9:D1006,M8,J9:J1006,"2")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2")+COUNTIFS(D9:D1006,M8,J9:J1006,"2,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2,3"))/O8</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="AK8" s="3">
+        <f>(COUNTIFS(D9:D1006,M8,J9:J1006,"3+X3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"2,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2,3"))/O8</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="AL8" s="9">
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"1")/O8</f>
+        <v>0.31034482758620691</v>
       </c>
       <c r="AM8" s="3">
-        <f t="shared" si="24"/>
-        <v>0.10256410256410256</v>
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"2")/O8</f>
+        <v>0.34482758620689657</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" si="25"/>
-        <v>0.20512820512820512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"3")/O8</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AO8" s="3">
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"4")/O8</f>
+        <v>0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4760,118 +5877,121 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="26"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P9" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="1">
+        <f>COUNTIF(D10:D1008,M9)</f>
+        <v>28</v>
+      </c>
+      <c r="P9" s="3">
+        <f>O9/$M$32</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <f>IF(P9&gt;0.7,"A",IF(P9&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
       <c r="R9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1379310344827585</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.71551724137931039</v>
+        <f>SUMIFS(F10:F1008,D10:D1008,M9)</f>
+        <v>56</v>
+      </c>
+      <c r="S9" s="1">
+        <f>R9/O9</f>
+        <v>2</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.45586206896551723</v>
-      </c>
-      <c r="U9" s="9">
-        <f t="shared" si="8"/>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="9"/>
-        <v>0.37931034482758619</v>
+        <f>1-((S9-1)/4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U9" s="3">
+        <f>(P9+T9+Z9)/3</f>
+        <v>0.56357142857142861</v>
+      </c>
+      <c r="V9" s="9">
+        <f>COUNTIFS(D9:D1007,M9,E9:E1007,"1")/O9</f>
+        <v>0.39285714285714285</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="10"/>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="X9" s="12">
-        <f t="shared" si="3"/>
-        <v>2.2758620689655173</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.36206896551724133</v>
-      </c>
-      <c r="Z9" s="9">
-        <f t="shared" si="11"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="12"/>
-        <v>0.55172413793103448</v>
+        <f>COUNTIFS(D9:D1007,M9,E9:E1007,"2")/O9</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="X9" s="3">
+        <f>COUNTIFS(D9:D1007,M9,E9:E1007,"3")/O9</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="Y9" s="12">
+        <f>SUMIFS(E9:E1007,D9:D1007,M9)/O9</f>
+        <v>1.6785714285714286</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>1-((Y9-1)/2)</f>
+        <v>0.6607142857142857</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>COUNTIFS(D9:D1007,M9,G9:G1007,"1")/O9</f>
+        <v>0.32142857142857145</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="13"/>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="14"/>
-        <v>0.96551724137931039</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" si="15"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="AE9" s="9">
-        <f t="shared" si="16"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f>COUNTIFS(D9:D1007,M9,G9:G1007,"2")/O9</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>COUNTIFS(D9:D1007,M9,G9:G1007,"3")/O9</f>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="AD9" s="9">
+        <f>(COUNTIFS(D10:D1007,M9,H10:H1007,"1")+COUNTIFS(D10:D1007,M9,H10:H1007,"1,2"))/O9</f>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>(COUNTIFS(D10:D1007,M9,H10:H1007,"2")+COUNTIFS(D10:D1007,M9,H10:H1007,"1,2"))/O9</f>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="AF9" s="9">
+        <f>(COUNTIFS(D10:D1007,M9,I10:I1007,"1")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2,3"))/O9</f>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="18"/>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="AH9" s="9">
-        <f t="shared" si="19"/>
-        <v>0.89655172413793105</v>
-      </c>
-      <c r="AI9" s="3">
-        <f t="shared" si="20"/>
-        <v>0.13793103448275862</v>
+        <f>(COUNTIFS(D10:D1007,M9,I10:I1007,"2")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2")+COUNTIFS(D10:D1007,M9,I10:I1007,"2,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2,3"))/O9</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>(COUNTIFS(D10:D1007,M9,I10:I1007,"3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"2,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2,3"))/O9</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AI9" s="9">
+        <f>(COUNTIFS(D10:D1007,M9,J10:J1007,"1")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2,3"))/O9</f>
+        <v>0.9642857142857143</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="21"/>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="AK9" s="9">
-        <f t="shared" si="22"/>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="AL9" s="3">
-        <f t="shared" si="23"/>
-        <v>0.34482758620689657</v>
+        <f>(COUNTIFS(D10:D1007,M9,J10:J1007,"2")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2")+COUNTIFS(D10:D1007,M9,J10:J1007,"2,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2,3"))/O9</f>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="AK9" s="3">
+        <f>(COUNTIFS(D10:D1007,M9,J10:J1007,"3+X3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"2,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2,3"))/O9</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AL9" s="9">
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"1")/O9</f>
+        <v>0.5</v>
       </c>
       <c r="AM9" s="3">
-        <f t="shared" si="24"/>
-        <v>0.10344827586206896</v>
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"2")/O9</f>
+        <v>0.32142857142857145</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="25"/>
-        <v>0.2413793103448276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"3")/O9</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AO9" s="3">
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"4")/O9</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -4906,118 +6026,121 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="26"/>
-        <v>0.26</v>
-      </c>
-      <c r="P10" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="1">
+        <f>COUNTIF(D11:D1009,M10)</f>
+        <v>27</v>
+      </c>
+      <c r="P10" s="3">
+        <f>O10/$M$32</f>
+        <v>0.27</v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <f>IF(P10&gt;0.7,"A",IF(P10&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
       <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2692307692307692</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.68269230769230771</v>
+        <f>SUMIFS(F11:F1009,D11:D1009,M10)</f>
+        <v>54</v>
+      </c>
+      <c r="S10" s="1">
+        <f>R10/O10</f>
+        <v>2</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.32705128205128209</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="9"/>
-        <v>7.6923076923076927E-2</v>
+        <f>1-((S10-1)/4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U10" s="3">
+        <f>(P10+T10+Z10)/3</f>
+        <v>0.5251851851851852</v>
+      </c>
+      <c r="V10" s="9">
+        <f>COUNTIFS(D10:D1008,M10,E10:E1008,"1")/O10</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="10"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="X10" s="12">
-        <f t="shared" si="3"/>
-        <v>2.9230769230769229</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8461538461538547E-2</v>
-      </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="11"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="12"/>
-        <v>0.26923076923076922</v>
+        <f>COUNTIFS(D10:D1008,M10,E10:E1008,"2")/O10</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="X10" s="3">
+        <f>COUNTIFS(D10:D1008,M10,E10:E1008,"3")/O10</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Y10" s="12">
+        <f>SUMIFS(E10:E1008,D10:D1008,M10)/O10</f>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>1-((Y10-1)/2)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AA10" s="9">
+        <f>COUNTIFS(D10:D1008,M10,G10:G1008,"1")/O10</f>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="13"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="14"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="15"/>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="AE10" s="9">
-        <f t="shared" si="16"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AF10" s="3">
-        <f t="shared" si="17"/>
-        <v>0.92307692307692313</v>
+        <f>COUNTIFS(D10:D1008,M10,G10:G1008,"2")/O10</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>COUNTIFS(D10:D1008,M10,G10:G1008,"3")/O10</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="AD10" s="9">
+        <f>(COUNTIFS(D11:D1008,M10,H11:H1008,"1")+COUNTIFS(D11:D1008,M10,H11:H1008,"1,2"))/O10</f>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>(COUNTIFS(D11:D1008,M10,H11:H1008,"2")+COUNTIFS(D11:D1008,M10,H11:H1008,"1,2"))/O10</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="AF10" s="9">
+        <f>(COUNTIFS(D11:D1008,M10,I11:I1008,"1")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2,3"))/O10</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="18"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AH10" s="9">
-        <f t="shared" si="19"/>
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="AI10" s="3">
-        <f t="shared" si="20"/>
-        <v>0.15384615384615385</v>
+        <f>(COUNTIFS(D11:D1008,M10,I11:I1008,"2")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2")+COUNTIFS(D11:D1008,M10,I11:I1008,"2,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2,3"))/O10</f>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>(COUNTIFS(D11:D1008,M10,I11:I1008,"3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"2,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2,3"))/O10</f>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="AI10" s="9">
+        <f>(COUNTIFS(D11:D1008,M10,J11:J1008,"1")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2,3"))/O10</f>
+        <v>1</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="21"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="AK10" s="9">
-        <f t="shared" si="22"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AL10" s="3">
-        <f t="shared" si="23"/>
-        <v>0.30769230769230771</v>
+        <f>(COUNTIFS(D11:D1008,M10,J11:J1008,"2")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2")+COUNTIFS(D11:D1008,M10,J11:J1008,"2,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2,3"))/O10</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AK10" s="3">
+        <f>(COUNTIFS(D11:D1008,M10,J11:J1008,"3+X3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"2,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2,3"))/O10</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="AL10" s="9">
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"1")/O10</f>
+        <v>0.40740740740740738</v>
       </c>
       <c r="AM10" s="3">
-        <f t="shared" si="24"/>
-        <v>0.15384615384615385</v>
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"2")/O10</f>
+        <v>0.40740740740740738</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="25"/>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"3")/O10</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="AO10" s="3">
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"4")/O10</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -5052,118 +6175,121 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="26"/>
-        <v>0.27</v>
-      </c>
-      <c r="P11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="1">
+        <f>COUNTIF(D12:D1010,M11)</f>
+        <v>26</v>
+      </c>
+      <c r="P11" s="3">
+        <f>O11/$M$32</f>
+        <v>0.26</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f>IF(P11&gt;0.7,"A",IF(P11&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
       <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f>SUMIFS(F12:F1010,D12:D1010,M11)</f>
+        <v>59</v>
+      </c>
+      <c r="S11" s="1">
+        <f>R11/O11</f>
+        <v>2.2692307692307692</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.5251851851851852</v>
-      </c>
-      <c r="U11" s="9">
-        <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="9"/>
-        <v>0.44444444444444442</v>
+        <f>1-((S11-1)/4)</f>
+        <v>0.68269230769230771</v>
+      </c>
+      <c r="U11" s="3">
+        <f>(P11+T11+Z11)/3</f>
+        <v>0.32705128205128209</v>
+      </c>
+      <c r="V11" s="9">
+        <f>COUNTIFS(D11:D1009,M11,E11:E1009,"1")/O11</f>
+        <v>0</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="10"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="3"/>
-        <v>1.8888888888888888</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" si="11"/>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
+        <f>COUNTIFS(D11:D1009,M11,E11:E1009,"2")/O11</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="X11" s="3">
+        <f>COUNTIFS(D11:D1009,M11,E11:E1009,"3")/O11</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="Y11" s="12">
+        <f>SUMIFS(E11:E1009,D11:D1009,M11)/O11</f>
+        <v>2.9230769230769229</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>1-((Y11-1)/2)</f>
+        <v>3.8461538461538547E-2</v>
+      </c>
+      <c r="AA11" s="9">
+        <f>COUNTIFS(D11:D1009,M11,G11:G1009,"1")/O11</f>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="13"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="AC11" s="9">
-        <f t="shared" si="14"/>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="AD11" s="3">
-        <f t="shared" si="15"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="AE11" s="9">
-        <f t="shared" si="16"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AF11" s="3">
-        <f t="shared" si="17"/>
-        <v>0.70370370370370372</v>
+        <f>COUNTIFS(D11:D1009,M11,G11:G1009,"2")/O11</f>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="AC11" s="3">
+        <f>COUNTIFS(D11:D1009,M11,G11:G1009,"3")/O11</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AD11" s="9">
+        <f>(COUNTIFS(D12:D1009,M11,H12:H1009,"1")+COUNTIFS(D12:D1009,M11,H12:H1009,"1,2"))/O11</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="AE11" s="3">
+        <f>(COUNTIFS(D12:D1009,M11,H12:H1009,"2")+COUNTIFS(D12:D1009,M11,H12:H1009,"1,2"))/O11</f>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="AF11" s="9">
+        <f>(COUNTIFS(D12:D1009,M11,I12:I1009,"1")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2,3"))/O11</f>
+        <v>0.11538461538461539</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="18"/>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="AH11" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="3">
-        <f t="shared" si="20"/>
-        <v>0.1111111111111111</v>
+        <f>(COUNTIFS(D12:D1009,M11,I12:I1009,"2")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2")+COUNTIFS(D12:D1009,M11,I12:I1009,"2,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2,3"))/O11</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>(COUNTIFS(D12:D1009,M11,I12:I1009,"3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"2,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2,3"))/O11</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AI11" s="9">
+        <f>(COUNTIFS(D12:D1009,M11,J12:J1009,"1")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2,3"))/O11</f>
+        <v>0.57692307692307687</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="21"/>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="AK11" s="9">
-        <f t="shared" si="22"/>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="AL11" s="3">
-        <f t="shared" si="23"/>
-        <v>0.40740740740740738</v>
+        <f>(COUNTIFS(D12:D1009,M11,J12:J1009,"2")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2")+COUNTIFS(D12:D1009,M11,J12:J1009,"2,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2,3"))/O11</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AK11" s="3">
+        <f>(COUNTIFS(D12:D1009,M11,J12:J1009,"3+X3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"2,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2,3"))/O11</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="AL11" s="9">
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"1")/O11</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" si="24"/>
-        <v>7.407407407407407E-2</v>
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"2")/O11</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="25"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"3")/O11</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AO11" s="3">
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"4")/O11</f>
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -5200,116 +6326,119 @@
       <c r="M12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="5"/>
+      <c r="N12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="1">
+        <f>COUNTIF(D13:D1011,M12)</f>
         <v>17</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="26"/>
+      <c r="P12" s="3">
+        <f>O12/$M$32</f>
         <v>0.17</v>
       </c>
-      <c r="P12" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q12" s="3" t="str">
+        <f>IF(P12&gt;0.7,"A",IF(P12&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="7"/>
+      <c r="R12" s="1">
+        <f>SUMIFS(F13:F1011,D13:D1011,M12)</f>
         <v>28</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" si="0"/>
+      <c r="S12" s="1">
+        <f>R12/O12</f>
         <v>1.6470588235294117</v>
       </c>
-      <c r="S12" s="3">
-        <f t="shared" si="1"/>
+      <c r="T12" s="3">
+        <f>1-((S12-1)/4)</f>
         <v>0.83823529411764708</v>
       </c>
-      <c r="T12" s="3">
-        <f t="shared" si="2"/>
+      <c r="U12" s="3">
+        <f>(P12+T12+Z12)/3</f>
         <v>0.52235294117647058</v>
       </c>
-      <c r="U12" s="9">
-        <f t="shared" si="8"/>
+      <c r="V12" s="9">
+        <f>COUNTIFS(D12:D1010,M12,E12:E1010,"1")/O12</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="V12" s="3">
-        <f t="shared" si="9"/>
+      <c r="W12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,E12:E1010,"2")/O12</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="W12" s="3">
-        <f t="shared" si="10"/>
+      <c r="X12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,E12:E1010,"3")/O12</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="X12" s="12">
-        <f t="shared" si="3"/>
+      <c r="Y12" s="12">
+        <f>SUMIFS(E12:E1010,D12:D1010,M12)/O12</f>
         <v>1.8823529411764706</v>
       </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z12" s="3">
+        <f>1-((Y12-1)/2)</f>
         <v>0.55882352941176472</v>
       </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA12" s="9">
+        <f>COUNTIFS(D12:D1010,M12,G12:G1010,"1")/O12</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,G12:G1010,"2")/O12</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="13"/>
+      <c r="AC12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,G12:G1010,"3")/O12</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="AC12" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="15"/>
+      <c r="AD12" s="9">
+        <f>(COUNTIFS(D13:D1010,M12,H13:H1010,"1")+COUNTIFS(D13:D1010,M12,H13:H1010,"1,2"))/O12</f>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <f>(COUNTIFS(D13:D1010,M12,H13:H1010,"2")+COUNTIFS(D13:D1010,M12,H13:H1010,"1,2"))/O12</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="AE12" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF12" s="9">
+        <f>(COUNTIFS(D13:D1010,M12,I13:I1010,"1")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2,3"))/O12</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="17"/>
+      <c r="AG12" s="3">
+        <f>(COUNTIFS(D13:D1010,M12,I13:I1010,"2")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2")+COUNTIFS(D13:D1010,M12,I13:I1010,"2,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2,3"))/O12</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="18"/>
+      <c r="AH12" s="3">
+        <f>(COUNTIFS(D13:D1010,M12,I13:I1010,"3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"2,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2,3"))/O12</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="AH12" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI12" s="9">
+        <f>(COUNTIFS(D13:D1010,M12,J13:J1010,"1")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2,3"))/O12</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ12" s="3">
+        <f>(COUNTIFS(D13:D1010,M12,J13:J1010,"2")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2")+COUNTIFS(D13:D1010,M12,J13:J1010,"2,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2,3"))/O12</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="AJ12" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK12" s="3">
+        <f>(COUNTIFS(D13:D1010,M12,J13:J1010,"3+X3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"2,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2,3"))/O12</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="AK12" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL12" s="9">
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"1")/O12</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="AL12" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"2")/O12</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="AM12" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"3")/O12</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO12" s="3">
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"4")/O12</f>
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -5346,116 +6475,119 @@
       <c r="M13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="5"/>
+      <c r="N13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="1">
+        <f>COUNTIF(D14:D1012,M13)</f>
         <v>9</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="26"/>
+      <c r="P13" s="3">
+        <f>O13/$M$32</f>
         <v>0.09</v>
       </c>
-      <c r="P13" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q13" s="3" t="str">
+        <f>IF(P13&gt;0.7,"A",IF(P13&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="7"/>
+      <c r="R13" s="1">
+        <f>SUMIFS(F14:F1012,D14:D1012,M13)</f>
         <v>16</v>
       </c>
-      <c r="R13" s="1">
-        <f t="shared" si="0"/>
+      <c r="S13" s="1">
+        <f>R13/O13</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="S13" s="3">
-        <f t="shared" si="1"/>
+      <c r="T13" s="3">
+        <f>1-((S13-1)/4)</f>
         <v>0.80555555555555558</v>
       </c>
-      <c r="T13" s="3">
-        <f t="shared" si="2"/>
+      <c r="U13" s="3">
+        <f>(P13+T13+Z13)/3</f>
         <v>0.5948148148148148</v>
       </c>
-      <c r="U13" s="9">
-        <f t="shared" si="8"/>
+      <c r="V13" s="9">
+        <f>COUNTIFS(D13:D1011,M13,E13:E1011,"1")/O13</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="V13" s="3">
-        <f t="shared" si="9"/>
+      <c r="W13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,E13:E1011,"2")/O13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="3">
-        <f t="shared" si="10"/>
+      <c r="X13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,E13:E1011,"3")/O13</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="X13" s="12">
-        <f t="shared" si="3"/>
+      <c r="Y13" s="12">
+        <f>SUMIFS(E13:E1011,D13:D1011,M13)/O13</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z13" s="3">
+        <f>1-((Y13-1)/2)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="Z13" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA13" s="9">
+        <f>COUNTIFS(D13:D1011,M13,G13:G1011,"1")/O13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,G13:G1011,"2")/O13</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="13"/>
+      <c r="AC13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,G13:G1011,"3")/O13</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="AC13" s="9">
-        <f t="shared" si="14"/>
+      <c r="AD13" s="9">
+        <f>(COUNTIFS(D14:D1011,M13,H14:H1011,"1")+COUNTIFS(D14:D1011,M13,H14:H1011,"1,2"))/O13</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD13" s="3">
-        <f t="shared" si="15"/>
+      <c r="AE13" s="3">
+        <f>(COUNTIFS(D14:D1011,M13,H14:H1011,"2")+COUNTIFS(D14:D1011,M13,H14:H1011,"1,2"))/O13</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="AE13" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF13" s="9">
+        <f>(COUNTIFS(D14:D1011,M13,I14:I1011,"1")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2,3"))/O13</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="17"/>
+      <c r="AG13" s="3">
+        <f>(COUNTIFS(D14:D1011,M13,I14:I1011,"2")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2")+COUNTIFS(D14:D1011,M13,I14:I1011,"2,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2,3"))/O13</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="AG13" s="3">
-        <f t="shared" si="18"/>
+      <c r="AH13" s="3">
+        <f>(COUNTIFS(D14:D1011,M13,I14:I1011,"3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"2,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2,3"))/O13</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="AH13" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI13" s="9">
+        <f>(COUNTIFS(D14:D1011,M13,J14:J1011,"1")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2,3"))/O13</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AI13" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ13" s="3">
+        <f>(COUNTIFS(D14:D1011,M13,J14:J1011,"2")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2")+COUNTIFS(D14:D1011,M13,J14:J1011,"2,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2,3"))/O13</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AJ13" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK13" s="3">
+        <f>(COUNTIFS(D14:D1011,M13,J14:J1011,"3+X3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"2,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2,3"))/O13</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AK13" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL13" s="9">
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"1")/O13</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AL13" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"2")/O13</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="AM13" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"3")/O13</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="AN13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO13" s="3">
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"4")/O13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -5492,116 +6624,119 @@
       <c r="M14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="5"/>
+      <c r="N14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="1">
+        <f>COUNTIF(D15:D1013,M14)</f>
         <v>6</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="26"/>
+      <c r="P14" s="3">
+        <f>O14/$M$32</f>
         <v>0.06</v>
       </c>
-      <c r="P14" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q14" s="3" t="str">
+        <f>IF(P14&gt;0.7,"A",IF(P14&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="7"/>
+      <c r="R14" s="1">
+        <f>SUMIFS(F15:F1013,D15:D1013,M14)</f>
         <v>14</v>
       </c>
-      <c r="R14" s="1">
-        <f t="shared" si="0"/>
+      <c r="S14" s="1">
+        <f>R14/O14</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S14" s="3">
-        <f t="shared" si="1"/>
+      <c r="T14" s="3">
+        <f>1-((S14-1)/4)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T14" s="3">
-        <f t="shared" si="2"/>
+      <c r="U14" s="3">
+        <f>(P14+T14+Z14)/3</f>
         <v>0.46444444444444438</v>
       </c>
-      <c r="U14" s="9">
-        <f t="shared" si="8"/>
+      <c r="V14" s="9">
+        <f>COUNTIFS(D14:D1012,M14,E14:E1012,"1")/O14</f>
         <v>0.5</v>
       </c>
-      <c r="V14" s="3">
-        <f t="shared" si="9"/>
+      <c r="W14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,E14:E1012,"2")/O14</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W14" s="3">
-        <f t="shared" si="10"/>
+      <c r="X14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,E14:E1012,"3")/O14</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="X14" s="12">
-        <f t="shared" si="3"/>
+      <c r="Y14" s="12">
+        <f>SUMIFS(E14:E1012,D14:D1012,M14)/O14</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z14" s="3">
+        <f>1-((Y14-1)/2)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA14" s="9">
+        <f>COUNTIFS(D14:D1012,M14,G14:G1012,"1")/O14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,G14:G1012,"2")/O14</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="3">
-        <f t="shared" si="15"/>
+      <c r="AC14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,G14:G1012,"3")/O14</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="9">
+        <f>(COUNTIFS(D15:D1012,M14,H15:H1012,"1")+COUNTIFS(D15:D1012,M14,H15:H1012,"1,2"))/O14</f>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <f>(COUNTIFS(D15:D1012,M14,H15:H1012,"2")+COUNTIFS(D15:D1012,M14,H15:H1012,"1,2"))/O14</f>
         <v>0.5</v>
       </c>
-      <c r="AE14" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF14" s="9">
+        <f>(COUNTIFS(D15:D1012,M14,I15:I1012,"1")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2,3"))/O14</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="17"/>
+      <c r="AG14" s="3">
+        <f>(COUNTIFS(D15:D1012,M14,I15:I1012,"2")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2")+COUNTIFS(D15:D1012,M14,I15:I1012,"2,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2,3"))/O14</f>
         <v>0.5</v>
       </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="18"/>
+      <c r="AH14" s="3">
+        <f>(COUNTIFS(D15:D1012,M14,I15:I1012,"3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"2,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2,3"))/O14</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AH14" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI14" s="9">
+        <f>(COUNTIFS(D15:D1012,M14,J15:J1012,"1")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2,3"))/O14</f>
         <v>0.5</v>
       </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ14" s="3">
+        <f>(COUNTIFS(D15:D1012,M14,J15:J1012,"2")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2")+COUNTIFS(D15:D1012,M14,J15:J1012,"2,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2,3"))/O14</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AJ14" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK14" s="3">
+        <f>(COUNTIFS(D15:D1012,M14,J15:J1012,"3+X3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"2,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2,3"))/O14</f>
         <v>0.5</v>
       </c>
-      <c r="AK14" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL14" s="9">
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"1")/O14</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AL14" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"2")/O14</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AM14" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"3")/O14</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO14" s="3">
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"4")/O14</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -5638,116 +6773,119 @@
       <c r="M15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="5"/>
+      <c r="N15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="1">
+        <f>COUNTIF(D16:D1014,M15)</f>
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="26"/>
+      <c r="P15" s="3">
+        <f>O15/$M$32</f>
         <v>0.05</v>
       </c>
-      <c r="P15" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q15" s="3" t="str">
+        <f>IF(P15&gt;0.7,"A",IF(P15&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
       <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(F16:F1014,D16:D1014,M15)</f>
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <f>R15/O15</f>
+        <v>2</v>
+      </c>
+      <c r="T15" s="3">
+        <f>1-((S15-1)/4)</f>
         <v>0.75</v>
       </c>
-      <c r="T15" s="3">
-        <f t="shared" si="2"/>
+      <c r="U15" s="3">
+        <f>(P15+T15+Z15)/3</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="U15" s="9">
-        <f t="shared" si="8"/>
+      <c r="V15" s="9">
+        <f>COUNTIFS(D15:D1013,M15,E15:E1013,"1")/O15</f>
         <v>0.2</v>
       </c>
-      <c r="V15" s="3">
-        <f t="shared" si="9"/>
+      <c r="W15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,E15:E1013,"2")/O15</f>
         <v>0.6</v>
       </c>
-      <c r="W15" s="3">
-        <f t="shared" si="10"/>
+      <c r="X15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,E15:E1013,"3")/O15</f>
         <v>0.2</v>
       </c>
-      <c r="X15" s="12">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="4"/>
+      <c r="Y15" s="12">
+        <f>SUMIFS(E15:E1013,D15:D1013,M15)/O15</f>
+        <v>2</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>1-((Y15-1)/2)</f>
         <v>0.5</v>
       </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA15" s="9">
+        <f>COUNTIFS(D15:D1013,M15,G15:G1013,"1")/O15</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,G15:G1013,"2")/O15</f>
         <v>0.4</v>
       </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="13"/>
+      <c r="AC15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,G15:G1013,"3")/O15</f>
         <v>0.4</v>
       </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="15"/>
+      <c r="AD15" s="9">
+        <f>(COUNTIFS(D16:D1013,M15,H16:H1013,"1")+COUNTIFS(D16:D1013,M15,H16:H1013,"1,2"))/O15</f>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>(COUNTIFS(D16:D1013,M15,H16:H1013,"2")+COUNTIFS(D16:D1013,M15,H16:H1013,"1,2"))/O15</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF15" s="9">
+        <f>(COUNTIFS(D16:D1013,M15,I16:I1013,"1")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2,3"))/O15</f>
         <v>0.6</v>
       </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="17"/>
+      <c r="AG15" s="3">
+        <f>(COUNTIFS(D16:D1013,M15,I16:I1013,"2")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2")+COUNTIFS(D16:D1013,M15,I16:I1013,"2,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2,3"))/O15</f>
         <v>0.4</v>
       </c>
-      <c r="AG15" s="3">
-        <f t="shared" si="18"/>
+      <c r="AH15" s="3">
+        <f>(COUNTIFS(D16:D1013,M15,I16:I1013,"3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"2,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2,3"))/O15</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI15" s="9">
+        <f>(COUNTIFS(D16:D1013,M15,J16:J1013,"1")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2,3"))/O15</f>
         <v>0.8</v>
       </c>
-      <c r="AI15" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ15" s="3">
+        <f>(COUNTIFS(D16:D1013,M15,J16:J1013,"2")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2")+COUNTIFS(D16:D1013,M15,J16:J1013,"2,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2,3"))/O15</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK15" s="3">
+        <f>(COUNTIFS(D16:D1013,M15,J16:J1013,"3+X3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"2,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2,3"))/O15</f>
         <v>0.2</v>
       </c>
-      <c r="AK15" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL15" s="9">
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"1")/O15</f>
         <v>0.8</v>
       </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"2")/O15</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"3")/O15</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO15" s="3">
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"4")/O15</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -5784,116 +6922,119 @@
       <c r="M16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="26"/>
+      <c r="N16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="1">
+        <f>COUNTIF(D17:D1015,M16)</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="3">
+        <f>O16/$M$32</f>
         <v>0.04</v>
       </c>
-      <c r="P16" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q16" s="3" t="str">
+        <f>IF(P16&gt;0.7,"A",IF(P16&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="7"/>
+      <c r="R16" s="1">
+        <f>SUMIFS(F17:F1015,D17:D1015,M16)</f>
         <v>11</v>
       </c>
-      <c r="R16" s="1">
-        <f t="shared" si="0"/>
+      <c r="S16" s="1">
+        <f>R16/O16</f>
         <v>2.75</v>
       </c>
-      <c r="S16" s="3">
-        <f t="shared" si="1"/>
+      <c r="T16" s="3">
+        <f>1-((S16-1)/4)</f>
         <v>0.5625</v>
       </c>
-      <c r="T16" s="3">
-        <f t="shared" si="2"/>
+      <c r="U16" s="3">
+        <f>(P16+T16+Z16)/3</f>
         <v>0.45083333333333336</v>
       </c>
-      <c r="U16" s="9">
-        <f t="shared" si="8"/>
+      <c r="V16" s="9">
+        <f>COUNTIFS(D16:D1014,M16,E16:E1014,"1")/O16</f>
         <v>0.75</v>
       </c>
-      <c r="V16" s="3">
-        <f t="shared" si="9"/>
+      <c r="W16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,E16:E1014,"2")/O16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" si="10"/>
+      <c r="X16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,E16:E1014,"3")/O16</f>
         <v>0.25</v>
       </c>
-      <c r="X16" s="12">
-        <f t="shared" si="3"/>
+      <c r="Y16" s="12">
+        <f>SUMIFS(E16:E1014,D16:D1014,M16)/O16</f>
         <v>1.5</v>
       </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z16" s="3">
+        <f>1-((Y16-1)/2)</f>
         <v>0.75</v>
       </c>
-      <c r="Z16" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA16" s="9">
+        <f>COUNTIFS(D16:D1014,M16,G16:G1014,"1")/O16</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,G16:G1014,"2")/O16</f>
         <v>0.25</v>
       </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="13"/>
+      <c r="AC16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,G16:G1014,"3")/O16</f>
         <v>0.75</v>
       </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="15"/>
+      <c r="AD16" s="9">
+        <f>(COUNTIFS(D17:D1014,M16,H17:H1014,"1")+COUNTIFS(D17:D1014,M16,H17:H1014,"1,2"))/O16</f>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>(COUNTIFS(D17:D1014,M16,H17:H1014,"2")+COUNTIFS(D17:D1014,M16,H17:H1014,"1,2"))/O16</f>
         <v>0.5</v>
       </c>
-      <c r="AE16" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF16" s="9">
+        <f>(COUNTIFS(D17:D1014,M16,I17:I1014,"1")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2,3"))/O16</f>
         <v>0.75</v>
       </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="17"/>
+      <c r="AG16" s="3">
+        <f>(COUNTIFS(D17:D1014,M16,I17:I1014,"2")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2")+COUNTIFS(D17:D1014,M16,I17:I1014,"2,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2,3"))/O16</f>
         <v>0.75</v>
       </c>
-      <c r="AG16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AH16" s="3">
+        <f>(COUNTIFS(D17:D1014,M16,I17:I1014,"3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"2,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2,3"))/O16</f>
         <v>0.5</v>
       </c>
-      <c r="AH16" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI16" s="9">
+        <f>(COUNTIFS(D17:D1014,M16,J17:J1014,"1")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2,3"))/O16</f>
         <v>0.75</v>
       </c>
-      <c r="AI16" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ16" s="3">
+        <f>(COUNTIFS(D17:D1014,M16,J17:J1014,"2")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2")+COUNTIFS(D17:D1014,M16,J17:J1014,"2,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2,3"))/O16</f>
         <v>0.5</v>
       </c>
-      <c r="AJ16" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK16" s="3">
+        <f>(COUNTIFS(D17:D1014,M16,J17:J1014,"3+X3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"2,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2,3"))/O16</f>
         <v>0.5</v>
       </c>
-      <c r="AK16" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL16" s="9">
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"1")/O16</f>
         <v>0.5</v>
       </c>
-      <c r="AL16" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"2")/O16</f>
         <v>0.25</v>
       </c>
-      <c r="AM16" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"3")/O16</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO16" s="3">
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"4")/O16</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -5928,118 +7069,121 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="26"/>
-        <v>0.03</v>
-      </c>
-      <c r="P17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="1">
+        <f>COUNTIF(D18:D1016,M17)</f>
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
+        <f>O17/$M$32</f>
+        <v>0.04</v>
+      </c>
+      <c r="Q17" s="3" t="str">
+        <f>IF(P17&gt;0.7,"A",IF(P17&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
       <c r="R17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333326</v>
+        <f>SUMIFS(F18:F1016,D18:D1016,M17)</f>
+        <v>6</v>
+      </c>
+      <c r="S17" s="1">
+        <f>R17/O17</f>
+        <v>1.5</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.62111111111111106</v>
-      </c>
-      <c r="U17" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="9"/>
+        <f>1-((S17-1)/4)</f>
+        <v>0.875</v>
+      </c>
+      <c r="U17" s="3">
+        <f>(P17+T17+Z17)/3</f>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="V17" s="9">
+        <f>COUNTIFS(D17:D1015,M17,E17:E1015,"1")/O17</f>
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D17:D1015,M17,E17:E1015,"2")/O17</f>
+        <v>0.25</v>
+      </c>
+      <c r="X17" s="3">
+        <f>COUNTIFS(D17:D1015,M17,E17:E1015,"3")/O17</f>
+        <v>0.75</v>
+      </c>
+      <c r="Y17" s="12">
+        <f>SUMIFS(E17:E1015,D17:D1015,M17)/O17</f>
+        <v>2.75</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>1-((Y17-1)/2)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA17" s="9">
+        <f>COUNTIFS(D17:D1015,M17,G17:G1015,"1")/O17</f>
         <v>0</v>
       </c>
-      <c r="X17" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="11"/>
+      <c r="AB17" s="3">
+        <f>COUNTIFS(D17:D1015,M17,G17:G1015,"2")/O17</f>
+        <v>0.75</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>COUNTIFS(D17:D1015,M17,G17:G1015,"3")/O17</f>
+        <v>0.25</v>
+      </c>
+      <c r="AD17" s="9">
+        <f>(COUNTIFS(D18:D1015,M17,H18:H1015,"1")+COUNTIFS(D18:D1015,M17,H18:H1015,"1,2"))/O17</f>
+        <v>1</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>(COUNTIFS(D18:D1015,M17,H18:H1015,"2")+COUNTIFS(D18:D1015,M17,H18:H1015,"1,2"))/O17</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF17" s="9">
+        <f>(COUNTIFS(D18:D1015,M17,I18:I1015,"1")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2,3"))/O17</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="12"/>
+      <c r="AG17" s="3">
+        <f>(COUNTIFS(D18:D1015,M17,I18:I1015,"2")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2")+COUNTIFS(D18:D1015,M17,I18:I1015,"2,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2,3"))/O17</f>
+        <v>1</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>(COUNTIFS(D18:D1015,M17,I18:I1015,"3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"2,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2,3"))/O17</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI17" s="9">
+        <f>(COUNTIFS(D18:D1015,M17,J18:J1015,"1")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2,3"))/O17</f>
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f>(COUNTIFS(D18:D1015,M17,J18:J1015,"2")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2")+COUNTIFS(D18:D1015,M17,J18:J1015,"2,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2,3"))/O17</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD17" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE17" s="9">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="3">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AG17" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AH17" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AI17" s="3">
-        <f t="shared" si="20"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AJ17" s="3">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AK17" s="9">
-        <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AL17" s="3">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+      <c r="AK17" s="3">
+        <f>(COUNTIFS(D18:D1015,M17,J18:J1015,"3+X3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"2,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2,3"))/O17</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="9">
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"1")/O17</f>
+        <v>0.25</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"2")/O17</f>
+        <v>0.75</v>
+      </c>
+      <c r="AN17" s="3">
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"3")/O17</f>
         <v>0</v>
       </c>
-      <c r="AN17" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO17" s="3">
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"4")/O17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -6074,118 +7218,121 @@
         <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="1">
+        <f>COUNTIF(D19:D1017,M18)</f>
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <f>O18/$M$32</f>
         <v>0.03</v>
       </c>
-      <c r="P18" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q18" s="3" t="str">
+        <f>IF(P18&gt;0.7,"A",IF(P18&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
       <c r="R18" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(F19:F1017,D19:D1017,M18)</f>
+        <v>5</v>
+      </c>
+      <c r="S18" s="1">
+        <f>R18/O18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T18" s="3">
+        <f>1-((S18-1)/4)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="U18" s="3">
+        <f>(P18+T18+Z18)/3</f>
+        <v>0.62111111111111106</v>
+      </c>
+      <c r="V18" s="9">
+        <f>COUNTIFS(D18:D1016,M18,E18:E1016,"1")/O18</f>
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,E18:E1016,"2")/O18</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,E18:E1016,"3")/O18</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="12">
+        <f>SUMIFS(E18:E1016,D18:D1016,M18)/O18</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>1-((Y18-1)/2)</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="9">
+        <f>COUNTIFS(D18:D1016,M18,G18:G1016,"1")/O18</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,G18:G1016,"2")/O18</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,G18:G1016,"3")/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AD18" s="9">
+        <f>(COUNTIFS(D19:D1016,M18,H19:H1016,"1")+COUNTIFS(D19:D1016,M18,H19:H1016,"1,2"))/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>(COUNTIFS(D19:D1016,M18,H19:H1016,"2")+COUNTIFS(D19:D1016,M18,H19:H1016,"1,2"))/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AF18" s="9">
+        <f>(COUNTIFS(D19:D1016,M18,I19:I1016,"1")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2,3"))/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>(COUNTIFS(D19:D1016,M18,I19:I1016,"2")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2")+COUNTIFS(D19:D1016,M18,I19:I1016,"2,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2,3"))/O18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH18" s="3">
+        <f>(COUNTIFS(D19:D1016,M18,I19:I1016,"3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"2,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2,3"))/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AI18" s="9">
+        <f>(COUNTIFS(D19:D1016,M18,J19:J1016,"1")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2,3"))/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f>(COUNTIFS(D19:D1016,M18,J19:J1016,"2")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2")+COUNTIFS(D19:D1016,M18,J19:J1016,"2,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2,3"))/O18</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.51</v>
-      </c>
-      <c r="U18" s="9">
-        <f t="shared" si="8"/>
+      <c r="AK18" s="3">
+        <f>(COUNTIFS(D19:D1016,M18,J19:J1016,"3+X3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"2,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2,3"))/O18</f>
+        <v>1</v>
+      </c>
+      <c r="AL18" s="9">
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"1")/O18</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="V18" s="3">
-        <f t="shared" si="9"/>
+      <c r="AM18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"2")/O18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W18" s="3">
-        <f t="shared" si="10"/>
+      <c r="AN18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"3")/O18</f>
         <v>0</v>
       </c>
-      <c r="X18" s="12">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Z18" s="9">
-        <f t="shared" si="11"/>
+      <c r="AO18" s="3">
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"4")/O18</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD18" s="3">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AE18" s="9">
-        <f t="shared" si="16"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AF18" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AG18" s="3">
-        <f t="shared" si="18"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AH18" s="9">
-        <f t="shared" si="19"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AI18" s="3">
-        <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AJ18" s="3">
-        <f t="shared" si="21"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AK18" s="9">
-        <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AL18" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="3">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -6220,118 +7367,121 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="26"/>
-        <v>0.02</v>
-      </c>
-      <c r="P19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="1">
+        <f>COUNTIF(D20:D1018,M19)</f>
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
+        <f>O19/$M$32</f>
+        <v>0.03</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <f>IF(P19&gt;0.7,"A",IF(P19&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
       <c r="R19" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f>SUMIFS(F20:F1018,D20:D1018,M19)</f>
+        <v>7</v>
+      </c>
+      <c r="S19" s="1">
+        <f>R19/O19</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.34</v>
-      </c>
-      <c r="U19" s="9">
-        <f t="shared" si="8"/>
+        <f>1-((S19-1)/4)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U19" s="3">
+        <f>(P19+T19+Z19)/3</f>
+        <v>0.51</v>
+      </c>
+      <c r="V19" s="9">
+        <f>COUNTIFS(D19:D1017,M19,E19:E1017,"1")/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W19" s="3">
+        <f>COUNTIFS(D19:D1017,M19,E19:E1017,"2")/O19</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X19" s="3">
+        <f>COUNTIFS(D19:D1017,M19,E19:E1017,"3")/O19</f>
         <v>0</v>
       </c>
-      <c r="V19" s="3">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="X19" s="12">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="Z19" s="9">
-        <f t="shared" si="11"/>
+      <c r="Y19" s="12">
+        <f>SUMIFS(E19:E1017,D19:D1017,M19)/O19</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>1-((Y19-1)/2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA19" s="9">
+        <f>COUNTIFS(D19:D1017,M19,G19:G1017,"1")/O19</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
       <c r="AB19" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D19:D1017,M19,G19:G1017,"2")/O19</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD19" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="9">
-        <f t="shared" si="16"/>
+      <c r="AC19" s="3">
+        <f>COUNTIFS(D19:D1017,M19,G19:G1017,"3")/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD19" s="9">
+        <f>(COUNTIFS(D20:D1017,M19,H20:H1017,"1")+COUNTIFS(D20:D1017,M19,H20:H1017,"1,2"))/O19</f>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>(COUNTIFS(D20:D1017,M19,H20:H1017,"2")+COUNTIFS(D20:D1017,M19,H20:H1017,"1,2"))/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF19" s="9">
+        <f>(COUNTIFS(D20:D1017,M19,I20:I1017,"1")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2,3"))/O19</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>(COUNTIFS(D20:D1017,M19,I20:I1017,"2")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2")+COUNTIFS(D20:D1017,M19,I20:I1017,"2,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2,3"))/O19</f>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>(COUNTIFS(D20:D1017,M19,I20:I1017,"3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"2,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2,3"))/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI19" s="9">
+        <f>(COUNTIFS(D20:D1017,M19,J20:J1017,"1")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2,3"))/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f>(COUNTIFS(D20:D1017,M19,J20:J1017,"2")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2")+COUNTIFS(D20:D1017,M19,J20:J1017,"2,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2,3"))/O19</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK19" s="3">
+        <f>(COUNTIFS(D20:D1017,M19,J20:J1017,"3+X3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"2,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2,3"))/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AL19" s="9">
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"1")/O19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM19" s="3">
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"2")/O19</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AG19" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AH19" s="9">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI19" s="3">
-        <f t="shared" si="20"/>
+      <c r="AN19" s="3">
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"3")/O19</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="3">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK19" s="9">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL19" s="3">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
-      </c>
-      <c r="AM19" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN19" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="3">
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"4")/O19</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -6366,118 +7516,121 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="1">
+        <f>COUNTIF(D21:D1019,M20)</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
+        <f>O20/$M$32</f>
         <v>0.02</v>
       </c>
-      <c r="P20" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q20" s="3" t="str">
+        <f>IF(P20&gt;0.7,"A",IF(P20&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
       <c r="R20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIFS(F21:F1019,D21:D1019,M20)</f>
+        <v>4</v>
+      </c>
+      <c r="S20" s="1">
+        <f>R20/O20</f>
+        <v>2</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.67333333333333334</v>
-      </c>
-      <c r="U20" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="9"/>
+        <f>1-((S20-1)/4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U20" s="3">
+        <f>(P20+T20+Z20)/3</f>
+        <v>0.34</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIFS(D20:D1018,M20,E20:E1018,"1")/O20</f>
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D20:D1018,M20,E20:E1018,"2")/O20</f>
+        <v>0.5</v>
+      </c>
+      <c r="X20" s="3">
+        <f>COUNTIFS(D20:D1018,M20,E20:E1018,"3")/O20</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="12">
+        <f>SUMIFS(E20:E1018,D20:D1018,M20)/O20</f>
+        <v>2.5</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>1-((Y20-1)/2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AA20" s="9">
+        <f>COUNTIFS(D20:D1018,M20,G20:G1018,"1")/O20</f>
         <v>0</v>
       </c>
-      <c r="X20" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z20" s="9">
-        <f t="shared" si="11"/>
+      <c r="AB20" s="3">
+        <f>COUNTIFS(D20:D1018,M20,G20:G1018,"2")/O20</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC20" s="3">
+        <f>COUNTIFS(D20:D1018,M20,G20:G1018,"3")/O20</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="3">
-        <f t="shared" si="12"/>
+      <c r="AD20" s="9">
+        <f>(COUNTIFS(D21:D1018,M20,H21:H1018,"1")+COUNTIFS(D21:D1018,M20,H21:H1018,"1,2"))/O20</f>
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <f>(COUNTIFS(D21:D1018,M20,H21:H1018,"2")+COUNTIFS(D21:D1018,M20,H21:H1018,"1,2"))/O20</f>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="9">
+        <f>(COUNTIFS(D21:D1018,M20,I21:I1018,"1")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2,3"))/O20</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="14"/>
+      <c r="AG20" s="3">
+        <f>(COUNTIFS(D21:D1018,M20,I21:I1018,"2")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2")+COUNTIFS(D21:D1018,M20,I21:I1018,"2,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2,3"))/O20</f>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>(COUNTIFS(D21:D1018,M20,I21:I1018,"3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"2,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2,3"))/O20</f>
+        <v>1</v>
+      </c>
+      <c r="AI20" s="9">
+        <f>(COUNTIFS(D21:D1018,M20,J21:J1018,"1")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2,3"))/O20</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f>(COUNTIFS(D21:D1018,M20,J21:J1018,"2")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2")+COUNTIFS(D21:D1018,M20,J21:J1018,"2,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2,3"))/O20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="9">
-        <f t="shared" si="16"/>
+      <c r="AK20" s="3">
+        <f>(COUNTIFS(D21:D1018,M20,J21:J1018,"3+X3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"2,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2,3"))/O20</f>
         <v>0.5</v>
       </c>
-      <c r="AF20" s="3">
-        <f t="shared" si="17"/>
+      <c r="AL20" s="9">
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"1")/O20</f>
+        <v>0.5</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"2")/O20</f>
+        <v>0.5</v>
+      </c>
+      <c r="AN20" s="3">
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"3")/O20</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="3">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="AH20" s="9">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI20" s="3">
-        <f t="shared" si="20"/>
+      <c r="AO20" s="3">
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"4")/O20</f>
         <v>0</v>
       </c>
-      <c r="AJ20" s="3">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK20" s="9">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AL20" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -6512,118 +7665,121 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="26"/>
-        <v>0.04</v>
-      </c>
-      <c r="P21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="1">
+        <f>COUNTIF(D22:D1020,M21)</f>
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <f>O21/$M$32</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <f>IF(P21&gt;0.7,"A",IF(P21&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
       <c r="R21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+        <f>SUMIFS(F22:F1020,D22:D1020,M21)</f>
+        <v>2</v>
+      </c>
+      <c r="S21" s="1">
+        <f>R21/O21</f>
+        <v>1</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="U21" s="9">
-        <f t="shared" si="8"/>
+        <f>1-((S21-1)/4)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
+        <f>(P21+T21+Z21)/3</f>
+        <v>0.67333333333333334</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIFS(D21:D1019,M21,E21:E1019,"1")/O21</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <f>COUNTIFS(D21:D1019,M21,E21:E1019,"2")/O21</f>
         <v>0</v>
       </c>
-      <c r="V21" s="3">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="X21" s="12">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-      <c r="Y21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="11"/>
+      <c r="X21" s="3">
+        <f>COUNTIFS(D21:D1019,M21,E21:E1019,"3")/O21</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="3">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
+      <c r="Y21" s="12">
+        <f>SUMIFS(E21:E1019,D21:D1019,M21)/O21</f>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>1-((Y21-1)/2)</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="9">
+        <f>COUNTIFS(D21:D1019,M21,G21:G1019,"1")/O21</f>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD21" s="3">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS(D21:D1019,M21,G21:G1019,"2")/O21</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>COUNTIFS(D21:D1019,M21,G21:G1019,"3")/O21</f>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="9">
+        <f>(COUNTIFS(D22:D1019,M21,H22:H1019,"1")+COUNTIFS(D22:D1019,M21,H22:H1019,"1,2"))/O21</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>(COUNTIFS(D22:D1019,M21,H22:H1019,"2")+COUNTIFS(D22:D1019,M21,H22:H1019,"1,2"))/O21</f>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="9">
+        <f>(COUNTIFS(D22:D1019,M21,I22:I1019,"1")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2,3"))/O21</f>
         <v>0.5</v>
       </c>
-      <c r="AE21" s="9">
-        <f t="shared" si="16"/>
+      <c r="AG21" s="3">
+        <f>(COUNTIFS(D22:D1019,M21,I22:I1019,"2")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2")+COUNTIFS(D22:D1019,M21,I22:I1019,"2,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2,3"))/O21</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AG21" s="3">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
-      <c r="AH21" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AI21" s="3">
-        <f t="shared" si="20"/>
+      <c r="AH21" s="3">
+        <f>(COUNTIFS(D22:D1019,M21,I22:I1019,"3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"2,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2,3"))/O21</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI21" s="9">
+        <f>(COUNTIFS(D22:D1019,M21,J22:J1019,"1")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2,3"))/O21</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f>(COUNTIFS(D22:D1019,M21,J22:J1019,"2")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2")+COUNTIFS(D22:D1019,M21,J22:J1019,"2,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2,3"))/O21</f>
         <v>0</v>
       </c>
-      <c r="AJ21" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK21" s="3">
+        <f>(COUNTIFS(D22:D1019,M21,J22:J1019,"3+X3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"2,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2,3"))/O21</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL21" s="9">
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"1")/O21</f>
+        <v>1</v>
+      </c>
+      <c r="AM21" s="3">
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"2")/O21</f>
         <v>0</v>
       </c>
-      <c r="AK21" s="9">
-        <f t="shared" si="22"/>
-        <v>0.25</v>
-      </c>
-      <c r="AL21" s="3">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="AM21" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN21" s="3">
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"3")/O21</f>
         <v>0</v>
       </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO21" s="3">
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"4")/O21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -6658,118 +7814,121 @@
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="1">
+        <f>COUNTIF(D23:D1021,M22)</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <f>O22/$M$32</f>
         <v>0.01</v>
       </c>
-      <c r="P22" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q22" s="3" t="str">
+        <f>IF(P22&gt;0.7,"A",IF(P22&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="7"/>
+      <c r="R22" s="1">
+        <f>SUMIFS(F23:F1021,D23:D1021,M22)</f>
         <v>5</v>
       </c>
-      <c r="R22" s="1">
-        <f t="shared" si="0"/>
+      <c r="S22" s="1">
+        <f>R22/O22</f>
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <f t="shared" si="1"/>
+      <c r="T22" s="3">
+        <f>1-((S22-1)/4)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="3">
-        <f t="shared" si="2"/>
+      <c r="U22" s="3">
+        <f>(P22+T22+Z22)/3</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="U22" s="9">
-        <f t="shared" si="8"/>
+      <c r="V22" s="9">
+        <f>COUNTIFS(D22:D1020,M22,E22:E1020,"1")/O22</f>
         <v>0</v>
       </c>
-      <c r="V22" s="3">
-        <f t="shared" si="9"/>
+      <c r="W22" s="3">
+        <f>COUNTIFS(D22:D1020,M22,E22:E1020,"2")/O22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="X22" s="12">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="4"/>
+      <c r="X22" s="3">
+        <f>COUNTIFS(D22:D1020,M22,E22:E1020,"3")/O22</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>SUMIFS(E22:E1020,D22:D1020,M22)/O22</f>
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>1-((Y22-1)/2)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA22" s="9">
+        <f>COUNTIFS(D22:D1020,M22,G22:G1020,"1")/O22</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
       <c r="AB22" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D22:D1020,M22,G22:G1020,"2")/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>COUNTIFS(D22:D1020,M22,G22:G1020,"3")/O22</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="9">
-        <f t="shared" si="16"/>
+      <c r="AD22" s="9">
+        <f>(COUNTIFS(D23:D1020,M22,H23:H1020,"1")+COUNTIFS(D23:D1020,M22,H23:H1020,"1,2"))/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>(COUNTIFS(D23:D1020,M22,H23:H1020,"2")+COUNTIFS(D23:D1020,M22,H23:H1020,"1,2"))/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="9">
+        <f>(COUNTIFS(D23:D1020,M22,I23:I1020,"1")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2,3"))/O22</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
       <c r="AG22" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AH22" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AI22" s="3">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D23:D1020,M22,I23:I1020,"2")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2")+COUNTIFS(D23:D1020,M22,I23:I1020,"2,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2,3"))/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>(COUNTIFS(D23:D1020,M22,I23:I1020,"3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"2,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2,3"))/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AI22" s="9">
+        <f>(COUNTIFS(D23:D1020,M22,J23:J1020,"1")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2,3"))/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f>(COUNTIFS(D23:D1020,M22,J23:J1020,"2")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2")+COUNTIFS(D23:D1020,M22,J23:J1020,"2,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2,3"))/O22</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK22" s="3">
+        <f>(COUNTIFS(D23:D1020,M22,J23:J1020,"3+X3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"2,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2,3"))/O22</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL22" s="9">
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"1")/O22</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="3">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
       <c r="AM22" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"2")/O22</f>
+        <v>1</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"3")/O22</f>
         <v>0</v>
       </c>
-      <c r="AN22" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO22" s="3">
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"4")/O22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -6804,118 +7963,121 @@
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="1">
+        <f>COUNTIF(D24:D1022,M23)</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <f>O23/$M$32</f>
         <v>0.01</v>
       </c>
-      <c r="P23" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q23" s="3" t="str">
+        <f>IF(P23&gt;0.7,"A",IF(P23&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
       <c r="R23" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(F24:F1022,D24:D1022,M23)</f>
+        <v>2</v>
+      </c>
+      <c r="S23" s="1">
+        <f>R23/O23</f>
+        <v>2</v>
+      </c>
+      <c r="T23" s="3">
+        <f>1-((S23-1)/4)</f>
         <v>0.75</v>
       </c>
-      <c r="T23" s="3">
-        <f t="shared" si="2"/>
+      <c r="U23" s="3">
+        <f>(P23+T23+Z23)/3</f>
         <v>0.42</v>
       </c>
-      <c r="U23" s="9">
-        <f t="shared" si="8"/>
+      <c r="V23" s="9">
+        <f>COUNTIFS(D23:D1021,M23,E23:E1021,"1")/O23</f>
         <v>0</v>
       </c>
-      <c r="V23" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="W23" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D23:D1021,M23,E23:E1021,"2")/O23</f>
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <f>COUNTIFS(D23:D1021,M23,E23:E1021,"3")/O23</f>
         <v>0</v>
       </c>
-      <c r="X23" s="12">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="4"/>
+      <c r="Y23" s="12">
+        <f>SUMIFS(E23:E1021,D23:D1021,M23)/O23</f>
+        <v>2</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>1-((Y23-1)/2)</f>
         <v>0.5</v>
       </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA23" s="3">
-        <f t="shared" si="12"/>
+      <c r="AA23" s="9">
+        <f>COUNTIFS(D23:D1021,M23,G23:G1021,"1")/O23</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <f>COUNTIFS(D23:D1021,M23,G23:G1021,"2")/O23</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="3">
-        <f t="shared" si="13"/>
+      <c r="AC23" s="3">
+        <f>COUNTIFS(D23:D1021,M23,G23:G1021,"3")/O23</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD23" s="3">
-        <f t="shared" si="15"/>
+      <c r="AD23" s="9">
+        <f>(COUNTIFS(D24:D1021,M23,H24:H1021,"1")+COUNTIFS(D24:D1021,M23,H24:H1021,"1,2"))/O23</f>
+        <v>1</v>
+      </c>
+      <c r="AE23" s="3">
+        <f>(COUNTIFS(D24:D1021,M23,H24:H1021,"2")+COUNTIFS(D24:D1021,M23,H24:H1021,"1,2"))/O23</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF23" s="9">
+        <f>(COUNTIFS(D24:D1021,M23,I24:I1021,"1")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
       <c r="AG23" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D24:D1021,M23,I24:I1021,"2")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2")+COUNTIFS(D24:D1021,M23,I24:I1021,"2,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2,3"))/O23</f>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>(COUNTIFS(D24:D1021,M23,I24:I1021,"3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"2,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AI23" s="3">
-        <f t="shared" si="20"/>
+      <c r="AI23" s="9">
+        <f>(COUNTIFS(D24:D1021,M23,J24:J1021,"1")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2,3"))/O23</f>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f>(COUNTIFS(D24:D1021,M23,J24:J1021,"2")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2")+COUNTIFS(D24:D1021,M23,J24:J1021,"2,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK23" s="3">
+        <f>(COUNTIFS(D24:D1021,M23,J24:J1021,"3+X3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"2,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
-      <c r="AK23" s="9">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" si="23"/>
+      <c r="AL23" s="9">
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"1")/O23</f>
+        <v>1</v>
+      </c>
+      <c r="AM23" s="3">
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"2")/O23</f>
         <v>0</v>
       </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN23" s="3">
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"3")/O23</f>
         <v>0</v>
       </c>
-      <c r="AN23" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO23" s="3">
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"4")/O23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -6950,118 +8112,121 @@
         <v>4</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="26"/>
+        <v>37</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="1">
+        <f>COUNTIF(D25:D1023,M24)</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <f>O24/$M$32</f>
         <v>0.01</v>
       </c>
-      <c r="P24" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q24" s="3" t="str">
+        <f>IF(P24&gt;0.7,"A",IF(P24&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
       <c r="R24" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(F25:F1023,D25:D1023,M24)</f>
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <f>R24/O24</f>
+        <v>2</v>
+      </c>
+      <c r="T24" s="3">
+        <f>1-((S24-1)/4)</f>
         <v>0.75</v>
       </c>
-      <c r="T24" s="3">
-        <f t="shared" si="2"/>
+      <c r="U24" s="3">
+        <f>(P24+T24+Z24)/3</f>
         <v>0.42</v>
       </c>
-      <c r="U24" s="9">
-        <f t="shared" si="8"/>
+      <c r="V24" s="9">
+        <f>COUNTIFS(D24:D1022,M24,E24:E1022,"1")/O24</f>
         <v>0</v>
       </c>
-      <c r="V24" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="W24" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D24:D1022,M24,E24:E1022,"2")/O24</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <f>COUNTIFS(D24:D1022,M24,E24:E1022,"3")/O24</f>
         <v>0</v>
       </c>
-      <c r="X24" s="12">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y24" s="3">
-        <f t="shared" si="4"/>
+      <c r="Y24" s="12">
+        <f>SUMIFS(E24:E1022,D24:D1022,M24)/O24</f>
+        <v>2</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>1-((Y24-1)/2)</f>
         <v>0.5</v>
       </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="11"/>
+      <c r="AA24" s="9">
+        <f>COUNTIFS(D24:D1022,M24,G24:G1022,"1")/O24</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB24" s="3">
+        <f>COUNTIFS(D24:D1022,M24,G24:G1022,"2")/O24</f>
         <v>0</v>
       </c>
-      <c r="AB24" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD24" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE24" s="9">
-        <f t="shared" si="16"/>
+      <c r="AC24" s="3">
+        <f>COUNTIFS(D24:D1022,M24,G24:G1022,"3")/O24</f>
+        <v>1</v>
+      </c>
+      <c r="AD24" s="9">
+        <f>(COUNTIFS(D25:D1022,M24,H25:H1022,"1")+COUNTIFS(D25:D1022,M24,H25:H1022,"1,2"))/O24</f>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <f>(COUNTIFS(D25:D1022,M24,H25:H1022,"2")+COUNTIFS(D25:D1022,M24,H25:H1022,"1,2"))/O24</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="9">
+        <f>(COUNTIFS(D25:D1022,M24,I25:I1022,"1")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
       <c r="AG24" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AH24" s="9">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D25:D1022,M24,I25:I1022,"2")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2")+COUNTIFS(D25:D1022,M24,I25:I1022,"2,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2,3"))/O24</f>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3">
+        <f>(COUNTIFS(D25:D1022,M24,I25:I1022,"3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"2,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2,3"))/O24</f>
+        <v>1</v>
+      </c>
+      <c r="AI24" s="9">
+        <f>(COUNTIFS(D25:D1022,M24,J25:J1022,"1")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
-      <c r="AI24" s="3">
-        <f t="shared" si="20"/>
+      <c r="AJ24" s="3">
+        <f>(COUNTIFS(D25:D1022,M24,J25:J1022,"2")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2")+COUNTIFS(D25:D1022,M24,J25:J1022,"2,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
-      <c r="AJ24" s="3">
-        <f t="shared" si="21"/>
+      <c r="AK24" s="3">
+        <f>(COUNTIFS(D25:D1022,M24,J25:J1022,"3+X3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"2,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
-      <c r="AK24" s="9">
-        <f t="shared" si="22"/>
+      <c r="AL24" s="9">
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"1")/O24</f>
         <v>0</v>
       </c>
-      <c r="AL24" s="3">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
       <c r="AM24" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"2")/O24</f>
+        <v>1</v>
+      </c>
+      <c r="AN24" s="3">
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"3")/O24</f>
         <v>0</v>
       </c>
-      <c r="AN24" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO24" s="3">
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"4")/O24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -7096,118 +8261,121 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="1">
+        <f>COUNTIF(D26:D1024,M25)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <f>O25/$M$32</f>
         <v>0.01</v>
       </c>
-      <c r="P25" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q25" s="3" t="str">
+        <f>IF(P25&gt;0.7,"A",IF(P25&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="R25" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(F26:F1024,D26:D1024,M25)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <f>R25/O25</f>
         <v>1</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S25-1)/4)</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <f>(P25+T25+Z25)/3</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="U25" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" si="9"/>
+      <c r="V25" s="9">
+        <f>COUNTIFS(D25:D1023,M25,E25:E1023,"1")/O25</f>
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,E25:E1023,"2")/O25</f>
         <v>0</v>
       </c>
-      <c r="W25" s="3">
-        <f t="shared" si="10"/>
+      <c r="X25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,E25:E1023,"3")/O25</f>
         <v>0</v>
       </c>
-      <c r="X25" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="11"/>
+      <c r="Y25" s="12">
+        <f>SUMIFS(E25:E1023,D25:D1023,M25)/O25</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <f>1-((Y25-1)/2)</f>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="9">
+        <f>COUNTIFS(D25:D1023,M25,G25:G1023,"1")/O25</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="3">
-        <f t="shared" si="12"/>
+      <c r="AB25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,G25:G1023,"2")/O25</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD25" s="3">
-        <f t="shared" si="15"/>
+      <c r="AC25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,G25:G1023,"3")/O25</f>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="9">
+        <f>(COUNTIFS(D26:D1023,M25,H26:H1023,"1")+COUNTIFS(D26:D1023,M25,H26:H1023,"1,2"))/O25</f>
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3">
+        <f>(COUNTIFS(D26:D1023,M25,H26:H1023,"2")+COUNTIFS(D26:D1023,M25,H26:H1023,"1,2"))/O25</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="9">
-        <f t="shared" si="16"/>
+      <c r="AF25" s="9">
+        <f>(COUNTIFS(D26:D1023,M25,I26:I1023,"1")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2,3"))/O25</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
       <c r="AG25" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D26:D1023,M25,I26:I1023,"2")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2")+COUNTIFS(D26:D1023,M25,I26:I1023,"2,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2,3"))/O25</f>
+        <v>1</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>(COUNTIFS(D26:D1023,M25,I26:I1023,"3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"2,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2,3"))/O25</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="9">
-        <f t="shared" si="19"/>
+      <c r="AI25" s="9">
+        <f>(COUNTIFS(D26:D1023,M25,J26:J1023,"1")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2,3"))/O25</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AK25" s="9">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AL25" s="3">
-        <f t="shared" si="23"/>
+        <f>(COUNTIFS(D26:D1023,M25,J26:J1023,"2")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2")+COUNTIFS(D26:D1023,M25,J26:J1023,"2,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2,3"))/O25</f>
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <f>(COUNTIFS(D26:D1023,M25,J26:J1023,"3+X3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"2,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2,3"))/O25</f>
+        <v>1</v>
+      </c>
+      <c r="AL25" s="9">
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"1")/O25</f>
+        <v>1</v>
+      </c>
+      <c r="AM25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"2")/O25</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="3">
-        <f t="shared" si="24"/>
+      <c r="AN25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"3")/O25</f>
         <v>0</v>
       </c>
-      <c r="AN25" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO25" s="3">
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"4")/O25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -7242,118 +8410,121 @@
         <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" ref="N26" si="27">COUNTIF(D27:D1025,M26)</f>
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" ref="O26" si="28">N26/$M$32</f>
+        <v>74</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O26" s="1">
+        <f>COUNTIF(D27:D1025,M26)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <f>O26/$M$32</f>
         <v>0.01</v>
       </c>
-      <c r="P26" s="3" t="str">
-        <f t="shared" ref="P26" si="29">IF(O26&gt;0.7,"A",IF(O26&gt;0.1,"B","C"))</f>
+      <c r="Q26" s="3" t="str">
+        <f>IF(P26&gt;0.7,"A",IF(P26&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" ref="Q26" si="30">SUMIFS(F27:F1025,D27:D1025,M26)</f>
-        <v>2</v>
-      </c>
       <c r="R26" s="1">
-        <f t="shared" ref="R26" si="31">Q26/N26</f>
-        <v>2</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" ref="S26" si="32">1-((R26-1)/4)</f>
+        <f>SUMIFS(F27:F1025,D27:D1025,M26)</f>
+        <v>2</v>
+      </c>
+      <c r="S26" s="1">
+        <f>R26/O26</f>
+        <v>2</v>
+      </c>
+      <c r="T26" s="3">
+        <f>1-((S26-1)/4)</f>
         <v>0.75</v>
       </c>
-      <c r="T26" s="3">
-        <f t="shared" ref="T26" si="33">(O26+S26+Y26)/3</f>
+      <c r="U26" s="3">
+        <f>(P26+T26+Z26)/3</f>
         <v>0.25333333333333335</v>
       </c>
-      <c r="U26" s="9">
-        <f t="shared" ref="U26" si="34">COUNTIFS(D26:D1024,M26,E26:E1024,"1")/N26</f>
+      <c r="V26" s="9">
+        <f>COUNTIFS(D26:D1024,M26,E26:E1024,"1")/O26</f>
         <v>0</v>
       </c>
-      <c r="V26" s="3">
-        <f t="shared" ref="V26" si="35">COUNTIFS(D26:D1024,M26,E26:E1024,"2")/N26</f>
+      <c r="W26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,E26:E1024,"2")/O26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="3">
-        <f t="shared" ref="W26" si="36">COUNTIFS(D26:D1024,M26,E26:E1024,"3")/N26</f>
-        <v>1</v>
-      </c>
-      <c r="X26" s="12">
-        <f t="shared" ref="X26" si="37">SUMIFS(E26:E1024,D26:D1024,M26)/N26</f>
-        <v>3</v>
-      </c>
-      <c r="Y26" s="3">
-        <f t="shared" ref="Y26" si="38">1-((X26-1)/2)</f>
+      <c r="X26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,E26:E1024,"3")/O26</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="12">
+        <f>SUMIFS(E26:E1024,D26:D1024,M26)/O26</f>
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3">
+        <f>1-((Y26-1)/2)</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="9">
-        <f t="shared" ref="Z26" si="39">COUNTIFS(D26:D1024,M26,G26:G1024,"1")/N26</f>
+      <c r="AA26" s="9">
+        <f>COUNTIFS(D26:D1024,M26,G26:G1024,"1")/O26</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="3">
-        <f t="shared" ref="AA26" si="40">COUNTIFS(D26:D1024,M26,G26:G1024,"2")/N26</f>
+      <c r="AB26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,G26:G1024,"2")/O26</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="3">
-        <f t="shared" ref="AB26" si="41">COUNTIFS(D26:D1024,M26,G26:G1024,"3")/N26</f>
-        <v>1</v>
-      </c>
-      <c r="AC26" s="9">
-        <f t="shared" ref="AC26" si="42">(COUNTIFS(D27:D1024,M26,H27:H1024,"1")+COUNTIFS(D27:D1024,M26,H27:H1024,"1,2"))/N26</f>
+      <c r="AC26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,G26:G1024,"3")/O26</f>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="9">
+        <f>(COUNTIFS(D27:D1024,M26,H27:H1024,"1")+COUNTIFS(D27:D1024,M26,H27:H1024,"1,2"))/O26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="3">
-        <f t="shared" ref="AD26" si="43">(COUNTIFS(D27:D1024,M26,H27:H1024,"2")+COUNTIFS(D27:D1024,M26,H27:H1024,"1,2"))/N26</f>
-        <v>1</v>
-      </c>
-      <c r="AE26" s="9">
-        <f t="shared" ref="AE26" si="44">(COUNTIFS(D27:D1024,M26,I27:I1024,"1")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/N26</f>
+      <c r="AE26" s="3">
+        <f>(COUNTIFS(D27:D1024,M26,H27:H1024,"2")+COUNTIFS(D27:D1024,M26,H27:H1024,"1,2"))/O26</f>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="9">
+        <f>(COUNTIFS(D27:D1024,M26,I27:I1024,"1")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="3">
-        <f t="shared" ref="AF26" si="45">(COUNTIFS(D27:D1024,M26,I27:I1024,"2")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2")+COUNTIFS(D27:D1024,M26,I27:I1024,"2,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/N26</f>
+      <c r="AG26" s="3">
+        <f>(COUNTIFS(D27:D1024,M26,I27:I1024,"2")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2")+COUNTIFS(D27:D1024,M26,I27:I1024,"2,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="3">
-        <f t="shared" ref="AG26" si="46">(COUNTIFS(D27:D1024,M26,I27:I1024,"3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"2,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/N26</f>
-        <v>1</v>
-      </c>
-      <c r="AH26" s="9">
-        <f t="shared" ref="AH26" si="47">(COUNTIFS(D27:D1024,M26,J27:J1024,"1")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/N26</f>
+      <c r="AH26" s="3">
+        <f>(COUNTIFS(D27:D1024,M26,I27:I1024,"3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"2,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/O26</f>
+        <v>1</v>
+      </c>
+      <c r="AI26" s="9">
+        <f>(COUNTIFS(D27:D1024,M26,J27:J1024,"1")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="3">
-        <f t="shared" ref="AI26" si="48">(COUNTIFS(D27:D1024,M26,J27:J1024,"2")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2")+COUNTIFS(D27:D1024,M26,J27:J1024,"2,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/N26</f>
+      <c r="AJ26" s="3">
+        <f>(COUNTIFS(D27:D1024,M26,J27:J1024,"2")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2")+COUNTIFS(D27:D1024,M26,J27:J1024,"2,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="3">
-        <f t="shared" ref="AJ26" si="49">(COUNTIFS(D27:D1024,M26,J27:J1024,"3+X3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"2,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/N26</f>
+      <c r="AK26" s="3">
+        <f>(COUNTIFS(D27:D1024,M26,J27:J1024,"3+X3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"2,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="9">
-        <f t="shared" ref="AK26" si="50">COUNTIFS(D26:D1024,M26,K26:K1024,"1")/N26</f>
-        <v>1</v>
-      </c>
-      <c r="AL26" s="3">
-        <f t="shared" ref="AL26" si="51">COUNTIFS(D26:D1024,M26,K26:K1024,"2")/N26</f>
+      <c r="AL26" s="9">
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"1")/O26</f>
+        <v>1</v>
+      </c>
+      <c r="AM26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"2")/O26</f>
         <v>0</v>
       </c>
-      <c r="AM26" s="3">
-        <f t="shared" ref="AM26" si="52">COUNTIFS(D26:D1024,M26,K26:K1024,"3")/N26</f>
+      <c r="AN26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"3")/O26</f>
         <v>0</v>
       </c>
-      <c r="AN26" s="3">
-        <f t="shared" si="25"/>
+      <c r="AO26" s="3">
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"4")/O26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -7387,14 +8558,14 @@
       <c r="K27" s="1">
         <v>1</v>
       </c>
-      <c r="U27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AK27" s="10"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="V27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AL27" s="10"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -7429,31 +8600,35 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AK28" s="17">
+        <v>91</v>
+      </c>
+      <c r="O28" s="1">
+        <f>SUM(O3:O26)</f>
+        <v>534</v>
+      </c>
+      <c r="V28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AL28" s="17">
         <f>COUNTIF(K2:K1000,1)</f>
         <v>293</v>
       </c>
-      <c r="AL28" s="17">
+      <c r="AM28" s="17">
         <f>COUNTIF(K2:K1000,2)</f>
         <v>124</v>
       </c>
-      <c r="AM28" s="17">
+      <c r="AN28" s="17">
         <f>COUNTIF(K2:K1000,3)</f>
         <v>23</v>
       </c>
-      <c r="AN28" s="17">
+      <c r="AO28" s="17">
         <f>COUNTIF(K2:K1000,4)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -7487,29 +8662,32 @@
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="U29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AK29" s="9">
-        <f>AK28/535</f>
+      <c r="M29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AL29" s="9">
+        <f>AL28/535</f>
         <v>0.54766355140186918</v>
       </c>
-      <c r="AL29" s="9">
-        <f t="shared" ref="AL29:AN29" si="53">AL28/535</f>
+      <c r="AM29" s="9">
+        <f t="shared" ref="AM29:AO29" si="1">AM28/535</f>
         <v>0.23177570093457944</v>
       </c>
-      <c r="AM29" s="9">
-        <f t="shared" si="53"/>
+      <c r="AN29" s="9">
+        <f t="shared" si="1"/>
         <v>4.2990654205607479E-2</v>
       </c>
-      <c r="AN29" s="9">
-        <f t="shared" si="53"/>
+      <c r="AO29" s="9">
+        <f t="shared" si="1"/>
         <v>0.17570093457943925</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -7544,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -7578,20 +8756,41 @@
       <c r="K31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="M31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -7625,21 +8824,50 @@
       <c r="K32" s="1">
         <v>1</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="20">
         <f>MAX(A2:A1001)</f>
         <v>100</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="20">
         <v>60</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="20">
         <v>20</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="20">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="T32" s="18">
+        <f>SUMIFS(O3:O26,N3:N26,T31)</f>
+        <v>102</v>
+      </c>
+      <c r="U32" s="18">
+        <f>SUMIFS(O3:O26,N3:N26,U31)</f>
+        <v>175</v>
+      </c>
+      <c r="V32" s="18">
+        <f>SUMIFS(O3:O26,N3:N26,V31)</f>
+        <v>127</v>
+      </c>
+      <c r="W32" s="18">
+        <f>SUMIFS(O3:O26,N3:N26,W31)</f>
+        <v>67</v>
+      </c>
+      <c r="X32" s="18">
+        <f>SUMIFS(O3:O26,N3:N26,X31)</f>
+        <v>33</v>
+      </c>
+      <c r="Y32" s="18">
+        <f>SUMIFS(O3:O26,N3:N26,Y31)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -7673,8 +8901,35 @@
       <c r="K33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T33" s="19">
+        <f>T32/O28</f>
+        <v>0.19101123595505617</v>
+      </c>
+      <c r="U33" s="19">
+        <f>U32/O28</f>
+        <v>0.32771535580524347</v>
+      </c>
+      <c r="V33" s="19">
+        <f>V32/O28</f>
+        <v>0.23782771535580524</v>
+      </c>
+      <c r="W33" s="19">
+        <f>W32/O28</f>
+        <v>0.12546816479400749</v>
+      </c>
+      <c r="X33" s="19">
+        <f>X32/O28</f>
+        <v>6.1797752808988762E-2</v>
+      </c>
+      <c r="Y33" s="19">
+        <f>Y32/O28</f>
+        <v>5.6179775280898875E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -7709,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -7744,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -7779,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -7814,7 +9069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7849,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>11</v>
       </c>
@@ -7884,7 +9139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -7919,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -7954,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -7989,31 +9244,31 @@
         <v>1</v>
       </c>
       <c r="M42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T42" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>13</v>
       </c>
@@ -8076,7 +9331,7 @@
         <v>3.8076923076923075</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -8127,19 +9382,19 @@
         <v>2</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" ref="S44:S51" si="54">SUMIFS(N44:N1002,O44:O1002,R44)</f>
+        <f t="shared" ref="S44:S51" si="2">SUMIFS(N44:N1002,O44:O1002,R44)</f>
         <v>64</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" ref="T44:T51" si="55">COUNTIF(O44:O1002,R44)</f>
+        <f t="shared" ref="T44:T51" si="3">COUNTIF(O44:O1002,R44)</f>
         <v>14</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" ref="U44:U49" si="56">S44/T44</f>
+        <f t="shared" ref="U44:U49" si="4">S44/T44</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13</v>
       </c>
@@ -8190,19 +9445,19 @@
         <v>3</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="4"/>
         <v>6.117647058823529</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -8240,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ref="N46:N50" si="57">COUNTIF(A4:A1001,M46)</f>
+        <f t="shared" ref="N46:N50" si="5">COUNTIF(A4:A1001,M46)</f>
         <v>4</v>
       </c>
       <c r="O46" s="1">
@@ -8253,19 +9508,19 @@
         <v>4</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="4"/>
         <v>5.6363636363636367</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
@@ -8303,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O47" s="1">
@@ -8316,19 +9571,19 @@
         <v>5</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="4"/>
         <v>7.4666666666666668</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -8366,7 +9621,7 @@
         <v>6</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O48" s="1">
@@ -8379,15 +9634,15 @@
         <v>6</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8429,7 +9684,7 @@
         <v>7</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O49" s="1">
@@ -8442,15 +9697,15 @@
         <v>7</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8492,7 +9747,7 @@
         <v>8</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O50" s="1">
@@ -8505,11 +9760,11 @@
         <v>8</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U50" s="1">
@@ -8567,11 +9822,11 @@
         <v>9</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U51" s="1">
@@ -8616,7 +9871,7 @@
         <v>10</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" ref="N52:N115" si="58">COUNTIF(A10:A1007,M52)</f>
+        <f t="shared" ref="N52:N115" si="6">COUNTIF(A10:A1007,M52)</f>
         <v>1</v>
       </c>
       <c r="O52" s="1">
@@ -8664,7 +9919,7 @@
         <v>11</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O53" s="1">
@@ -8712,7 +9967,7 @@
         <v>12</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O54" s="1">
@@ -8760,7 +10015,7 @@
         <v>13</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O55" s="1">
@@ -8808,7 +10063,7 @@
         <v>14</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O56" s="1">
@@ -8856,7 +10111,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O57" s="1">
@@ -8904,7 +10159,7 @@
         <v>16</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O58" s="1">
@@ -8952,7 +10207,7 @@
         <v>17</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O59" s="1">
@@ -9000,7 +10255,7 @@
         <v>18</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O60" s="1">
@@ -9049,7 +10304,7 @@
         <v>19</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O61" s="1">
@@ -9097,7 +10352,7 @@
         <v>20</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O62" s="1">
@@ -9145,7 +10400,7 @@
         <v>21</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O63" s="1">
@@ -9193,7 +10448,7 @@
         <v>22</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O64" s="1">
@@ -9241,7 +10496,7 @@
         <v>23</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O65" s="1">
@@ -9289,7 +10544,7 @@
         <v>24</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O66" s="1">
@@ -9337,7 +10592,7 @@
         <v>25</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O67" s="1">
@@ -9385,7 +10640,7 @@
         <v>26</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O68" s="1">
@@ -9433,7 +10688,7 @@
         <v>27</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O69" s="1">
@@ -9481,7 +10736,7 @@
         <v>28</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O70" s="1">
@@ -9529,7 +10784,7 @@
         <v>29</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O71" s="1">
@@ -9577,7 +10832,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
@@ -9625,7 +10880,7 @@
         <v>31</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O73" s="1">
@@ -9673,7 +10928,7 @@
         <v>32</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O74" s="1">
@@ -9721,7 +10976,7 @@
         <v>33</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O75" s="1">
@@ -9769,7 +11024,7 @@
         <v>34</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O76" s="1">
@@ -9817,7 +11072,7 @@
         <v>35</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O77" s="1">
@@ -9865,7 +11120,7 @@
         <v>36</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O78" s="1">
@@ -9913,7 +11168,7 @@
         <v>37</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O79" s="1">
@@ -9961,7 +11216,7 @@
         <v>38</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O80" s="1">
@@ -10009,7 +11264,7 @@
         <v>39</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O81" s="1">
@@ -10057,7 +11312,7 @@
         <v>40</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O82" s="1">
@@ -10105,7 +11360,7 @@
         <v>41</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O83" s="1">
@@ -10153,7 +11408,7 @@
         <v>42</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O84" s="1">
@@ -10201,7 +11456,7 @@
         <v>43</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O85" s="1">
@@ -10249,7 +11504,7 @@
         <v>44</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O86" s="1">
@@ -10297,7 +11552,7 @@
         <v>45</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O87" s="1">
@@ -10345,7 +11600,7 @@
         <v>46</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O88" s="1">
@@ -10393,7 +11648,7 @@
         <v>47</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O89" s="1">
@@ -10441,7 +11696,7 @@
         <v>48</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O90" s="1">
@@ -10489,7 +11744,7 @@
         <v>49</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="O91" s="1">
@@ -10537,7 +11792,7 @@
         <v>50</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O92" s="1">
@@ -10585,7 +11840,7 @@
         <v>51</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O93" s="1">
@@ -10633,7 +11888,7 @@
         <v>52</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O94" s="1">
@@ -10681,7 +11936,7 @@
         <v>53</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O95" s="1">
@@ -10729,7 +11984,7 @@
         <v>54</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O96" s="1">
@@ -10777,7 +12032,7 @@
         <v>55</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O97" s="1">
@@ -10825,7 +12080,7 @@
         <v>56</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O98" s="1">
@@ -10873,7 +12128,7 @@
         <v>57</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="O99" s="1">
@@ -10921,7 +12176,7 @@
         <v>58</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O100" s="1">
@@ -10969,7 +12224,7 @@
         <v>59</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="O101" s="1">
@@ -11017,7 +12272,7 @@
         <v>60</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O102" s="1">
@@ -11065,7 +12320,7 @@
         <v>61</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O103" s="1">
@@ -11113,7 +12368,7 @@
         <v>62</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O104" s="1">
@@ -11161,7 +12416,7 @@
         <v>63</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O105" s="1">
@@ -11209,7 +12464,7 @@
         <v>64</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O106" s="1">
@@ -11257,7 +12512,7 @@
         <v>65</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O107" s="1">
@@ -11305,7 +12560,7 @@
         <v>66</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="O108" s="1">
@@ -11353,7 +12608,7 @@
         <v>67</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O109" s="1">
@@ -11401,7 +12656,7 @@
         <v>68</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O110" s="1">
@@ -11449,7 +12704,7 @@
         <v>69</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="O111" s="1">
@@ -11497,7 +12752,7 @@
         <v>70</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O112" s="1">
@@ -11545,7 +12800,7 @@
         <v>71</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O113" s="1">
@@ -11593,7 +12848,7 @@
         <v>72</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O114" s="1">
@@ -11641,7 +12896,7 @@
         <v>73</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O115" s="1">
@@ -11689,7 +12944,7 @@
         <v>74</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" ref="N116:N142" si="59">COUNTIF(A74:A1071,M116)</f>
+        <f t="shared" ref="N116:N142" si="7">COUNTIF(A74:A1071,M116)</f>
         <v>7</v>
       </c>
       <c r="O116" s="1">
@@ -11737,7 +12992,7 @@
         <v>75</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O117" s="1">
@@ -11785,7 +13040,7 @@
         <v>76</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="O118" s="1">
@@ -11833,7 +13088,7 @@
         <v>77</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O119" s="1">
@@ -11881,7 +13136,7 @@
         <v>78</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O120" s="1">
@@ -11929,7 +13184,7 @@
         <v>79</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="O121" s="1">
@@ -11977,7 +13232,7 @@
         <v>80</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="O122" s="1">
@@ -12025,14 +13280,14 @@
         <v>81</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="O123" s="1">
         <v>4</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -12073,14 +13328,14 @@
         <v>82</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O124" s="1">
         <v>4</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -12121,14 +13376,14 @@
         <v>83</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O125" s="1">
         <v>4</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -12169,14 +13424,14 @@
         <v>84</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O126" s="1">
         <v>6</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -12217,14 +13472,14 @@
         <v>85</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O127" s="1">
         <v>4</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -12265,14 +13520,14 @@
         <v>86</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O128" s="1">
         <v>4</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -12313,14 +13568,14 @@
         <v>87</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O129" s="1">
         <v>4</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -12361,14 +13616,14 @@
         <v>88</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O130" s="1">
         <v>4</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -12409,14 +13664,14 @@
         <v>89</v>
       </c>
       <c r="N131" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="O131" s="1">
         <v>4</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -12457,14 +13712,14 @@
         <v>90</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="O132" s="1">
         <v>4</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -12505,14 +13760,14 @@
         <v>91</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="O133" s="1">
         <v>4</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -12553,14 +13808,14 @@
         <v>92</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="O134" s="1">
         <v>6</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -12601,14 +13856,14 @@
         <v>93</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O135" s="1">
         <v>6</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -12649,14 +13904,14 @@
         <v>94</v>
       </c>
       <c r="N136" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O136" s="1">
         <v>6</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -12697,14 +13952,14 @@
         <v>95</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O137" s="1">
         <v>6</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -12745,14 +14000,14 @@
         <v>96</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O138" s="1">
         <v>4</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -12793,14 +14048,14 @@
         <v>97</v>
       </c>
       <c r="N139" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O139" s="1">
         <v>4</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -12841,14 +14096,14 @@
         <v>98</v>
       </c>
       <c r="N140" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O140" s="1">
         <v>4</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -12889,14 +14144,14 @@
         <v>99</v>
       </c>
       <c r="N141" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O141" s="1">
         <v>4</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -12937,14 +14192,14 @@
         <v>100</v>
       </c>
       <c r="N142" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O142" s="1">
         <v>4</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -19363,7 +20618,7 @@
         <v>5</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E326" s="1">
         <v>3</v>
@@ -20448,7 +21703,7 @@
         <v>5</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E357" s="1">
         <v>2</v>
@@ -21183,7 +22438,7 @@
         <v>5</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E378" s="1">
         <v>2</v>
@@ -22163,7 +23418,7 @@
         <v>5</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E406" s="1">
         <v>1</v>
@@ -22962,7 +24217,7 @@
         <v>81</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C429" s="13">
         <v>4</v>
@@ -22997,7 +24252,7 @@
         <v>81</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C430" s="13">
         <v>4</v>
@@ -23032,7 +24287,7 @@
         <v>81</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C431" s="13">
         <v>4</v>
@@ -23067,7 +24322,7 @@
         <v>81</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C432" s="13">
         <v>4</v>
@@ -23102,7 +24357,7 @@
         <v>81</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C433" s="13">
         <v>4</v>
@@ -23137,7 +24392,7 @@
         <v>82</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C434" s="13">
         <v>4</v>
@@ -23172,7 +24427,7 @@
         <v>82</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C435" s="13">
         <v>4</v>
@@ -23207,7 +24462,7 @@
         <v>82</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C436" s="13">
         <v>4</v>
@@ -23242,7 +24497,7 @@
         <v>82</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C437" s="13">
         <v>4</v>
@@ -23277,7 +24532,7 @@
         <v>83</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C438" s="13">
         <v>4</v>
@@ -23312,7 +24567,7 @@
         <v>83</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C439" s="13">
         <v>4</v>
@@ -23347,7 +24602,7 @@
         <v>83</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C440" s="13">
         <v>4</v>
@@ -23382,7 +24637,7 @@
         <v>83</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C441" s="13">
         <v>4</v>
@@ -23417,7 +24672,7 @@
         <v>84</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C442" s="13">
         <v>6</v>
@@ -23452,7 +24707,7 @@
         <v>84</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C443" s="13">
         <v>6</v>
@@ -23487,7 +24742,7 @@
         <v>84</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C444" s="13">
         <v>6</v>
@@ -23522,7 +24777,7 @@
         <v>84</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C445" s="13">
         <v>6</v>
@@ -23557,7 +24812,7 @@
         <v>85</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C446" s="13">
         <v>6</v>
@@ -23592,7 +24847,7 @@
         <v>85</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C447" s="13">
         <v>6</v>
@@ -23627,7 +24882,7 @@
         <v>85</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C448" s="13">
         <v>6</v>
@@ -23662,7 +24917,7 @@
         <v>86</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C449" s="13">
         <v>6</v>
@@ -23697,7 +24952,7 @@
         <v>86</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C450" s="13">
         <v>6</v>
@@ -23732,7 +24987,7 @@
         <v>86</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C451" s="13">
         <v>6</v>
@@ -23767,7 +25022,7 @@
         <v>87</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C452" s="1">
         <v>4</v>
@@ -23802,7 +25057,7 @@
         <v>87</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C453" s="1">
         <v>4</v>
@@ -23837,7 +25092,7 @@
         <v>87</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C454" s="1">
         <v>4</v>
@@ -23872,7 +25127,7 @@
         <v>87</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C455" s="1">
         <v>4</v>
@@ -23907,7 +25162,7 @@
         <v>87</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C456" s="1">
         <v>4</v>
@@ -23942,7 +25197,7 @@
         <v>87</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C457" s="1">
         <v>4</v>
@@ -23977,7 +25232,7 @@
         <v>88</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C458" s="1">
         <v>4</v>
@@ -24012,7 +25267,7 @@
         <v>88</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C459" s="1">
         <v>4</v>
@@ -24047,7 +25302,7 @@
         <v>88</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C460" s="1">
         <v>4</v>
@@ -24082,7 +25337,7 @@
         <v>88</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C461" s="1">
         <v>4</v>
@@ -24117,7 +25372,7 @@
         <v>88</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C462" s="1">
         <v>4</v>
@@ -24152,7 +25407,7 @@
         <v>88</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C463" s="1">
         <v>4</v>
@@ -24187,7 +25442,7 @@
         <v>89</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C464" s="1">
         <v>4</v>
@@ -24222,7 +25477,7 @@
         <v>89</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C465" s="1">
         <v>4</v>
@@ -24257,7 +25512,7 @@
         <v>89</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C466" s="1">
         <v>4</v>
@@ -24292,7 +25547,7 @@
         <v>89</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C467" s="1">
         <v>4</v>
@@ -24327,7 +25582,7 @@
         <v>89</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C468" s="1">
         <v>4</v>
@@ -24362,7 +25617,7 @@
         <v>90</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C469" s="1">
         <v>4</v>
@@ -24397,7 +25652,7 @@
         <v>90</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C470" s="1">
         <v>4</v>
@@ -24432,7 +25687,7 @@
         <v>90</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C471" s="1">
         <v>4</v>
@@ -24467,7 +25722,7 @@
         <v>90</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C472" s="1">
         <v>4</v>
@@ -24502,7 +25757,7 @@
         <v>90</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C473" s="1">
         <v>4</v>
@@ -24537,7 +25792,7 @@
         <v>90</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C474" s="1">
         <v>4</v>
@@ -24572,7 +25827,7 @@
         <v>90</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C475" s="1">
         <v>4</v>
@@ -24607,7 +25862,7 @@
         <v>90</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C476" s="1">
         <v>4</v>
@@ -24642,7 +25897,7 @@
         <v>90</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C477" s="1">
         <v>4</v>
@@ -24677,7 +25932,7 @@
         <v>90</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C478" s="1">
         <v>4</v>
@@ -24712,7 +25967,7 @@
         <v>91</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C479" s="1">
         <v>4</v>
@@ -24747,7 +26002,7 @@
         <v>91</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C480" s="1">
         <v>4</v>
@@ -24782,7 +26037,7 @@
         <v>91</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C481" s="1">
         <v>4</v>
@@ -24817,7 +26072,7 @@
         <v>91</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C482" s="1">
         <v>4</v>
@@ -24852,7 +26107,7 @@
         <v>91</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C483" s="1">
         <v>4</v>
@@ -24887,7 +26142,7 @@
         <v>92</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C484" s="1">
         <v>6</v>
@@ -24922,7 +26177,7 @@
         <v>92</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C485" s="1">
         <v>6</v>
@@ -24957,7 +26212,7 @@
         <v>92</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C486" s="1">
         <v>6</v>
@@ -24992,7 +26247,7 @@
         <v>92</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C487" s="1">
         <v>6</v>
@@ -25027,7 +26282,7 @@
         <v>92</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C488" s="1">
         <v>6</v>
@@ -25062,7 +26317,7 @@
         <v>93</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C489" s="1">
         <v>6</v>
@@ -25097,7 +26352,7 @@
         <v>93</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C490" s="1">
         <v>6</v>
@@ -25132,7 +26387,7 @@
         <v>93</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C491" s="1">
         <v>6</v>
@@ -25167,7 +26422,7 @@
         <v>93</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C492" s="1">
         <v>6</v>
@@ -25202,7 +26457,7 @@
         <v>93</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C493" s="1">
         <v>6</v>
@@ -25237,7 +26492,7 @@
         <v>93</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C494" s="1">
         <v>6</v>
@@ -25272,7 +26527,7 @@
         <v>94</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C495" s="1">
         <v>6</v>
@@ -25307,7 +26562,7 @@
         <v>94</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C496" s="1">
         <v>6</v>
@@ -25342,7 +26597,7 @@
         <v>94</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C497" s="1">
         <v>6</v>
@@ -25377,7 +26632,7 @@
         <v>94</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C498" s="1">
         <v>6</v>
@@ -25412,7 +26667,7 @@
         <v>94</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C499" s="1">
         <v>6</v>
@@ -25447,7 +26702,7 @@
         <v>94</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C500" s="1">
         <v>6</v>
@@ -25482,7 +26737,7 @@
         <v>95</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C501" s="1">
         <v>6</v>
@@ -25517,7 +26772,7 @@
         <v>95</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C502" s="1">
         <v>6</v>
@@ -25552,7 +26807,7 @@
         <v>95</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C503" s="1">
         <v>6</v>
@@ -25587,7 +26842,7 @@
         <v>95</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C504" s="1">
         <v>6</v>
@@ -25622,7 +26877,7 @@
         <v>95</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C505" s="1">
         <v>6</v>
@@ -25657,7 +26912,7 @@
         <v>95</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C506" s="1">
         <v>6</v>
@@ -25692,7 +26947,7 @@
         <v>96</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C507" s="1">
         <v>4</v>
@@ -25727,7 +26982,7 @@
         <v>96</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C508" s="1">
         <v>4</v>
@@ -25762,7 +27017,7 @@
         <v>96</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C509" s="1">
         <v>4</v>
@@ -25797,7 +27052,7 @@
         <v>96</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C510" s="1">
         <v>4</v>
@@ -25832,7 +27087,7 @@
         <v>97</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C511" s="1">
         <v>4</v>
@@ -25867,7 +27122,7 @@
         <v>97</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C512" s="1">
         <v>4</v>
@@ -25902,7 +27157,7 @@
         <v>97</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C513" s="1">
         <v>4</v>
@@ -25937,7 +27192,7 @@
         <v>97</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C514" s="1">
         <v>4</v>
@@ -25972,7 +27227,7 @@
         <v>97</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C515" s="1">
         <v>4</v>
@@ -26007,7 +27262,7 @@
         <v>97</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C516" s="1">
         <v>4</v>
@@ -26042,7 +27297,7 @@
         <v>97</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C517" s="1">
         <v>4</v>
@@ -26077,13 +27332,13 @@
         <v>97</v>
       </c>
       <c r="B518" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C518" s="1">
+        <v>4</v>
+      </c>
+      <c r="D518" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C518" s="1">
-        <v>4</v>
-      </c>
-      <c r="D518" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E518" s="1">
         <v>3</v>
@@ -26112,7 +27367,7 @@
         <v>98</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C519" s="1">
         <v>4</v>
@@ -26147,7 +27402,7 @@
         <v>98</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C520" s="1">
         <v>4</v>
@@ -26182,7 +27437,7 @@
         <v>98</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C521" s="1">
         <v>4</v>
@@ -26217,7 +27472,7 @@
         <v>98</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C522" s="1">
         <v>4</v>
@@ -26252,7 +27507,7 @@
         <v>98</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C523" s="1">
         <v>4</v>
@@ -26287,7 +27542,7 @@
         <v>98</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C524" s="1">
         <v>4</v>
@@ -26322,7 +27577,7 @@
         <v>99</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C525" s="1">
         <v>4</v>
@@ -26357,7 +27612,7 @@
         <v>99</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C526" s="1">
         <v>4</v>
@@ -26392,7 +27647,7 @@
         <v>99</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C527" s="1">
         <v>4</v>
@@ -26427,7 +27682,7 @@
         <v>99</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C528" s="1">
         <v>4</v>
@@ -26462,7 +27717,7 @@
         <v>99</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C529" s="1">
         <v>4</v>
@@ -26497,7 +27752,7 @@
         <v>99</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C530" s="1">
         <v>4</v>
@@ -26532,7 +27787,7 @@
         <v>99</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C531" s="1">
         <v>4</v>
@@ -26567,7 +27822,7 @@
         <v>100</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C532" s="1">
         <v>4</v>
@@ -26602,7 +27857,7 @@
         <v>100</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C533" s="1">
         <v>4</v>
@@ -26637,7 +27892,7 @@
         <v>100</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C534" s="1">
         <v>4</v>
@@ -26672,7 +27927,7 @@
         <v>100</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C535" s="1">
         <v>4</v>
@@ -26707,7 +27962,7 @@
         <v>100</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C536" s="1">
         <v>4</v>
@@ -26742,7 +27997,7 @@
         <v>100</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C537" s="1">
         <v>4</v>
@@ -26777,7 +28032,7 @@
         <v>100</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C538" s="1">
         <v>4</v>
@@ -26808,10 +28063,15 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="M3:AH25">
-    <sortCondition descending="1" ref="N3:N25"/>
+  <autoFilter ref="M3:AO26">
+    <sortState ref="M4:AO26">
+      <sortCondition descending="1" ref="P3:P26"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="M3:AI25">
+    <sortCondition descending="1" ref="O3:O25"/>
   </sortState>
-  <conditionalFormatting sqref="U3:AN26">
+  <conditionalFormatting sqref="V3:AO26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -26838,7 +28098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I5:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -26849,25 +28109,25 @@
   <sheetData>
     <row r="5" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I5" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I6" s="15">
-        <f>CORREL(Daten!AD3:AD26,Daten!AG3:AG26)</f>
-        <v>0.94860250185481054</v>
+        <f>CORREL(Daten!AE3:AE26,Daten!AH3:AH26)</f>
+        <v>0.94860250185481065</v>
       </c>
       <c r="R6" s="15">
-        <f>CORREL(Daten!S3:S26,Daten!Y3:Y26)</f>
+        <f>CORREL(Daten!T3:T26,Daten!Z3:Z26)</f>
         <v>0.47706779982670605</v>
       </c>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I29" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.25">
@@ -26876,12 +28136,12 @@
         <v>0.6317346250958954</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="9:18" x14ac:dyDescent="0.25">
       <c r="R31" s="15">
-        <f>CORREL(Daten!O3:O26,Daten!S3:S26)</f>
+        <f>CORREL(Daten!P3:P26,Daten!T3:T26)</f>
         <v>-5.5587839827627765E-2</v>
       </c>
     </row>
@@ -26900,8 +28160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Umfrage/Auswertung.xlsx
+++ b/Umfrage/Auswertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,6 @@
     <t>Team Collaboration</t>
   </si>
   <si>
-    <t>Messaging-Service</t>
-  </si>
-  <si>
     <t>Sonstige</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Wirtschaftsinformatik</t>
+  </si>
+  <si>
+    <t>Instant-Messaging</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2322,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1200" b="1">
+                  <a:rPr lang="de-DE" sz="1100" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3110,7 +3110,7 @@
                   <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1600"/>
+                  <a:rPr lang="de-DE" sz="1600" b="0"/>
                   <a:t>Web-Dienst</a:t>
                 </a:r>
               </a:p>
@@ -3156,8 +3156,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1600"/>
-                  <a:t>Anzahl Nutzer</a:t>
+                  <a:rPr lang="de-DE" sz="1600" b="0"/>
+                  <a:t>Anzahl Nutzer in %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3345,43 +3345,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Dienstkategorien</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3524,7 +3488,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3539,7 +3503,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3579,7 +3542,7 @@
                   <c:v>Cloud-Storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Messaging-Service</c:v>
+                  <c:v>Instant-Messaging</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Versionsverwaltung</c:v>
@@ -3627,7 +3590,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3662,7 +3624,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4922,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO538"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5038,7 +5000,7 @@
         <v>81</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>66</v>
@@ -5317,7 +5279,7 @@
         <v>0.92</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P4&gt;0.7,"A",IF(P4&gt;0.1,"B","C"))</f>
         <v>A</v>
       </c>
       <c r="R4" s="1">
@@ -5325,15 +5287,15 @@
         <v>220</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S26" si="6">R4/O4</f>
+        <f>R4/O4</f>
         <v>2.3913043478260869</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S4-1)/4)</f>
         <v>0.65217391304347827</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="3"/>
+        <f>(P4+T4+Z4)/3</f>
         <v>0.67623188405797097</v>
       </c>
       <c r="V4" s="9">
@@ -5349,11 +5311,11 @@
         <v>0.33695652173913043</v>
       </c>
       <c r="Y4" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E4:E1002,D4:D1002,M4)/O4</f>
         <v>2.0869565217391304</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y4-1)/2)</f>
         <v>0.45652173913043481</v>
       </c>
       <c r="AA4" s="9">
@@ -5455,10 +5417,10 @@
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O26" si="7">COUNTIF(D6:D1004,M5)</f>
+        <f>COUNTIF(D6:D1004,M5)</f>
         <v>79</v>
       </c>
       <c r="P5" s="3">
@@ -5466,103 +5428,103 @@
         <v>0.79</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P5&gt;0.7,"A",IF(P5&gt;0.1,"B","C"))</f>
         <v>A</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R26" si="8">SUMIFS(F6:F1004,D6:D1004,M5)</f>
+        <f>SUMIFS(F6:F1004,D6:D1004,M5)</f>
         <v>153</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="6"/>
+        <f>R5/O5</f>
         <v>1.9367088607594938</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S5-1)/4)</f>
         <v>0.76582278481012656</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="3"/>
+        <f>(P5+T5+Z5)/3</f>
         <v>0.84561181434599153</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" ref="V5:V26" si="9">COUNTIFS(D5:D1003,M5,E5:E1003,"1")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,E5:E1003,"1")/O5</f>
         <v>0.96202531645569622</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" ref="W5:W26" si="10">COUNTIFS(D5:D1003,M5,E5:E1003,"2")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,E5:E1003,"2")/O5</f>
         <v>3.7974683544303799E-2</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" ref="X5:X26" si="11">COUNTIFS(D5:D1003,M5,E5:E1003,"3")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,E5:E1003,"3")/O5</f>
         <v>0</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E5:E1003,D5:D1003,M5)/O5</f>
         <v>1.0379746835443038</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y5-1)/2)</f>
         <v>0.98101265822784811</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" ref="AA5:AA26" si="12">COUNTIFS(D5:D1003,M5,G5:G1003,"1")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,G5:G1003,"1")/O5</f>
         <v>0</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB26" si="13">COUNTIFS(D5:D1003,M5,G5:G1003,"2")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,G5:G1003,"2")/O5</f>
         <v>7.5949367088607597E-2</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" ref="AC5:AC26" si="14">COUNTIFS(D5:D1003,M5,G5:G1003,"3")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,G5:G1003,"3")/O5</f>
         <v>0.810126582278481</v>
       </c>
       <c r="AD5" s="9">
-        <f t="shared" ref="AD5:AD26" si="15">(COUNTIFS(D6:D1003,M5,H6:H1003,"1")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,H6:H1003,"1")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/O5</f>
         <v>0.379746835443038</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" ref="AE5:AE26" si="16">(COUNTIFS(D6:D1003,M5,H6:H1003,"2")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,H6:H1003,"2")+COUNTIFS(D6:D1003,M5,H6:H1003,"1,2"))/O5</f>
         <v>0.98734177215189878</v>
       </c>
       <c r="AF5" s="9">
-        <f t="shared" ref="AF5:AF26" si="17">(COUNTIFS(D6:D1003,M5,I6:I1003,"1")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,I6:I1003,"1")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
         <v>0.29113924050632911</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" ref="AG5:AG26" si="18">(COUNTIFS(D6:D1003,M5,I6:I1003,"2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,I6:I1003,"2")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
         <v>0.31645569620253167</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" ref="AH5:AH26" si="19">(COUNTIFS(D6:D1003,M5,I6:I1003,"3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,I6:I1003,"3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"2,3")+COUNTIFS(D6:D1003,M5,I6:I1003,"1,2,3"))/O5</f>
         <v>0.93670886075949367</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" ref="AI5:AI26" si="20">(COUNTIFS(D6:D1003,M5,J6:J1003,"1")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,J6:J1003,"1")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
         <v>0.73417721518987344</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" ref="AJ5:AJ26" si="21">(COUNTIFS(D6:D1003,M5,J6:J1003,"2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,J6:J1003,"2")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
         <v>0.25316455696202533</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" ref="AK5:AK26" si="22">(COUNTIFS(D6:D1003,M5,J6:J1003,"3+X3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
+        <f>(COUNTIFS(D6:D1003,M5,J6:J1003,"3+X3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"2,3")+COUNTIFS(D6:D1003,M5,J6:J1003,"1,2,3"))/O5</f>
         <v>0.70886075949367089</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" ref="AL5:AL26" si="23">COUNTIFS(D5:D1003,M5,K5:K1003,"1")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"1")/O5</f>
         <v>0.73417721518987344</v>
       </c>
       <c r="AM5" s="3">
-        <f t="shared" ref="AM5:AM26" si="24">COUNTIFS(D5:D1003,M5,K5:K1003,"2")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"2")/O5</f>
         <v>0.12658227848101267</v>
       </c>
       <c r="AN5" s="3">
-        <f t="shared" ref="AN5:AN26" si="25">COUNTIFS(D5:D1003,M5,K5:K1003,"3")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"3")/O5</f>
         <v>0</v>
       </c>
       <c r="AO5" s="3">
-        <f t="shared" ref="AO5:AO26" si="26">COUNTIFS(D5:D1003,M5,K5:K1003,"4")/O5</f>
+        <f>COUNTIFS(D5:D1003,M5,K5:K1003,"4")/O5</f>
         <v>0.13924050632911392</v>
       </c>
     </row>
@@ -5607,111 +5569,111 @@
         <v>82</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D7:D1005,M6)</f>
         <v>57</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P26" si="27">O6/$M$32</f>
+        <f>O6/$M$32</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P6&gt;0.7,"A",IF(P6&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F7:F1005,D7:D1005,M6)</f>
         <v>100</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="6"/>
+        <f>R6/O6</f>
         <v>1.7543859649122806</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S6-1)/4)</f>
         <v>0.81140350877192979</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="3"/>
+        <f>(P6+T6+Z6)/3</f>
         <v>0.66807017543859637</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D6:D1004,M6,E6:E1004,"1")/O6</f>
         <v>0.42105263157894735</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D6:D1004,M6,E6:E1004,"2")/O6</f>
         <v>0.40350877192982454</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D6:D1004,M6,E6:E1004,"3")/O6</f>
         <v>0.17543859649122806</v>
       </c>
       <c r="Y6" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E6:E1004,D6:D1004,M6)/O6</f>
         <v>1.7543859649122806</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y6-1)/2)</f>
         <v>0.6228070175438597</v>
       </c>
       <c r="AA6" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D6:D1004,M6,G6:G1004,"1")/O6</f>
         <v>0</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D6:D1004,M6,G6:G1004,"2")/O6</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D6:D1004,M6,G6:G1004,"3")/O6</f>
         <v>0.70175438596491224</v>
       </c>
       <c r="AD6" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D7:D1004,M6,H7:H1004,"1")+COUNTIFS(D7:D1004,M6,H7:H1004,"1,2"))/O6</f>
         <v>0.98245614035087714</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D7:D1004,M6,H7:H1004,"2")+COUNTIFS(D7:D1004,M6,H7:H1004,"1,2"))/O6</f>
         <v>0.68421052631578949</v>
       </c>
       <c r="AF6" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D7:D1004,M6,I7:I1004,"1")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2,3"))/O6</f>
         <v>0.68421052631578949</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D7:D1004,M6,I7:I1004,"2")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2")+COUNTIFS(D7:D1004,M6,I7:I1004,"2,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2,3"))/O6</f>
         <v>0.77192982456140347</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D7:D1004,M6,I7:I1004,"3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"2,3")+COUNTIFS(D7:D1004,M6,I7:I1004,"1,2,3"))/O6</f>
         <v>0.61403508771929827</v>
       </c>
       <c r="AI6" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D7:D1004,M6,J7:J1004,"1")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2,3"))/O6</f>
         <v>0.75438596491228072</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D7:D1004,M6,J7:J1004,"2")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2")+COUNTIFS(D7:D1004,M6,J7:J1004,"2,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2,3"))/O6</f>
         <v>0.12280701754385964</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D7:D1004,M6,J7:J1004,"3+X3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"2,3")+COUNTIFS(D7:D1004,M6,J7:J1004,"1,2,3"))/O6</f>
         <v>0.59649122807017541</v>
       </c>
       <c r="AL6" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"1")/O6</f>
         <v>0.61403508771929827</v>
       </c>
       <c r="AM6" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"2")/O6</f>
         <v>0.24561403508771928</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"3")/O6</f>
         <v>0</v>
       </c>
       <c r="AO6" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D6:D1004,M6,K6:K1004,"4")/O6</f>
         <v>0.14035087719298245</v>
       </c>
     </row>
@@ -5753,114 +5715,114 @@
         <v>18</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D8:D1006,M7)</f>
         <v>39</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="27"/>
+        <f>O7/$M$32</f>
         <v>0.39</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P7&gt;0.7,"A",IF(P7&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F8:F1006,D8:D1006,M7)</f>
         <v>82</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="6"/>
+        <f>R7/O7</f>
         <v>2.1025641025641026</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S7-1)/4)</f>
         <v>0.72435897435897434</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="3"/>
+        <f>(P7+T7+Z7)/3</f>
         <v>0.52529914529914523</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D7:D1005,M7,E7:E1005,"1")/O7</f>
         <v>0.25641025641025639</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D7:D1005,M7,E7:E1005,"2")/O7</f>
         <v>0.41025641025641024</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D7:D1005,M7,E7:E1005,"3")/O7</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="Y7" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E7:E1005,D7:D1005,M7)/O7</f>
         <v>2.0769230769230771</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y7-1)/2)</f>
         <v>0.46153846153846145</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D7:D1005,M7,G7:G1005,"1")/O7</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D7:D1005,M7,G7:G1005,"2")/O7</f>
         <v>0.4358974358974359</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D7:D1005,M7,G7:G1005,"3")/O7</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D8:D1005,M7,H8:H1005,"1")+COUNTIFS(D8:D1005,M7,H8:H1005,"1,2"))/O7</f>
         <v>1</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D8:D1005,M7,H8:H1005,"2")+COUNTIFS(D8:D1005,M7,H8:H1005,"1,2"))/O7</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AF7" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D8:D1005,M7,I8:I1005,"1")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2,3"))/O7</f>
         <v>0.58974358974358976</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D8:D1005,M7,I8:I1005,"2")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2")+COUNTIFS(D8:D1005,M7,I8:I1005,"2,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2,3"))/O7</f>
         <v>0.82051282051282048</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D8:D1005,M7,I8:I1005,"3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"2,3")+COUNTIFS(D8:D1005,M7,I8:I1005,"1,2,3"))/O7</f>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="AI7" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D8:D1005,M7,J8:J1005,"1")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2,3"))/O7</f>
         <v>0.94871794871794868</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D8:D1005,M7,J8:J1005,"2")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2")+COUNTIFS(D8:D1005,M7,J8:J1005,"2,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2,3"))/O7</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D8:D1005,M7,J8:J1005,"3+X3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"2,3")+COUNTIFS(D8:D1005,M7,J8:J1005,"1,2,3"))/O7</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="AL7" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"1")/O7</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AM7" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"2")/O7</f>
         <v>0.35897435897435898</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"3")/O7</f>
         <v>0.10256410256410256</v>
       </c>
       <c r="AO7" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D7:D1005,M7,K7:K1005,"4")/O7</f>
         <v>0.20512820512820512</v>
       </c>
     </row>
@@ -5902,114 +5864,114 @@
         <v>19</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D9:D1007,M8)</f>
         <v>29</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="27"/>
+        <f>O8/$M$32</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P8&gt;0.7,"A",IF(P8&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F9:F1007,D9:D1007,M8)</f>
         <v>62</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="6"/>
+        <f>R8/O8</f>
         <v>2.1379310344827585</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S8-1)/4)</f>
         <v>0.71551724137931039</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="3"/>
+        <f>(P8+T8+Z8)/3</f>
         <v>0.45586206896551723</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D8:D1006,M8,E8:E1006,"1")/O8</f>
         <v>0.17241379310344829</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D8:D1006,M8,E8:E1006,"2")/O8</f>
         <v>0.37931034482758619</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D8:D1006,M8,E8:E1006,"3")/O8</f>
         <v>0.44827586206896552</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E8:E1006,D8:D1006,M8)/O8</f>
         <v>2.2758620689655173</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y8-1)/2)</f>
         <v>0.36206896551724133</v>
       </c>
       <c r="AA8" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D8:D1006,M8,G8:G1006,"1")/O8</f>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D8:D1006,M8,G8:G1006,"2")/O8</f>
         <v>0.55172413793103448</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D8:D1006,M8,G8:G1006,"3")/O8</f>
         <v>0.34482758620689657</v>
       </c>
       <c r="AD8" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D9:D1006,M8,H9:H1006,"1")+COUNTIFS(D9:D1006,M8,H9:H1006,"1,2"))/O8</f>
         <v>0.96551724137931039</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D9:D1006,M8,H9:H1006,"2")+COUNTIFS(D9:D1006,M8,H9:H1006,"1,2"))/O8</f>
         <v>0.2413793103448276</v>
       </c>
       <c r="AF8" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D9:D1006,M8,I9:I1006,"1")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2,3"))/O8</f>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D9:D1006,M8,I9:I1006,"2")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2")+COUNTIFS(D9:D1006,M8,I9:I1006,"2,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2,3"))/O8</f>
         <v>1</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D9:D1006,M8,I9:I1006,"3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"2,3")+COUNTIFS(D9:D1006,M8,I9:I1006,"1,2,3"))/O8</f>
         <v>0.17241379310344829</v>
       </c>
       <c r="AI8" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D9:D1006,M8,J9:J1006,"1")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2,3"))/O8</f>
         <v>0.89655172413793105</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D9:D1006,M8,J9:J1006,"2")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2")+COUNTIFS(D9:D1006,M8,J9:J1006,"2,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2,3"))/O8</f>
         <v>0.13793103448275862</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D9:D1006,M8,J9:J1006,"3+X3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"2,3")+COUNTIFS(D9:D1006,M8,J9:J1006,"1,2,3"))/O8</f>
         <v>0.44827586206896552</v>
       </c>
       <c r="AL8" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"1")/O8</f>
         <v>0.31034482758620691</v>
       </c>
       <c r="AM8" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"2")/O8</f>
         <v>0.34482758620689657</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"3")/O8</f>
         <v>0.10344827586206896</v>
       </c>
       <c r="AO8" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D8:D1006,M8,K8:K1006,"4")/O8</f>
         <v>0.2413793103448276</v>
       </c>
     </row>
@@ -6051,114 +6013,114 @@
         <v>22</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D10:D1008,M9)</f>
         <v>28</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="27"/>
+        <f>O9/$M$32</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P9&gt;0.7,"A",IF(P9&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F10:F1008,D10:D1008,M9)</f>
         <v>56</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="6"/>
+        <f>R9/O9</f>
         <v>2</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S9-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="3"/>
+        <f>(P9+T9+Z9)/3</f>
         <v>0.56357142857142861</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D9:D1007,M9,E9:E1007,"1")/O9</f>
         <v>0.39285714285714285</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D9:D1007,M9,E9:E1007,"2")/O9</f>
         <v>0.5357142857142857</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D9:D1007,M9,E9:E1007,"3")/O9</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E9:E1007,D9:D1007,M9)/O9</f>
         <v>1.6785714285714286</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y9-1)/2)</f>
         <v>0.6607142857142857</v>
       </c>
       <c r="AA9" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D9:D1007,M9,G9:G1007,"1")/O9</f>
         <v>0.32142857142857145</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D9:D1007,M9,G9:G1007,"2")/O9</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D9:D1007,M9,G9:G1007,"3")/O9</f>
         <v>0.32142857142857145</v>
       </c>
       <c r="AD9" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D10:D1007,M9,H10:H1007,"1")+COUNTIFS(D10:D1007,M9,H10:H1007,"1,2"))/O9</f>
         <v>1</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D10:D1007,M9,H10:H1007,"2")+COUNTIFS(D10:D1007,M9,H10:H1007,"1,2"))/O9</f>
         <v>0.10714285714285714</v>
       </c>
       <c r="AF9" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D10:D1007,M9,I10:I1007,"1")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2,3"))/O9</f>
         <v>0.35714285714285715</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D10:D1007,M9,I10:I1007,"2")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2")+COUNTIFS(D10:D1007,M9,I10:I1007,"2,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2,3"))/O9</f>
         <v>0.9642857142857143</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D10:D1007,M9,I10:I1007,"3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"2,3")+COUNTIFS(D10:D1007,M9,I10:I1007,"1,2,3"))/O9</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AI9" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D10:D1007,M9,J10:J1007,"1")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2,3"))/O9</f>
         <v>0.9642857142857143</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D10:D1007,M9,J10:J1007,"2")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2")+COUNTIFS(D10:D1007,M9,J10:J1007,"2,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2,3"))/O9</f>
         <v>0.10714285714285714</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D10:D1007,M9,J10:J1007,"3+X3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"2,3")+COUNTIFS(D10:D1007,M9,J10:J1007,"1,2,3"))/O9</f>
         <v>0.35714285714285715</v>
       </c>
       <c r="AL9" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"1")/O9</f>
         <v>0.5</v>
       </c>
       <c r="AM9" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"2")/O9</f>
         <v>0.32142857142857145</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"3")/O9</f>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AO9" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D9:D1007,M9,K9:K1007,"4")/O9</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -6200,114 +6162,114 @@
         <v>31</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D11:D1009,M10)</f>
         <v>27</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="27"/>
+        <f>O10/$M$32</f>
         <v>0.27</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P10&gt;0.7,"A",IF(P10&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F11:F1009,D11:D1009,M10)</f>
         <v>54</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="6"/>
+        <f>R10/O10</f>
         <v>2</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S10-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="3"/>
+        <f>(P10+T10+Z10)/3</f>
         <v>0.5251851851851852</v>
       </c>
       <c r="V10" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D10:D1008,M10,E10:E1008,"1")/O10</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D10:D1008,M10,E10:E1008,"2")/O10</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D10:D1008,M10,E10:E1008,"3")/O10</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="Y10" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E10:E1008,D10:D1008,M10)/O10</f>
         <v>1.8888888888888888</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y10-1)/2)</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="AA10" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D10:D1008,M10,G10:G1008,"1")/O10</f>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D10:D1008,M10,G10:G1008,"2")/O10</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D10:D1008,M10,G10:G1008,"3")/O10</f>
         <v>0.18518518518518517</v>
       </c>
       <c r="AD10" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D11:D1008,M10,H11:H1008,"1")+COUNTIFS(D11:D1008,M10,H11:H1008,"1,2"))/O10</f>
         <v>0.92592592592592593</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D11:D1008,M10,H11:H1008,"2")+COUNTIFS(D11:D1008,M10,H11:H1008,"1,2"))/O10</f>
         <v>0.7407407407407407</v>
       </c>
       <c r="AF10" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D11:D1008,M10,I11:I1008,"1")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2,3"))/O10</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D11:D1008,M10,I11:I1008,"2")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2")+COUNTIFS(D11:D1008,M10,I11:I1008,"2,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2,3"))/O10</f>
         <v>0.70370370370370372</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D11:D1008,M10,I11:I1008,"3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"2,3")+COUNTIFS(D11:D1008,M10,I11:I1008,"1,2,3"))/O10</f>
         <v>0.70370370370370372</v>
       </c>
       <c r="AI10" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D11:D1008,M10,J11:J1008,"1")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2,3"))/O10</f>
         <v>1</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D11:D1008,M10,J11:J1008,"2")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2")+COUNTIFS(D11:D1008,M10,J11:J1008,"2,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2,3"))/O10</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D11:D1008,M10,J11:J1008,"3+X3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"2,3")+COUNTIFS(D11:D1008,M10,J11:J1008,"1,2,3"))/O10</f>
         <v>0.29629629629629628</v>
       </c>
       <c r="AL10" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"1")/O10</f>
         <v>0.40740740740740738</v>
       </c>
       <c r="AM10" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"2")/O10</f>
         <v>0.40740740740740738</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"3")/O10</f>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="AO10" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D10:D1008,M10,K10:K1008,"4")/O10</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -6349,114 +6311,114 @@
         <v>17</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D12:D1010,M11)</f>
         <v>26</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="27"/>
+        <f>O11/$M$32</f>
         <v>0.26</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P11&gt;0.7,"A",IF(P11&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F12:F1010,D12:D1010,M11)</f>
         <v>59</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="6"/>
+        <f>R11/O11</f>
         <v>2.2692307692307692</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S11-1)/4)</f>
         <v>0.68269230769230771</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="3"/>
+        <f>(P11+T11+Z11)/3</f>
         <v>0.32705128205128209</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D11:D1009,M11,E11:E1009,"1")/O11</f>
         <v>0</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D11:D1009,M11,E11:E1009,"2")/O11</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D11:D1009,M11,E11:E1009,"3")/O11</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="Y11" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E11:E1009,D11:D1009,M11)/O11</f>
         <v>2.9230769230769229</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y11-1)/2)</f>
         <v>3.8461538461538547E-2</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D11:D1009,M11,G11:G1009,"1")/O11</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D11:D1009,M11,G11:G1009,"2")/O11</f>
         <v>0.26923076923076922</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D11:D1009,M11,G11:G1009,"3")/O11</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D12:D1009,M11,H12:H1009,"1")+COUNTIFS(D12:D1009,M11,H12:H1009,"1,2"))/O11</f>
         <v>0.96153846153846156</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D12:D1009,M11,H12:H1009,"2")+COUNTIFS(D12:D1009,M11,H12:H1009,"1,2"))/O11</f>
         <v>0.34615384615384615</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D12:D1009,M11,I12:I1009,"1")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2,3"))/O11</f>
         <v>0.11538461538461539</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D12:D1009,M11,I12:I1009,"2")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2")+COUNTIFS(D12:D1009,M11,I12:I1009,"2,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2,3"))/O11</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D12:D1009,M11,I12:I1009,"3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"2,3")+COUNTIFS(D12:D1009,M11,I12:I1009,"1,2,3"))/O11</f>
         <v>0.11538461538461539</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D12:D1009,M11,J12:J1009,"1")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2,3"))/O11</f>
         <v>0.57692307692307687</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D12:D1009,M11,J12:J1009,"2")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2")+COUNTIFS(D12:D1009,M11,J12:J1009,"2,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2,3"))/O11</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D12:D1009,M11,J12:J1009,"3+X3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"2,3")+COUNTIFS(D12:D1009,M11,J12:J1009,"1,2,3"))/O11</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"1")/O11</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"2")/O11</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"3")/O11</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="AO11" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D11:D1009,M11,K11:K1009,"4")/O11</f>
         <v>0.11538461538461539</v>
       </c>
     </row>
@@ -6501,111 +6463,111 @@
         <v>82</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D13:D1011,M12)</f>
         <v>17</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="27"/>
+        <f>O12/$M$32</f>
         <v>0.17</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P12&gt;0.7,"A",IF(P12&gt;0.1,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F13:F1011,D13:D1011,M12)</f>
         <v>28</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="6"/>
+        <f>R12/O12</f>
         <v>1.6470588235294117</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S12-1)/4)</f>
         <v>0.83823529411764708</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="3"/>
+        <f>(P12+T12+Z12)/3</f>
         <v>0.52235294117647058</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D12:D1010,M12,E12:E1010,"1")/O12</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D12:D1010,M12,E12:E1010,"2")/O12</f>
         <v>0.17647058823529413</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D12:D1010,M12,E12:E1010,"3")/O12</f>
         <v>0.35294117647058826</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E12:E1010,D12:D1010,M12)/O12</f>
         <v>1.8823529411764706</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y12-1)/2)</f>
         <v>0.55882352941176472</v>
       </c>
       <c r="AA12" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D12:D1010,M12,G12:G1010,"1")/O12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D12:D1010,M12,G12:G1010,"2")/O12</f>
         <v>0.17647058823529413</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D12:D1010,M12,G12:G1010,"3")/O12</f>
         <v>0.82352941176470584</v>
       </c>
       <c r="AD12" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D13:D1010,M12,H13:H1010,"1")+COUNTIFS(D13:D1010,M12,H13:H1010,"1,2"))/O12</f>
         <v>1</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D13:D1010,M12,H13:H1010,"2")+COUNTIFS(D13:D1010,M12,H13:H1010,"1,2"))/O12</f>
         <v>0.76470588235294112</v>
       </c>
       <c r="AF12" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D13:D1010,M12,I13:I1010,"1")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2,3"))/O12</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D13:D1010,M12,I13:I1010,"2")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2")+COUNTIFS(D13:D1010,M12,I13:I1010,"2,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2,3"))/O12</f>
         <v>0.94117647058823528</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D13:D1010,M12,I13:I1010,"3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"2,3")+COUNTIFS(D13:D1010,M12,I13:I1010,"1,2,3"))/O12</f>
         <v>0.82352941176470584</v>
       </c>
       <c r="AI12" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D13:D1010,M12,J13:J1010,"1")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2,3"))/O12</f>
         <v>0.6470588235294118</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D13:D1010,M12,J13:J1010,"2")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2")+COUNTIFS(D13:D1010,M12,J13:J1010,"2,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2,3"))/O12</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D13:D1010,M12,J13:J1010,"3+X3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"2,3")+COUNTIFS(D13:D1010,M12,J13:J1010,"1,2,3"))/O12</f>
         <v>0.70588235294117652</v>
       </c>
       <c r="AL12" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"1")/O12</f>
         <v>0.41176470588235292</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"2")/O12</f>
         <v>0.35294117647058826</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"3")/O12</f>
         <v>0</v>
       </c>
       <c r="AO12" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D12:D1010,M12,K12:K1010,"4")/O12</f>
         <v>0.23529411764705882</v>
       </c>
     </row>
@@ -6647,114 +6609,114 @@
         <v>25</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D14:D1012,M13)</f>
         <v>9</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="27"/>
+        <f>O13/$M$32</f>
         <v>0.09</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P13&gt;0.7,"A",IF(P13&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F14:F1012,D14:D1012,M13)</f>
         <v>16</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="6"/>
+        <f>R13/O13</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S13-1)/4)</f>
         <v>0.80555555555555558</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="3"/>
+        <f>(P13+T13+Z13)/3</f>
         <v>0.5948148148148148</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D13:D1011,M13,E13:E1011,"1")/O13</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D13:D1011,M13,E13:E1011,"2")/O13</f>
         <v>0</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D13:D1011,M13,E13:E1011,"3")/O13</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="Y13" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E13:E1011,D13:D1011,M13)/O13</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y13-1)/2)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D13:D1011,M13,G13:G1011,"1")/O13</f>
         <v>0</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D13:D1011,M13,G13:G1011,"2")/O13</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D13:D1011,M13,G13:G1011,"3")/O13</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="AD13" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D14:D1011,M13,H14:H1011,"1")+COUNTIFS(D14:D1011,M13,H14:H1011,"1,2"))/O13</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D14:D1011,M13,H14:H1011,"2")+COUNTIFS(D14:D1011,M13,H14:H1011,"1,2"))/O13</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="AF13" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D14:D1011,M13,I14:I1011,"1")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2,3"))/O13</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D14:D1011,M13,I14:I1011,"2")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2")+COUNTIFS(D14:D1011,M13,I14:I1011,"2,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2,3"))/O13</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D14:D1011,M13,I14:I1011,"3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"2,3")+COUNTIFS(D14:D1011,M13,I14:I1011,"1,2,3"))/O13</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D14:D1011,M13,J14:J1011,"1")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2,3"))/O13</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D14:D1011,M13,J14:J1011,"2")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2")+COUNTIFS(D14:D1011,M13,J14:J1011,"2,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2,3"))/O13</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D14:D1011,M13,J14:J1011,"3+X3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"2,3")+COUNTIFS(D14:D1011,M13,J14:J1011,"1,2,3"))/O13</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"1")/O13</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AM13" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"2")/O13</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"3")/O13</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="AO13" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D13:D1011,M13,K13:K1011,"4")/O13</f>
         <v>0</v>
       </c>
     </row>
@@ -6799,111 +6761,111 @@
         <v>82</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D15:D1013,M14)</f>
         <v>6</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="27"/>
+        <f>O14/$M$32</f>
         <v>0.06</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P14&gt;0.7,"A",IF(P14&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F15:F1013,D15:D1013,M14)</f>
         <v>14</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="6"/>
+        <f>R14/O14</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S14-1)/4)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="3"/>
+        <f>(P14+T14+Z14)/3</f>
         <v>0.46444444444444438</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D14:D1012,M14,E14:E1012,"1")/O14</f>
         <v>0.5</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D14:D1012,M14,E14:E1012,"2")/O14</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D14:D1012,M14,E14:E1012,"3")/O14</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E14:E1012,D14:D1012,M14)/O14</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y14-1)/2)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D14:D1012,M14,G14:G1012,"1")/O14</f>
         <v>0</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D14:D1012,M14,G14:G1012,"2")/O14</f>
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D14:D1012,M14,G14:G1012,"3")/O14</f>
         <v>1</v>
       </c>
       <c r="AD14" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D15:D1012,M14,H15:H1012,"1")+COUNTIFS(D15:D1012,M14,H15:H1012,"1,2"))/O14</f>
         <v>1</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D15:D1012,M14,H15:H1012,"2")+COUNTIFS(D15:D1012,M14,H15:H1012,"1,2"))/O14</f>
         <v>0.5</v>
       </c>
       <c r="AF14" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D15:D1012,M14,I15:I1012,"1")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2,3"))/O14</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D15:D1012,M14,I15:I1012,"2")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2")+COUNTIFS(D15:D1012,M14,I15:I1012,"2,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2,3"))/O14</f>
         <v>0.5</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D15:D1012,M14,I15:I1012,"3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"2,3")+COUNTIFS(D15:D1012,M14,I15:I1012,"1,2,3"))/O14</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AI14" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D15:D1012,M14,J15:J1012,"1")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2,3"))/O14</f>
         <v>0.5</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D15:D1012,M14,J15:J1012,"2")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2")+COUNTIFS(D15:D1012,M14,J15:J1012,"2,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2,3"))/O14</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D15:D1012,M14,J15:J1012,"3+X3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"2,3")+COUNTIFS(D15:D1012,M14,J15:J1012,"1,2,3"))/O14</f>
         <v>0.5</v>
       </c>
       <c r="AL14" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"1")/O14</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"2")/O14</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"3")/O14</f>
         <v>0</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D14:D1012,M14,K14:K1012,"4")/O14</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -6945,114 +6907,114 @@
         <v>29</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D16:D1014,M15)</f>
         <v>5</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="27"/>
+        <f>O15/$M$32</f>
         <v>0.05</v>
       </c>
       <c r="Q15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P15&gt;0.7,"A",IF(P15&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F16:F1014,D16:D1014,M15)</f>
         <v>10</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="6"/>
+        <f>R15/O15</f>
         <v>2</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S15-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="3"/>
+        <f>(P15+T15+Z15)/3</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D15:D1013,M15,E15:E1013,"1")/O15</f>
         <v>0.2</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D15:D1013,M15,E15:E1013,"2")/O15</f>
         <v>0.6</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D15:D1013,M15,E15:E1013,"3")/O15</f>
         <v>0.2</v>
       </c>
       <c r="Y15" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E15:E1013,D15:D1013,M15)/O15</f>
         <v>2</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y15-1)/2)</f>
         <v>0.5</v>
       </c>
       <c r="AA15" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D15:D1013,M15,G15:G1013,"1")/O15</f>
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D15:D1013,M15,G15:G1013,"2")/O15</f>
         <v>0.4</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D15:D1013,M15,G15:G1013,"3")/O15</f>
         <v>0.4</v>
       </c>
       <c r="AD15" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D16:D1013,M15,H16:H1013,"1")+COUNTIFS(D16:D1013,M15,H16:H1013,"1,2"))/O15</f>
         <v>1</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D16:D1013,M15,H16:H1013,"2")+COUNTIFS(D16:D1013,M15,H16:H1013,"1,2"))/O15</f>
         <v>0</v>
       </c>
       <c r="AF15" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D16:D1013,M15,I16:I1013,"1")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2,3"))/O15</f>
         <v>0.6</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D16:D1013,M15,I16:I1013,"2")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2")+COUNTIFS(D16:D1013,M15,I16:I1013,"2,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2,3"))/O15</f>
         <v>0.4</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D16:D1013,M15,I16:I1013,"3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"2,3")+COUNTIFS(D16:D1013,M15,I16:I1013,"1,2,3"))/O15</f>
         <v>0</v>
       </c>
       <c r="AI15" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D16:D1013,M15,J16:J1013,"1")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2,3"))/O15</f>
         <v>0.8</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D16:D1013,M15,J16:J1013,"2")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2")+COUNTIFS(D16:D1013,M15,J16:J1013,"2,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2,3"))/O15</f>
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D16:D1013,M15,J16:J1013,"3+X3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"2,3")+COUNTIFS(D16:D1013,M15,J16:J1013,"1,2,3"))/O15</f>
         <v>0.2</v>
       </c>
       <c r="AL15" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"1")/O15</f>
         <v>0.8</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"2")/O15</f>
         <v>0</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"3")/O15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D15:D1013,M15,K15:K1013,"4")/O15</f>
         <v>0.2</v>
       </c>
     </row>
@@ -7094,114 +7056,114 @@
         <v>23</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D17:D1015,M16)</f>
         <v>4</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="27"/>
+        <f>O16/$M$32</f>
         <v>0.04</v>
       </c>
       <c r="Q16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P16&gt;0.7,"A",IF(P16&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F17:F1015,D17:D1015,M16)</f>
         <v>11</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="6"/>
+        <f>R16/O16</f>
         <v>2.75</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S16-1)/4)</f>
         <v>0.5625</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="3"/>
+        <f>(P16+T16+Z16)/3</f>
         <v>0.45083333333333336</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D16:D1014,M16,E16:E1014,"1")/O16</f>
         <v>0.75</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D16:D1014,M16,E16:E1014,"2")/O16</f>
         <v>0</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D16:D1014,M16,E16:E1014,"3")/O16</f>
         <v>0.25</v>
       </c>
       <c r="Y16" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E16:E1014,D16:D1014,M16)/O16</f>
         <v>1.5</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y16-1)/2)</f>
         <v>0.75</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D16:D1014,M16,G16:G1014,"1")/O16</f>
         <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D16:D1014,M16,G16:G1014,"2")/O16</f>
         <v>0.25</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D16:D1014,M16,G16:G1014,"3")/O16</f>
         <v>0.75</v>
       </c>
       <c r="AD16" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D17:D1014,M16,H17:H1014,"1")+COUNTIFS(D17:D1014,M16,H17:H1014,"1,2"))/O16</f>
         <v>1</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D17:D1014,M16,H17:H1014,"2")+COUNTIFS(D17:D1014,M16,H17:H1014,"1,2"))/O16</f>
         <v>0.5</v>
       </c>
       <c r="AF16" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D17:D1014,M16,I17:I1014,"1")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2,3"))/O16</f>
         <v>0.75</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D17:D1014,M16,I17:I1014,"2")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2")+COUNTIFS(D17:D1014,M16,I17:I1014,"2,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2,3"))/O16</f>
         <v>0.75</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D17:D1014,M16,I17:I1014,"3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"2,3")+COUNTIFS(D17:D1014,M16,I17:I1014,"1,2,3"))/O16</f>
         <v>0.5</v>
       </c>
       <c r="AI16" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D17:D1014,M16,J17:J1014,"1")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2,3"))/O16</f>
         <v>0.75</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D17:D1014,M16,J17:J1014,"2")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2")+COUNTIFS(D17:D1014,M16,J17:J1014,"2,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2,3"))/O16</f>
         <v>0.5</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D17:D1014,M16,J17:J1014,"3+X3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"2,3")+COUNTIFS(D17:D1014,M16,J17:J1014,"1,2,3"))/O16</f>
         <v>0.5</v>
       </c>
       <c r="AL16" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"1")/O16</f>
         <v>0.5</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"2")/O16</f>
         <v>0.25</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"3")/O16</f>
         <v>0</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D16:D1014,M16,K16:K1014,"4")/O16</f>
         <v>0.25</v>
       </c>
     </row>
@@ -7246,111 +7208,111 @@
         <v>83</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D18:D1016,M17)</f>
         <v>4</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="27"/>
+        <f>O17/$M$32</f>
         <v>0.04</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P17&gt;0.7,"A",IF(P17&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F18:F1016,D18:D1016,M17)</f>
         <v>6</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="6"/>
+        <f>R17/O17</f>
         <v>1.5</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S17-1)/4)</f>
         <v>0.875</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="3"/>
+        <f>(P17+T17+Z17)/3</f>
         <v>0.34666666666666668</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D17:D1015,M17,E17:E1015,"1")/O17</f>
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D17:D1015,M17,E17:E1015,"2")/O17</f>
         <v>0.25</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D17:D1015,M17,E17:E1015,"3")/O17</f>
         <v>0.75</v>
       </c>
       <c r="Y17" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E17:E1015,D17:D1015,M17)/O17</f>
         <v>2.75</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y17-1)/2)</f>
         <v>0.125</v>
       </c>
       <c r="AA17" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D17:D1015,M17,G17:G1015,"1")/O17</f>
         <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D17:D1015,M17,G17:G1015,"2")/O17</f>
         <v>0.75</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D17:D1015,M17,G17:G1015,"3")/O17</f>
         <v>0.25</v>
       </c>
       <c r="AD17" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D18:D1015,M17,H18:H1015,"1")+COUNTIFS(D18:D1015,M17,H18:H1015,"1,2"))/O17</f>
         <v>1</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D18:D1015,M17,H18:H1015,"2")+COUNTIFS(D18:D1015,M17,H18:H1015,"1,2"))/O17</f>
         <v>0.5</v>
       </c>
       <c r="AF17" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D18:D1015,M17,I18:I1015,"1")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2,3"))/O17</f>
         <v>0</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D18:D1015,M17,I18:I1015,"2")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2")+COUNTIFS(D18:D1015,M17,I18:I1015,"2,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2,3"))/O17</f>
         <v>1</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D18:D1015,M17,I18:I1015,"3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"2,3")+COUNTIFS(D18:D1015,M17,I18:I1015,"1,2,3"))/O17</f>
         <v>0.25</v>
       </c>
       <c r="AI17" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D18:D1015,M17,J18:J1015,"1")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2,3"))/O17</f>
         <v>1</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D18:D1015,M17,J18:J1015,"2")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2")+COUNTIFS(D18:D1015,M17,J18:J1015,"2,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2,3"))/O17</f>
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D18:D1015,M17,J18:J1015,"3+X3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"2,3")+COUNTIFS(D18:D1015,M17,J18:J1015,"1,2,3"))/O17</f>
         <v>0</v>
       </c>
       <c r="AL17" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"1")/O17</f>
         <v>0.25</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"2")/O17</f>
         <v>0.75</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"3")/O17</f>
         <v>0</v>
       </c>
       <c r="AO17" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D17:D1015,M17,K17:K1015,"4")/O17</f>
         <v>0</v>
       </c>
     </row>
@@ -7395,111 +7357,111 @@
         <v>82</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D19:D1017,M18)</f>
         <v>3</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="27"/>
+        <f>O18/$M$32</f>
         <v>0.03</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P18&gt;0.7,"A",IF(P18&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F19:F1017,D19:D1017,M18)</f>
         <v>5</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="6"/>
+        <f>R18/O18</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S18-1)/4)</f>
         <v>0.83333333333333326</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="3"/>
+        <f>(P18+T18+Z18)/3</f>
         <v>0.62111111111111106</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D18:D1016,M18,E18:E1016,"1")/O18</f>
         <v>1</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D18:D1016,M18,E18:E1016,"2")/O18</f>
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D18:D1016,M18,E18:E1016,"3")/O18</f>
         <v>0</v>
       </c>
       <c r="Y18" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E18:E1016,D18:D1016,M18)/O18</f>
         <v>1</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y18-1)/2)</f>
         <v>1</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D18:D1016,M18,G18:G1016,"1")/O18</f>
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D18:D1016,M18,G18:G1016,"2")/O18</f>
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D18:D1016,M18,G18:G1016,"3")/O18</f>
         <v>1</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D19:D1016,M18,H19:H1016,"1")+COUNTIFS(D19:D1016,M18,H19:H1016,"1,2"))/O18</f>
         <v>1</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D19:D1016,M18,H19:H1016,"2")+COUNTIFS(D19:D1016,M18,H19:H1016,"1,2"))/O18</f>
         <v>1</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D19:D1016,M18,I19:I1016,"1")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2,3"))/O18</f>
         <v>1</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D19:D1016,M18,I19:I1016,"2")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2")+COUNTIFS(D19:D1016,M18,I19:I1016,"2,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2,3"))/O18</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D19:D1016,M18,I19:I1016,"3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"2,3")+COUNTIFS(D19:D1016,M18,I19:I1016,"1,2,3"))/O18</f>
         <v>1</v>
       </c>
       <c r="AI18" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D19:D1016,M18,J19:J1016,"1")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2,3"))/O18</f>
         <v>1</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D19:D1016,M18,J19:J1016,"2")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2")+COUNTIFS(D19:D1016,M18,J19:J1016,"2,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2,3"))/O18</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D19:D1016,M18,J19:J1016,"3+X3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"2,3")+COUNTIFS(D19:D1016,M18,J19:J1016,"1,2,3"))/O18</f>
         <v>1</v>
       </c>
       <c r="AL18" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"1")/O18</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"2")/O18</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"3")/O18</f>
         <v>0</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D18:D1016,M18,K18:K1016,"4")/O18</f>
         <v>0</v>
       </c>
     </row>
@@ -7541,114 +7503,114 @@
         <v>28</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D20:D1018,M19)</f>
         <v>3</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="27"/>
+        <f>O19/$M$32</f>
         <v>0.03</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P19&gt;0.7,"A",IF(P19&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F20:F1018,D20:D1018,M19)</f>
         <v>7</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="6"/>
+        <f>R19/O19</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S19-1)/4)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="3"/>
+        <f>(P19+T19+Z19)/3</f>
         <v>0.51</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D19:D1017,M19,E19:E1017,"1")/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D19:D1017,M19,E19:E1017,"2")/O19</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D19:D1017,M19,E19:E1017,"3")/O19</f>
         <v>0</v>
       </c>
       <c r="Y19" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E19:E1017,D19:D1017,M19)/O19</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y19-1)/2)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="AA19" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D19:D1017,M19,G19:G1017,"1")/O19</f>
         <v>0</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D19:D1017,M19,G19:G1017,"2")/O19</f>
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D19:D1017,M19,G19:G1017,"3")/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AD19" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D20:D1017,M19,H20:H1017,"1")+COUNTIFS(D20:D1017,M19,H20:H1017,"1,2"))/O19</f>
         <v>1</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D20:D1017,M19,H20:H1017,"2")+COUNTIFS(D20:D1017,M19,H20:H1017,"1,2"))/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AF19" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D20:D1017,M19,I20:I1017,"1")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2,3"))/O19</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D20:D1017,M19,I20:I1017,"2")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2")+COUNTIFS(D20:D1017,M19,I20:I1017,"2,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2,3"))/O19</f>
         <v>1</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D20:D1017,M19,I20:I1017,"3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"2,3")+COUNTIFS(D20:D1017,M19,I20:I1017,"1,2,3"))/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AI19" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D20:D1017,M19,J20:J1017,"1")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2,3"))/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D20:D1017,M19,J20:J1017,"2")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2")+COUNTIFS(D20:D1017,M19,J20:J1017,"2,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2,3"))/O19</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D20:D1017,M19,J20:J1017,"3+X3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"2,3")+COUNTIFS(D20:D1017,M19,J20:J1017,"1,2,3"))/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AL19" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"1")/O19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"2")/O19</f>
         <v>0</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"3")/O19</f>
         <v>0</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D19:D1017,M19,K19:K1017,"4")/O19</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7690,114 +7652,114 @@
         <v>20</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D21:D1019,M20)</f>
         <v>2</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="27"/>
+        <f>O20/$M$32</f>
         <v>0.02</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P20&gt;0.7,"A",IF(P20&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F21:F1019,D21:D1019,M20)</f>
         <v>4</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="6"/>
+        <f>R20/O20</f>
         <v>2</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S20-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="3"/>
+        <f>(P20+T20+Z20)/3</f>
         <v>0.34</v>
       </c>
       <c r="V20" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D20:D1018,M20,E20:E1018,"1")/O20</f>
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D20:D1018,M20,E20:E1018,"2")/O20</f>
         <v>0.5</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D20:D1018,M20,E20:E1018,"3")/O20</f>
         <v>0.5</v>
       </c>
       <c r="Y20" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E20:E1018,D20:D1018,M20)/O20</f>
         <v>2.5</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y20-1)/2)</f>
         <v>0.25</v>
       </c>
       <c r="AA20" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D20:D1018,M20,G20:G1018,"1")/O20</f>
         <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D20:D1018,M20,G20:G1018,"2")/O20</f>
         <v>0.5</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D20:D1018,M20,G20:G1018,"3")/O20</f>
         <v>0</v>
       </c>
       <c r="AD20" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D21:D1018,M20,H21:H1018,"1")+COUNTIFS(D21:D1018,M20,H21:H1018,"1,2"))/O20</f>
         <v>1</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D21:D1018,M20,H21:H1018,"2")+COUNTIFS(D21:D1018,M20,H21:H1018,"1,2"))/O20</f>
         <v>1</v>
       </c>
       <c r="AF20" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D21:D1018,M20,I21:I1018,"1")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2,3"))/O20</f>
         <v>0</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D21:D1018,M20,I21:I1018,"2")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2")+COUNTIFS(D21:D1018,M20,I21:I1018,"2,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2,3"))/O20</f>
         <v>1</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D21:D1018,M20,I21:I1018,"3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"2,3")+COUNTIFS(D21:D1018,M20,I21:I1018,"1,2,3"))/O20</f>
         <v>1</v>
       </c>
       <c r="AI20" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D21:D1018,M20,J21:J1018,"1")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2,3"))/O20</f>
         <v>0.5</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D21:D1018,M20,J21:J1018,"2")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2")+COUNTIFS(D21:D1018,M20,J21:J1018,"2,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2,3"))/O20</f>
         <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D21:D1018,M20,J21:J1018,"3+X3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"2,3")+COUNTIFS(D21:D1018,M20,J21:J1018,"1,2,3"))/O20</f>
         <v>0.5</v>
       </c>
       <c r="AL20" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"1")/O20</f>
         <v>0.5</v>
       </c>
       <c r="AM20" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"2")/O20</f>
         <v>0.5</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"3")/O20</f>
         <v>0</v>
       </c>
       <c r="AO20" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D20:D1018,M20,K20:K1018,"4")/O20</f>
         <v>0</v>
       </c>
     </row>
@@ -7839,114 +7801,114 @@
         <v>26</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D22:D1020,M21)</f>
         <v>2</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="27"/>
+        <f>O21/$M$32</f>
         <v>0.02</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P21&gt;0.7,"A",IF(P21&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F22:F1020,D22:D1020,M21)</f>
         <v>2</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="6"/>
+        <f>R21/O21</f>
         <v>1</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S21-1)/4)</f>
         <v>1</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="3"/>
+        <f>(P21+T21+Z21)/3</f>
         <v>0.67333333333333334</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D21:D1019,M21,E21:E1019,"1")/O21</f>
         <v>1</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D21:D1019,M21,E21:E1019,"2")/O21</f>
         <v>0</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D21:D1019,M21,E21:E1019,"3")/O21</f>
         <v>0</v>
       </c>
       <c r="Y21" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E21:E1019,D21:D1019,M21)/O21</f>
         <v>1</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y21-1)/2)</f>
         <v>1</v>
       </c>
       <c r="AA21" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D21:D1019,M21,G21:G1019,"1")/O21</f>
         <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D21:D1019,M21,G21:G1019,"2")/O21</f>
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D21:D1019,M21,G21:G1019,"3")/O21</f>
         <v>1</v>
       </c>
       <c r="AD21" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D22:D1019,M21,H22:H1019,"1")+COUNTIFS(D22:D1019,M21,H22:H1019,"1,2"))/O21</f>
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D22:D1019,M21,H22:H1019,"2")+COUNTIFS(D22:D1019,M21,H22:H1019,"1,2"))/O21</f>
         <v>1</v>
       </c>
       <c r="AF21" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D22:D1019,M21,I22:I1019,"1")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2,3"))/O21</f>
         <v>0.5</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D22:D1019,M21,I22:I1019,"2")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2")+COUNTIFS(D22:D1019,M21,I22:I1019,"2,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2,3"))/O21</f>
         <v>0</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D22:D1019,M21,I22:I1019,"3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"2,3")+COUNTIFS(D22:D1019,M21,I22:I1019,"1,2,3"))/O21</f>
         <v>0.5</v>
       </c>
       <c r="AI21" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D22:D1019,M21,J22:J1019,"1")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2,3"))/O21</f>
         <v>0.5</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D22:D1019,M21,J22:J1019,"2")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2")+COUNTIFS(D22:D1019,M21,J22:J1019,"2,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2,3"))/O21</f>
         <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D22:D1019,M21,J22:J1019,"3+X3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"2,3")+COUNTIFS(D22:D1019,M21,J22:J1019,"1,2,3"))/O21</f>
         <v>0.5</v>
       </c>
       <c r="AL21" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"1")/O21</f>
         <v>1</v>
       </c>
       <c r="AM21" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"2")/O21</f>
         <v>0</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"3")/O21</f>
         <v>0</v>
       </c>
       <c r="AO21" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D21:D1019,M21,K21:K1019,"4")/O21</f>
         <v>0</v>
       </c>
     </row>
@@ -7988,114 +7950,114 @@
         <v>35</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D23:D1021,M22)</f>
         <v>1</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="27"/>
+        <f>O22/$M$32</f>
         <v>0.01</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P22&gt;0.7,"A",IF(P22&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F23:F1021,D23:D1021,M22)</f>
         <v>5</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="6"/>
+        <f>R22/O22</f>
         <v>5</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S22-1)/4)</f>
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="3"/>
+        <f>(P22+T22+Z22)/3</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D22:D1020,M22,E22:E1020,"1")/O22</f>
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D22:D1020,M22,E22:E1020,"2")/O22</f>
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D22:D1020,M22,E22:E1020,"3")/O22</f>
         <v>1</v>
       </c>
       <c r="Y22" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E22:E1020,D22:D1020,M22)/O22</f>
         <v>3</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y22-1)/2)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D22:D1020,M22,G22:G1020,"1")/O22</f>
         <v>0</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D22:D1020,M22,G22:G1020,"2")/O22</f>
         <v>1</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D22:D1020,M22,G22:G1020,"3")/O22</f>
         <v>0</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D23:D1020,M22,H23:H1020,"1")+COUNTIFS(D23:D1020,M22,H23:H1020,"1,2"))/O22</f>
         <v>1</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D23:D1020,M22,H23:H1020,"2")+COUNTIFS(D23:D1020,M22,H23:H1020,"1,2"))/O22</f>
         <v>1</v>
       </c>
       <c r="AF22" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D23:D1020,M22,I23:I1020,"1")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2,3"))/O22</f>
         <v>0</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D23:D1020,M22,I23:I1020,"2")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2")+COUNTIFS(D23:D1020,M22,I23:I1020,"2,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2,3"))/O22</f>
         <v>1</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D23:D1020,M22,I23:I1020,"3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"2,3")+COUNTIFS(D23:D1020,M22,I23:I1020,"1,2,3"))/O22</f>
         <v>1</v>
       </c>
       <c r="AI22" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D23:D1020,M22,J23:J1020,"1")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2,3"))/O22</f>
         <v>1</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D23:D1020,M22,J23:J1020,"2")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2")+COUNTIFS(D23:D1020,M22,J23:J1020,"2,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2,3"))/O22</f>
         <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D23:D1020,M22,J23:J1020,"3+X3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"2,3")+COUNTIFS(D23:D1020,M22,J23:J1020,"1,2,3"))/O22</f>
         <v>0</v>
       </c>
       <c r="AL22" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"1")/O22</f>
         <v>0</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"2")/O22</f>
         <v>1</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"3")/O22</f>
         <v>0</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D22:D1020,M22,K22:K1020,"4")/O22</f>
         <v>0</v>
       </c>
     </row>
@@ -8137,114 +8099,114 @@
         <v>36</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D24:D1022,M23)</f>
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="27"/>
+        <f>O23/$M$32</f>
         <v>0.01</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P23&gt;0.7,"A",IF(P23&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F24:F1022,D24:D1022,M23)</f>
         <v>2</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="6"/>
+        <f>R23/O23</f>
         <v>2</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S23-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="3"/>
+        <f>(P23+T23+Z23)/3</f>
         <v>0.42</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D23:D1021,M23,E23:E1021,"1")/O23</f>
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D23:D1021,M23,E23:E1021,"2")/O23</f>
         <v>1</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D23:D1021,M23,E23:E1021,"3")/O23</f>
         <v>0</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E23:E1021,D23:D1021,M23)/O23</f>
         <v>2</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y23-1)/2)</f>
         <v>0.5</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D23:D1021,M23,G23:G1021,"1")/O23</f>
         <v>1</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D23:D1021,M23,G23:G1021,"2")/O23</f>
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D23:D1021,M23,G23:G1021,"3")/O23</f>
         <v>0</v>
       </c>
       <c r="AD23" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D24:D1021,M23,H24:H1021,"1")+COUNTIFS(D24:D1021,M23,H24:H1021,"1,2"))/O23</f>
         <v>1</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D24:D1021,M23,H24:H1021,"2")+COUNTIFS(D24:D1021,M23,H24:H1021,"1,2"))/O23</f>
         <v>0</v>
       </c>
       <c r="AF23" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D24:D1021,M23,I24:I1021,"1")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D24:D1021,M23,I24:I1021,"2")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2")+COUNTIFS(D24:D1021,M23,I24:I1021,"2,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2,3"))/O23</f>
         <v>1</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D24:D1021,M23,I24:I1021,"3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"2,3")+COUNTIFS(D24:D1021,M23,I24:I1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
       <c r="AI23" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D24:D1021,M23,J24:J1021,"1")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2,3"))/O23</f>
         <v>1</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D24:D1021,M23,J24:J1021,"2")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2")+COUNTIFS(D24:D1021,M23,J24:J1021,"2,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D24:D1021,M23,J24:J1021,"3+X3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"2,3")+COUNTIFS(D24:D1021,M23,J24:J1021,"1,2,3"))/O23</f>
         <v>0</v>
       </c>
       <c r="AL23" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"1")/O23</f>
         <v>1</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"2")/O23</f>
         <v>0</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"3")/O23</f>
         <v>0</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D23:D1021,M23,K23:K1021,"4")/O23</f>
         <v>0</v>
       </c>
     </row>
@@ -8286,114 +8248,114 @@
         <v>37</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D25:D1023,M24)</f>
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="27"/>
+        <f>O24/$M$32</f>
         <v>0.01</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P24&gt;0.7,"A",IF(P24&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F25:F1023,D25:D1023,M24)</f>
         <v>2</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="6"/>
+        <f>R24/O24</f>
         <v>2</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S24-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="3"/>
+        <f>(P24+T24+Z24)/3</f>
         <v>0.42</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D24:D1022,M24,E24:E1022,"1")/O24</f>
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D24:D1022,M24,E24:E1022,"2")/O24</f>
         <v>1</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D24:D1022,M24,E24:E1022,"3")/O24</f>
         <v>0</v>
       </c>
       <c r="Y24" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E24:E1022,D24:D1022,M24)/O24</f>
         <v>2</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y24-1)/2)</f>
         <v>0.5</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D24:D1022,M24,G24:G1022,"1")/O24</f>
         <v>0</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D24:D1022,M24,G24:G1022,"2")/O24</f>
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D24:D1022,M24,G24:G1022,"3")/O24</f>
         <v>1</v>
       </c>
       <c r="AD24" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D25:D1022,M24,H25:H1022,"1")+COUNTIFS(D25:D1022,M24,H25:H1022,"1,2"))/O24</f>
         <v>1</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D25:D1022,M24,H25:H1022,"2")+COUNTIFS(D25:D1022,M24,H25:H1022,"1,2"))/O24</f>
         <v>1</v>
       </c>
       <c r="AF24" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D25:D1022,M24,I25:I1022,"1")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D25:D1022,M24,I25:I1022,"2")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2")+COUNTIFS(D25:D1022,M24,I25:I1022,"2,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2,3"))/O24</f>
         <v>1</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D25:D1022,M24,I25:I1022,"3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"2,3")+COUNTIFS(D25:D1022,M24,I25:I1022,"1,2,3"))/O24</f>
         <v>1</v>
       </c>
       <c r="AI24" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D25:D1022,M24,J25:J1022,"1")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D25:D1022,M24,J25:J1022,"2")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2")+COUNTIFS(D25:D1022,M24,J25:J1022,"2,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D25:D1022,M24,J25:J1022,"3+X3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"2,3")+COUNTIFS(D25:D1022,M24,J25:J1022,"1,2,3"))/O24</f>
         <v>0</v>
       </c>
       <c r="AL24" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"1")/O24</f>
         <v>0</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"2")/O24</f>
         <v>1</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"3")/O24</f>
         <v>0</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D24:D1022,M24,K24:K1022,"4")/O24</f>
         <v>0</v>
       </c>
     </row>
@@ -8438,111 +8400,111 @@
         <v>83</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D26:D1024,M25)</f>
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="27"/>
+        <f>O25/$M$32</f>
         <v>0.01</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P25&gt;0.7,"A",IF(P25&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F26:F1024,D26:D1024,M25)</f>
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="6"/>
+        <f>R25/O25</f>
         <v>1</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S25-1)/4)</f>
         <v>1</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="3"/>
+        <f>(P25+T25+Z25)/3</f>
         <v>0.66999999999999993</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D25:D1023,M25,E25:E1023,"1")/O25</f>
         <v>1</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D25:D1023,M25,E25:E1023,"2")/O25</f>
         <v>0</v>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D25:D1023,M25,E25:E1023,"3")/O25</f>
         <v>0</v>
       </c>
       <c r="Y25" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E25:E1023,D25:D1023,M25)/O25</f>
         <v>1</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y25-1)/2)</f>
         <v>1</v>
       </c>
       <c r="AA25" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D25:D1023,M25,G25:G1023,"1")/O25</f>
         <v>0</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D25:D1023,M25,G25:G1023,"2")/O25</f>
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D25:D1023,M25,G25:G1023,"3")/O25</f>
         <v>1</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D26:D1023,M25,H26:H1023,"1")+COUNTIFS(D26:D1023,M25,H26:H1023,"1,2"))/O25</f>
         <v>1</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D26:D1023,M25,H26:H1023,"2")+COUNTIFS(D26:D1023,M25,H26:H1023,"1,2"))/O25</f>
         <v>0</v>
       </c>
       <c r="AF25" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D26:D1023,M25,I26:I1023,"1")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2,3"))/O25</f>
         <v>0</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D26:D1023,M25,I26:I1023,"2")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2")+COUNTIFS(D26:D1023,M25,I26:I1023,"2,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2,3"))/O25</f>
         <v>1</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D26:D1023,M25,I26:I1023,"3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"2,3")+COUNTIFS(D26:D1023,M25,I26:I1023,"1,2,3"))/O25</f>
         <v>0</v>
       </c>
       <c r="AI25" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D26:D1023,M25,J26:J1023,"1")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2,3"))/O25</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D26:D1023,M25,J26:J1023,"2")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2")+COUNTIFS(D26:D1023,M25,J26:J1023,"2,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2,3"))/O25</f>
         <v>1</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D26:D1023,M25,J26:J1023,"3+X3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"2,3")+COUNTIFS(D26:D1023,M25,J26:J1023,"1,2,3"))/O25</f>
         <v>1</v>
       </c>
       <c r="AL25" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"1")/O25</f>
         <v>1</v>
       </c>
       <c r="AM25" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"2")/O25</f>
         <v>0</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"3")/O25</f>
         <v>0</v>
       </c>
       <c r="AO25" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D25:D1023,M25,K25:K1023,"4")/O25</f>
         <v>0</v>
       </c>
     </row>
@@ -8584,114 +8546,114 @@
         <v>72</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(D27:D1025,M26)</f>
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="27"/>
+        <f>O26/$M$32</f>
         <v>0.01</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P26&gt;0.7,"A",IF(P26&gt;0.1,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="8"/>
+        <f>SUMIFS(F27:F1025,D27:D1025,M26)</f>
         <v>2</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="6"/>
+        <f>R26/O26</f>
         <v>2</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="2"/>
+        <f>1-((S26-1)/4)</f>
         <v>0.75</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="3"/>
+        <f>(P26+T26+Z26)/3</f>
         <v>0.25333333333333335</v>
       </c>
       <c r="V26" s="9">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS(D26:D1024,M26,E26:E1024,"1")/O26</f>
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="10"/>
+        <f>COUNTIFS(D26:D1024,M26,E26:E1024,"2")/O26</f>
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(D26:D1024,M26,E26:E1024,"3")/O26</f>
         <v>1</v>
       </c>
       <c r="Y26" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(E26:E1024,D26:D1024,M26)/O26</f>
         <v>3</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="5"/>
+        <f>1-((Y26-1)/2)</f>
         <v>0</v>
       </c>
       <c r="AA26" s="9">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS(D26:D1024,M26,G26:G1024,"1")/O26</f>
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(D26:D1024,M26,G26:G1024,"2")/O26</f>
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS(D26:D1024,M26,G26:G1024,"3")/O26</f>
         <v>1</v>
       </c>
       <c r="AD26" s="9">
-        <f t="shared" si="15"/>
+        <f>(COUNTIFS(D27:D1024,M26,H27:H1024,"1")+COUNTIFS(D27:D1024,M26,H27:H1024,"1,2"))/O26</f>
         <v>0</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="16"/>
+        <f>(COUNTIFS(D27:D1024,M26,H27:H1024,"2")+COUNTIFS(D27:D1024,M26,H27:H1024,"1,2"))/O26</f>
         <v>1</v>
       </c>
       <c r="AF26" s="9">
-        <f t="shared" si="17"/>
+        <f>(COUNTIFS(D27:D1024,M26,I27:I1024,"1")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="18"/>
+        <f>(COUNTIFS(D27:D1024,M26,I27:I1024,"2")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2")+COUNTIFS(D27:D1024,M26,I27:I1024,"2,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="19"/>
+        <f>(COUNTIFS(D27:D1024,M26,I27:I1024,"3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"2,3")+COUNTIFS(D27:D1024,M26,I27:I1024,"1,2,3"))/O26</f>
         <v>1</v>
       </c>
       <c r="AI26" s="9">
-        <f t="shared" si="20"/>
+        <f>(COUNTIFS(D27:D1024,M26,J27:J1024,"1")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="21"/>
+        <f>(COUNTIFS(D27:D1024,M26,J27:J1024,"2")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2")+COUNTIFS(D27:D1024,M26,J27:J1024,"2,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="22"/>
+        <f>(COUNTIFS(D27:D1024,M26,J27:J1024,"3+X3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"2,3")+COUNTIFS(D27:D1024,M26,J27:J1024,"1,2,3"))/O26</f>
         <v>0</v>
       </c>
       <c r="AL26" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"1")/O26</f>
         <v>1</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="24"/>
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"2")/O26</f>
         <v>0</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="25"/>
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"3")/O26</f>
         <v>0</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="26"/>
+        <f>COUNTIFS(D26:D1024,M26,K26:K1024,"4")/O26</f>
         <v>0</v>
       </c>
     </row>
@@ -8771,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="1">
         <f>SUM(O3:O26)</f>
@@ -8846,15 +8808,15 @@
         <v>0.54766355140186918</v>
       </c>
       <c r="AM29" s="9">
-        <f t="shared" ref="AM29:AO29" si="28">AM28/535</f>
+        <f t="shared" ref="AM29:AO29" si="6">AM28/535</f>
         <v>0.23177570093457944</v>
       </c>
       <c r="AN29" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="6"/>
         <v>4.2990654205607479E-2</v>
       </c>
       <c r="AO29" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="6"/>
         <v>0.17570093457943925</v>
       </c>
     </row>
@@ -8931,13 +8893,13 @@
         <v>33</v>
       </c>
       <c r="N31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="20" t="s">
+      <c r="P31" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="Q31"/>
       <c r="R31"/>
@@ -8949,16 +8911,16 @@
         <v>82</v>
       </c>
       <c r="V31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y31" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="W31" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="X31" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y31" s="18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="17.25" thickTop="1" thickBot="1">
@@ -9011,7 +8973,7 @@
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T32" s="18">
         <f>SUMIFS(O3:O26,N3:N26,T31)</f>
@@ -9073,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T33" s="19">
         <f>T32/O28</f>
@@ -9553,15 +9515,15 @@
         <v>2</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" ref="S44:S51" si="29">SUMIFS(N44:N1002,O44:O1002,R44)</f>
+        <f t="shared" ref="S44:S51" si="7">SUMIFS(N44:N1002,O44:O1002,R44)</f>
         <v>64</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" ref="T44:T51" si="30">COUNTIF(O44:O1002,R44)</f>
+        <f t="shared" ref="T44:T51" si="8">COUNTIF(O44:O1002,R44)</f>
         <v>14</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" ref="U44:U49" si="31">S44/T44</f>
+        <f t="shared" ref="U44:U49" si="9">S44/T44</f>
         <v>4.5714285714285712</v>
       </c>
     </row>
@@ -9616,15 +9578,15 @@
         <v>3</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>6.117647058823529</v>
       </c>
     </row>
@@ -9666,7 +9628,7 @@
         <v>4</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ref="N46:N50" si="32">COUNTIF(A4:A1001,M46)</f>
+        <f t="shared" ref="N46:N50" si="10">COUNTIF(A4:A1001,M46)</f>
         <v>4</v>
       </c>
       <c r="O46" s="1">
@@ -9679,15 +9641,15 @@
         <v>4</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>5.6363636363636367</v>
       </c>
     </row>
@@ -9729,7 +9691,7 @@
         <v>5</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="O47" s="1">
@@ -9742,15 +9704,15 @@
         <v>5</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>7.4666666666666668</v>
       </c>
     </row>
@@ -9792,7 +9754,7 @@
         <v>6</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="O48" s="1">
@@ -9805,15 +9767,15 @@
         <v>6</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9855,7 +9817,7 @@
         <v>7</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="O49" s="1">
@@ -9868,15 +9830,15 @@
         <v>7</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -9918,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="O50" s="1">
@@ -9931,11 +9893,11 @@
         <v>8</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U50" s="1">
@@ -9993,11 +9955,11 @@
         <v>9</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U51" s="1">
@@ -10042,7 +10004,7 @@
         <v>10</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" ref="N52:N115" si="33">COUNTIF(A10:A1007,M52)</f>
+        <f t="shared" ref="N52:N115" si="11">COUNTIF(A10:A1007,M52)</f>
         <v>1</v>
       </c>
       <c r="O52" s="1">
@@ -10090,7 +10052,7 @@
         <v>11</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O53" s="1">
@@ -10138,7 +10100,7 @@
         <v>12</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O54" s="1">
@@ -10186,7 +10148,7 @@
         <v>13</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O55" s="1">
@@ -10234,7 +10196,7 @@
         <v>14</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O56" s="1">
@@ -10282,7 +10244,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O57" s="1">
@@ -10330,7 +10292,7 @@
         <v>16</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O58" s="1">
@@ -10378,7 +10340,7 @@
         <v>17</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O59" s="1">
@@ -10426,7 +10388,7 @@
         <v>18</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O60" s="1">
@@ -10475,7 +10437,7 @@
         <v>19</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O61" s="1">
@@ -10523,7 +10485,7 @@
         <v>20</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O62" s="1">
@@ -10571,7 +10533,7 @@
         <v>21</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O63" s="1">
@@ -10619,7 +10581,7 @@
         <v>22</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O64" s="1">
@@ -10667,7 +10629,7 @@
         <v>23</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O65" s="1">
@@ -10715,7 +10677,7 @@
         <v>24</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O66" s="1">
@@ -10763,7 +10725,7 @@
         <v>25</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O67" s="1">
@@ -10811,7 +10773,7 @@
         <v>26</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O68" s="1">
@@ -10859,7 +10821,7 @@
         <v>27</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O69" s="1">
@@ -10907,7 +10869,7 @@
         <v>28</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O70" s="1">
@@ -10955,7 +10917,7 @@
         <v>29</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O71" s="1">
@@ -11003,7 +10965,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
@@ -11051,7 +11013,7 @@
         <v>31</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O73" s="1">
@@ -11099,7 +11061,7 @@
         <v>32</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O74" s="1">
@@ -11147,7 +11109,7 @@
         <v>33</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O75" s="1">
@@ -11195,7 +11157,7 @@
         <v>34</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O76" s="1">
@@ -11243,7 +11205,7 @@
         <v>35</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O77" s="1">
@@ -11291,7 +11253,7 @@
         <v>36</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O78" s="1">
@@ -11339,7 +11301,7 @@
         <v>37</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O79" s="1">
@@ -11387,7 +11349,7 @@
         <v>38</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O80" s="1">
@@ -11435,7 +11397,7 @@
         <v>39</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O81" s="1">
@@ -11483,7 +11445,7 @@
         <v>40</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O82" s="1">
@@ -11531,7 +11493,7 @@
         <v>41</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O83" s="1">
@@ -11579,7 +11541,7 @@
         <v>42</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O84" s="1">
@@ -11627,7 +11589,7 @@
         <v>43</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O85" s="1">
@@ -11675,7 +11637,7 @@
         <v>44</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O86" s="1">
@@ -11723,7 +11685,7 @@
         <v>45</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O87" s="1">
@@ -11771,7 +11733,7 @@
         <v>46</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O88" s="1">
@@ -11819,7 +11781,7 @@
         <v>47</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O89" s="1">
@@ -11867,7 +11829,7 @@
         <v>48</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O90" s="1">
@@ -11915,7 +11877,7 @@
         <v>49</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="O91" s="1">
@@ -11963,7 +11925,7 @@
         <v>50</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O92" s="1">
@@ -12011,7 +11973,7 @@
         <v>51</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O93" s="1">
@@ -12059,7 +12021,7 @@
         <v>52</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O94" s="1">
@@ -12107,7 +12069,7 @@
         <v>53</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O95" s="1">
@@ -12155,7 +12117,7 @@
         <v>54</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O96" s="1">
@@ -12203,7 +12165,7 @@
         <v>55</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O97" s="1">
@@ -12251,7 +12213,7 @@
         <v>56</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O98" s="1">
@@ -12299,7 +12261,7 @@
         <v>57</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="O99" s="1">
@@ -12347,7 +12309,7 @@
         <v>58</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O100" s="1">
@@ -12395,7 +12357,7 @@
         <v>59</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="O101" s="1">
@@ -12443,7 +12405,7 @@
         <v>60</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O102" s="1">
@@ -12491,7 +12453,7 @@
         <v>61</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O103" s="1">
@@ -12539,7 +12501,7 @@
         <v>62</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O104" s="1">
@@ -12587,7 +12549,7 @@
         <v>63</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O105" s="1">
@@ -12635,7 +12597,7 @@
         <v>64</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O106" s="1">
@@ -12683,7 +12645,7 @@
         <v>65</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O107" s="1">
@@ -12731,7 +12693,7 @@
         <v>66</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="O108" s="1">
@@ -12779,7 +12741,7 @@
         <v>67</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O109" s="1">
@@ -12827,7 +12789,7 @@
         <v>68</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O110" s="1">
@@ -12875,7 +12837,7 @@
         <v>69</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="O111" s="1">
@@ -12923,7 +12885,7 @@
         <v>70</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O112" s="1">
@@ -12971,7 +12933,7 @@
         <v>71</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O113" s="1">
@@ -13019,7 +12981,7 @@
         <v>72</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O114" s="1">
@@ -13067,7 +13029,7 @@
         <v>73</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O115" s="1">
@@ -13115,7 +13077,7 @@
         <v>74</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" ref="N116:N142" si="34">COUNTIF(A74:A1071,M116)</f>
+        <f t="shared" ref="N116:N142" si="12">COUNTIF(A74:A1071,M116)</f>
         <v>7</v>
       </c>
       <c r="O116" s="1">
@@ -13163,7 +13125,7 @@
         <v>75</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="O117" s="1">
@@ -13211,7 +13173,7 @@
         <v>76</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="O118" s="1">
@@ -13259,7 +13221,7 @@
         <v>77</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O119" s="1">
@@ -13307,7 +13269,7 @@
         <v>78</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O120" s="1">
@@ -13355,7 +13317,7 @@
         <v>79</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="O121" s="1">
@@ -13403,7 +13365,7 @@
         <v>80</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="O122" s="1">
@@ -13451,7 +13413,7 @@
         <v>81</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O123" s="1">
@@ -13499,7 +13461,7 @@
         <v>82</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O124" s="1">
@@ -13547,7 +13509,7 @@
         <v>83</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O125" s="1">
@@ -13595,7 +13557,7 @@
         <v>84</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O126" s="1">
@@ -13643,7 +13605,7 @@
         <v>85</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="O127" s="1">
@@ -13691,7 +13653,7 @@
         <v>86</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="O128" s="1">
@@ -13739,7 +13701,7 @@
         <v>87</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O129" s="1">
@@ -13787,7 +13749,7 @@
         <v>88</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O130" s="1">
@@ -13835,7 +13797,7 @@
         <v>89</v>
       </c>
       <c r="N131" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O131" s="1">
@@ -13883,7 +13845,7 @@
         <v>90</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="O132" s="1">
@@ -13931,7 +13893,7 @@
         <v>91</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O133" s="1">
@@ -13979,7 +13941,7 @@
         <v>92</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O134" s="1">
@@ -14027,7 +13989,7 @@
         <v>93</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O135" s="1">
@@ -14075,7 +14037,7 @@
         <v>94</v>
       </c>
       <c r="N136" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O136" s="1">
@@ -14123,7 +14085,7 @@
         <v>95</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O137" s="1">
@@ -14171,7 +14133,7 @@
         <v>96</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O138" s="1">
@@ -14219,7 +14181,7 @@
         <v>97</v>
       </c>
       <c r="N139" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O139" s="1">
@@ -14267,7 +14229,7 @@
         <v>98</v>
       </c>
       <c r="N140" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O140" s="1">
@@ -14315,7 +14277,7 @@
         <v>99</v>
       </c>
       <c r="N141" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="O141" s="1">
@@ -14363,7 +14325,7 @@
         <v>100</v>
       </c>
       <c r="N142" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="O142" s="1">
@@ -28269,7 +28231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I5:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -28331,8 +28293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
